--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C829C0-326F-44AB-8B68-9A77628B1199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9487EA9-D5B5-41FC-927B-E6D1B1ECDF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -511,6 +511,112 @@
   </si>
   <si>
     <t>Amazon EMR is the industry-leading cloud big data platform for processing vast amounts of data using open source tools such as Apache Spark, Apache Hive, Apache HBase, Apache Flink, Apache Hudi, and Presto.</t>
+  </si>
+  <si>
+    <t>Seguridad, identidad 
+y conformidad</t>
+  </si>
+  <si>
+    <t>Amazon Cloud Directory</t>
+  </si>
+  <si>
+    <t>Amazon Cloud Directory le permite diseñar directorios flexibles nativos en la nube para organizar las jerarquías de datos en distintas dimensiones. Con Cloud Directory puede crear directorios para una amplia variedad de casos de uso, como organigramas, catálogos de cursos y registros de dispositivos. Por ejemplo, puede crear un
+organigrama por el que se pueda navegar a través de jerarquías independientes para estructura de informes, ubicación y centro de costos</t>
+  </si>
+  <si>
+    <t>Amazon Cloud Directory enables you to build flexible cloud-native directories for organizing hierarchies of data along multiple dimensions. With Cloud Directory, you can create directories for a variety of use cases, such as organizational charts, course catalogs, and device registries.For example, you can create an organizational chart that can be navigated through separate hierarchies for reporting structure, location, and cost center.</t>
+  </si>
+  <si>
+    <t>AWS Identity and Access Management (IAM) le permite controlar el acceso de los usuarios a los servicios y recursos de AWS de forma segura. Con IAM puede crear y administrar usuarios y grupos de AWS, y utilizar permisos para permitir o denegar el acceso a los recursos de AWS</t>
+  </si>
+  <si>
+    <t>AWS Identity and Access Management (IAM) enables you to manage access to AWS services and resources securely. Using IAM, you can create and manage AWS users and groups, and use permissions to allow and deny their access to AWS resources.
+IAM is a feature of your AWS account offered at no additional charge. You will be charged only for use of other AWS services by your users.</t>
+  </si>
+  <si>
+    <t>AWS Identity and Access Management (IAM)</t>
+  </si>
+  <si>
+    <t>Amazon Inspector es un servicio automatizado de evaluación de seguridad que lo ayuda a mejorar la seguridad y la conformidad de las aplicaciones que implemente en AWS. Amazon Inspector evalúa automáticamente las aplicaciones para detectar vulnerabilidades o desviaciones de las prácticas recomendadas</t>
+  </si>
+  <si>
+    <t>Amazon Inspector is an automated security assessment service that helps improve the security and compliance of applications deployed on AWS. Amazon Inspector automatically assesses applications for exposure, vulnerabilities, and deviations from best practices</t>
+  </si>
+  <si>
+    <t>Amazon Inspector</t>
+  </si>
+  <si>
+    <t>AWS Certiﬁcate Manager es un servicio que le permite aprovisionar, administrar e implementar fácilmente los certificados de capa de conexión segura/Transport Layer Security (SSL/TLS) para su uso con servicios de AWS. Los certificados SSL/TLS se emplean para proteger las comunicaciones de red y establecer la identidad
+de los sitios web en Internet</t>
+  </si>
+  <si>
+    <t>AWS Certiﬁcate Manager</t>
+  </si>
+  <si>
+    <t>AWS Certificate Manager is a service that lets you easily provision, manage, and deploy public and private Secure Sockets Layer/Transport Layer Security (SSL/TLS) certificates for use with AWS services and your internal connected resources. SSL/TLS certificates are used to secure network communications and establish the identity of websites over the Internet as well as resources on private networks.</t>
+  </si>
+  <si>
+    <t>El servicio AWS CloudHSM lo ayuda a cumplir con sus requisitos de conformidad corporativos, contractuales y normativos para la seguridad de los datos por medio de dispositivos dedicados de módulo de seguridad de hardware (HSM) dentro de la nube de AWS. El servicio AWS CloudHSM le permite proteger sus claves de cifrado dentro de los HSM diseñados y validados para los estándares gubernamentales a fin de garantizar la administración segura de las claves</t>
+  </si>
+  <si>
+    <t>AWS CloudHSM</t>
+  </si>
+  <si>
+    <t>AWS CloudHSM is a cloud-based hardware security module (HSM) that enables you to easily generate and use your own encryption keys on the AWS Cloud. With CloudHSM, you can manage your own encryption keys using FIPS 140-2 Level 3 validated HSMs. CloudHSM offers you the flexibility to integrate with your applications using industry-standard APIs, such as PKCS#11, Java Cryptography Extensions (JCE), and Microsoft CryptoNG (CNG) libraries</t>
+  </si>
+  <si>
+    <t>AWS Directory Service para Microsoft Active Directory (Enterprise Edition), también conocido como AWS Microsoft AD, permite que las cargas de trabajo compatibles con los directorios y los recursos de AWS utilicen Active Directory administrado en la nube de AWS. El servicio de AWS Microsoft AD se integra en Microsoft Active Directory y no requiere la sincronización o la replicación de los datos desde su Active Directory a la
+nube</t>
+  </si>
+  <si>
+    <t>AWS Directory Service</t>
+  </si>
+  <si>
+    <t>AWS Directory Service for Microsoft Active Directory, also known as AWS Managed Microsoft Active Directory (AD), enables your directory-aware workloads and AWS resources to use managed Active Directory (AD) in AWS. AWS Managed Microsoft AD is built on actual Microsoft AD and does not require you to synchronize or replicate data from your existing Active Directory to the cloud</t>
+  </si>
+  <si>
+    <t>AWS Key Management Service (KMS) makes it easy for you to create and manage cryptographic keys and control their use across a wide range of AWS services and in your applications. AWS KMS is a secure and resilient service that uses hardware security modules that have been validated under FIPS 140-2, or are in the process of being validated, to protect your keys. AWS KMS is integrated with AWS CloudTrail to provide you with logs of all key usage to help meet your regulatory and compliance needs.</t>
+  </si>
+  <si>
+    <t>AWS Key Management Service (KMS) es un servicio administrado que le facilita la tarea de crear y controlar las claves de cifrado que se usan para cifrar los datos. Este servicio emplea módulos de seguridad de hardware para proteger la seguridad de sus claves.AWS Key Management Service también se integra en AWS CloudTrail a fin de ofrecerle logs de todo el uso de lasclaves. Así podrá cumplir con sus necesidades de conformidad normativa</t>
+  </si>
+  <si>
+    <t>AWS Key Management Service (KMS)</t>
+  </si>
+  <si>
+    <t>Con AWS Organizations puede crear grupos de cuentas de AWS y usarlos para administrar con más facilidad la configuración de la seguridad y la automatización. Organizations le permite administrar de forma centralizada varias cuentas para que el escalado sea más sencillo. Puede controlar qué servicios de AWS se encuentran disponibles para cuentas individuales, automatizar la creación de nuevas cuentas y
+simplificar la facturación</t>
+  </si>
+  <si>
+    <t>AWS Organizations</t>
+  </si>
+  <si>
+    <t>AWS Organizations helps you centrally manage and govern your environment as you grow and scale your AWS resources. Using AWS Organizations, you can programmatically create new AWS accounts and allocate resources, group accounts to organize your workflows, apply policies to accounts or groups for governance, and simplify billing by using a single payment method for all of your accounts</t>
+  </si>
+  <si>
+    <t>AWS Shield</t>
+  </si>
+  <si>
+    <t>AWS Shield is a managed Distributed Denial of Service (DDoS) protection service that safeguards applications running on AWS. AWS Shield provides always-on detection and automatic inline mitigations that minimize application downtime and latency, so there is no need to engage AWS Support to benefit from DDoS protection. There are two tiers of AWS Shield:
+ - Standard : Protection against all known infrastructure (Layer 3- network-  and 4 -transport-) attacks
+- Advanced: also gives you 24x7 access to the AWS DDoS Response Team (DRT) and protection against DDoS related spikes in your Amazon Elastic Compute Cloud (EC2), Elastic Load Balancing (ELB), Amazon CloudFront, AWS Global Accelerator and Amazon Route 53 charges.</t>
+  </si>
+  <si>
+    <t>AWS Shield es un servicio administrado de protección contra ataques de denegación de servicio distribuidos (DDoS) que protege las aplicaciones web que se ejecutan en AWS. AWS Shield ofrece detección siempre activa y mitigación en línea automática que minimizan el tiempo de inactividad y la latencia de las aplicaciones, para que no haya necesidad de recurrir a AWS Support para disfrutar de la protección DDoS.
+Existen dos capas de AWS Shield: 
+- Standard: ofrece protección ante los ataques DDoS más comunes, que normalmente
+ocurren en la capa de red y transporte
+- Advanced:ambién le ofrece acceso al equipo de respuesta contra DDoS
+(DRT) de AWS y protección frente a picos relacionados con ataques DDoS en sus tarifas de ELB, CloudFront o Route 53</t>
+  </si>
+  <si>
+    <t>AWS WAF es un firewall para aplicaciones web que lo ayuda a proteger dichas aplicaciones de los ataques web más comunes que pueden afectar a la disponibilidad de las aplicaciones, comprometer la seguridad o consumir muchos recursos. AWS WAF le permite controlar el tráfico que desea habilitar o bloquear en su aplicación web por medio de la definición de reglas de seguridad web personalizables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS WAF </t>
+  </si>
+  <si>
+    <t>AWS WAF is a web application firewall that helps protect your web applications or APIs against common web exploits that may affect availability, compromise security, or consume excessive resources.AWS WAF gives you control over how traffic reaches your applications by enabling you to create security rules that block common attack patterns, such as SQL injection or cross-site scripting, and rules that filter out specific traffic patterns you define</t>
   </si>
 </sst>
 </file>
@@ -562,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -658,12 +764,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,6 +815,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,22 +850,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,16 +1156,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A48"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.42578125" customWidth="1"/>
     <col min="4" max="4" width="76.140625" customWidth="1"/>
   </cols>
@@ -1036,7 +1185,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1050,7 +1199,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1211,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1223,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +1235,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1247,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1259,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1271,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1134,7 +1283,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1148,7 +1297,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1160,7 +1309,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1172,7 +1321,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1184,7 +1333,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1196,7 +1345,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1210,7 +1359,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1222,7 +1371,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1383,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1245,398 +1394,519 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
+      <c r="B58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A45"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -1656,34 +1926,44 @@
     <hyperlink ref="B16" r:id="rId15" xr:uid="{3C5A5375-2A67-4070-BC03-E58231B37901}"/>
     <hyperlink ref="B17" r:id="rId16" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
     <hyperlink ref="B18" r:id="rId17" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
-    <hyperlink ref="B29" r:id="rId23" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
-    <hyperlink ref="B30" r:id="rId24" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
-    <hyperlink ref="B32" r:id="rId25" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
-    <hyperlink ref="B33" r:id="rId26" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
-    <hyperlink ref="B34" r:id="rId27" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
-    <hyperlink ref="B35" r:id="rId28" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
-    <hyperlink ref="B37" r:id="rId29" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
-    <hyperlink ref="B38" r:id="rId30" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
-    <hyperlink ref="B39" r:id="rId31" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
-    <hyperlink ref="B40" r:id="rId32" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
-    <hyperlink ref="B41" r:id="rId33" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
-    <hyperlink ref="B43" r:id="rId34" xr:uid="{C53FB7C6-4615-42DE-9E26-0C49BD244FD7}"/>
-    <hyperlink ref="B42" r:id="rId35" xr:uid="{8C120859-B520-4D0C-92A9-39E35B45BD4D}"/>
-    <hyperlink ref="B46" r:id="rId36" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
-    <hyperlink ref="B47" r:id="rId39" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="B19" r:id="rId40" xr:uid="{79351F1D-BDDA-401B-AF1E-80D30F385C34}"/>
-    <hyperlink ref="B20" r:id="rId41" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
-    <hyperlink ref="B49" r:id="rId42" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="B21" r:id="rId43" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
+    <hyperlink ref="B27" r:id="rId24" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
+    <hyperlink ref="B40" r:id="rId34" xr:uid="{C53FB7C6-4615-42DE-9E26-0C49BD244FD7}"/>
+    <hyperlink ref="B39" r:id="rId35" xr:uid="{8C120859-B520-4D0C-92A9-39E35B45BD4D}"/>
+    <hyperlink ref="B43" r:id="rId36" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
+    <hyperlink ref="B42" r:id="rId38" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
+    <hyperlink ref="B44" r:id="rId39" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
+    <hyperlink ref="B57" r:id="rId40" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="B46" r:id="rId41" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="B47" r:id="rId43" xr:uid="{E458DFC0-8563-4BBC-B41B-C802FC1AC8F1}"/>
+    <hyperlink ref="B48" r:id="rId44" display="AWS Identity and Access Management (IAM" xr:uid="{FAB0480D-04E4-4117-8E0A-7AB07AD34781}"/>
+    <hyperlink ref="B49" r:id="rId45" xr:uid="{5F1803ED-7567-459A-81DF-11FEC2873F56}"/>
+    <hyperlink ref="B50" r:id="rId46" xr:uid="{9B22D68D-95E4-4599-8B18-C6611C272E5E}"/>
+    <hyperlink ref="B51" r:id="rId47" xr:uid="{ED440E06-F7D5-41E7-B121-553E6C521984}"/>
+    <hyperlink ref="B52" r:id="rId48" xr:uid="{FAAACADF-79A6-4E3F-868E-3DDF288B61B7}"/>
+    <hyperlink ref="B53" r:id="rId49" xr:uid="{F4830D79-49C8-4643-8EB5-E859BE69270A}"/>
+    <hyperlink ref="B54" r:id="rId50" xr:uid="{C7819E46-F225-44E8-9F64-4BFF7AE163BA}"/>
+    <hyperlink ref="B55" r:id="rId51" xr:uid="{F37C6B6F-F1E5-4703-A7C8-ECA661E1EFA0}"/>
+    <hyperlink ref="B56" r:id="rId52" xr:uid="{E4E02F89-8797-44BE-AB94-38987EDD9EB4}"/>
+    <hyperlink ref="B59" r:id="rId53" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9487EA9-D5B5-41FC-927B-E6D1B1ECDF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398FE80C-2C4B-4398-B64D-BAEE54B810EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$59</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -618,12 +622,183 @@
   <si>
     <t>AWS WAF is a web application firewall that helps protect your web applications or APIs against common web exploits that may affect availability, compromise security, or consume excessive resources.AWS WAF gives you control over how traffic reaches your applications by enabling you to create security rules that block common attack patterns, such as SQL injection or cross-site scripting, and rules that filter out specific traffic patterns you define</t>
   </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Casos De uso</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t>Servicio de AWS</t>
+  </si>
+  <si>
+    <t>Identity &amp; Access Management</t>
+  </si>
+  <si>
+    <t>Administre de manera segura el acceso a los servicios y los recursos</t>
+  </si>
+  <si>
+    <t> AWS Identity &amp; Access Management (IAM)</t>
+  </si>
+  <si>
+    <t>Servicio de inicio de sesión único (SSO) en la nube</t>
+  </si>
+  <si>
+    <t> AWS Single Sign-On</t>
+  </si>
+  <si>
+    <t>Administración de identidades para las aplicaciones</t>
+  </si>
+  <si>
+    <t> Amazon Cognito</t>
+  </si>
+  <si>
+    <t>Microsoft Active Directory administrado</t>
+  </si>
+  <si>
+    <t> AWS Directory Service</t>
+  </si>
+  <si>
+    <t>Servicio simple y seguro para compartir recursos de AWS</t>
+  </si>
+  <si>
+    <t> AWS Resource Access Manager</t>
+  </si>
+  <si>
+    <t>Gobernanza y administración centralizadas en cuentas de AWS</t>
+  </si>
+  <si>
+    <t> AWS Organizations</t>
+  </si>
+  <si>
+    <t>Detección</t>
+  </si>
+  <si>
+    <t>Centro unificado de seguridad y conformidad</t>
+  </si>
+  <si>
+    <t> AWS Security Hub</t>
+  </si>
+  <si>
+    <t>Servicio administrado de detección de amenazas</t>
+  </si>
+  <si>
+    <t> Amazon GuardDuty</t>
+  </si>
+  <si>
+    <t>Analice la seguridad de las aplicaciones</t>
+  </si>
+  <si>
+    <t> Amazon Inspector</t>
+  </si>
+  <si>
+    <t>Registre y evalúe las configuraciones de sus recursos de AWS</t>
+  </si>
+  <si>
+    <t> AWS Config</t>
+  </si>
+  <si>
+    <t>Realice un seguimiento de la actividad de los usuarios y el uso de las API</t>
+  </si>
+  <si>
+    <t> AWS CloudTrail</t>
+  </si>
+  <si>
+    <t>Administración de la seguridad para dispositivos compatibles con IoT</t>
+  </si>
+  <si>
+    <t> AWS IoT Device Defender</t>
+  </si>
+  <si>
+    <t>Protección de infraestructuras</t>
+  </si>
+  <si>
+    <t>Protección frente a ataques DDoS</t>
+  </si>
+  <si>
+    <t> AWS Shield</t>
+  </si>
+  <si>
+    <t>Filtre el tráfico web malintencionado</t>
+  </si>
+  <si>
+    <t> AWS Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>Administración central de reglas de Firewall</t>
+  </si>
+  <si>
+    <t> AWS Firewall Manager</t>
+  </si>
+  <si>
+    <t>Protección de datos</t>
+  </si>
+  <si>
+    <t>Descubra y proteja sus datos confidenciales a escala</t>
+  </si>
+  <si>
+    <t> Amazon Macie</t>
+  </si>
+  <si>
+    <t>Administración y almacenamiento clave</t>
+  </si>
+  <si>
+    <t> AWS Key Management Service (KMS)</t>
+  </si>
+  <si>
+    <t>Almacenamiento de claves en hardware a efectos de conformidad normativa</t>
+  </si>
+  <si>
+    <t> AWS CloudHSM</t>
+  </si>
+  <si>
+    <t>Aprovisionamiento, administración e implementación de certificados públicos y privados SSL/TLS</t>
+  </si>
+  <si>
+    <t> AWS Certificate Manager</t>
+  </si>
+  <si>
+    <t>Alterne, administre y recupere datos confidenciales</t>
+  </si>
+  <si>
+    <t> AWS Secrets Manager</t>
+  </si>
+  <si>
+    <t>Respuesta frente a incidencias</t>
+  </si>
+  <si>
+    <t>Investigue los posibles problemas de seguridad</t>
+  </si>
+  <si>
+    <t> Amazon Detective</t>
+  </si>
+  <si>
+    <t>Recuperación ante desastres rápida, automatizada y rentable</t>
+  </si>
+  <si>
+    <t> CloudEndure Disaster Recovery</t>
+  </si>
+  <si>
+    <t>Conformidad</t>
+  </si>
+  <si>
+    <t>Portal gratuito autoservicio para el acceso bajo demanda a los informes de conformidad de AWS</t>
+  </si>
+  <si>
+    <t> AWS Artifact</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +821,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -787,7 +974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,6 +1000,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,30 +1065,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -891,6 +1130,2219 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C00A968-A917-4AF7-BD25-6F8CCEEE24E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3124200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BE92B9-0F82-4B64-A550-5051B74048D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5353050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583BB9F-FE5B-421E-9E4D-7B526739E881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7010400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C78CBDB-4B1A-481B-82CD-2F9BF86268AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8486775"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39338F5A-9AB2-45FB-88AA-C5E35C15EE21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10515600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D9C448-7666-44ED-9D57-C11D8672BB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12915900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1031" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5F5A9C-D597-4FE8-AF46-F95C3052C908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15306675"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6968CE08-E9B4-4FAE-9403-B54664F9DD0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17154525"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1033" name="AutoShape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9F5358-10D3-48D1-B627-DD4CF9F2B1D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18630900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E0E2E4-0E5A-4BE3-BF25-239BF9F31937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20469225"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1035" name="AutoShape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DE5D68-92FD-445F-92C2-5F6703EB988A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22488525"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD73FECF-1547-4183-8FA5-EC8199CCAD2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24507825"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1037" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4D8B31-4DC2-4B1A-BF24-71DE8031295E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="26717625"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2392B95-1730-49B2-8F66-701C65E9A594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28013025"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1039" name="AutoShape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC4EAD6-69FE-4B52-8423-B8DF36BB62BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29870400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="AutoShape 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2158E96B-1CC2-4457-ABF5-B167A74715BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="32261175"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1041" name="AutoShape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B10C76E-D370-457C-BC19-ACA97596EDFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33737550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="AutoShape 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C54A105-43D7-49FB-A5ED-CFEC4F62E900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="36137850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1043" name="AutoShape 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF22F00C-79D0-4474-96A5-3EE5F343A140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38519100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="AutoShape 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F339B8-620C-4C32-B863-5E894BF0397D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="40366950"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1045" name="AutoShape 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD0FFF0-4E29-44A8-9F20-4A2D62995877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="42938700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1046" name="AutoShape 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BB8130-B123-4C9F-8800-292F481535DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="44777025"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1047" name="AutoShape 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CE9138-14CE-4674-8688-9FEF9C21C165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="48072675"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1048" name="AutoShape 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D080AACE-858B-4BDC-9646-40907A4BF17F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3124200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1049" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E70ACAF-F7DF-453A-8A32-C742B6E47C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5353050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="AutoShape 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EA8BF5-0501-4265-90A0-671C4642BA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7010400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1051" name="AutoShape 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE7029F-BF4D-464D-9020-AC86D0BB0832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8486775"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1052" name="AutoShape 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A907FA6-39A6-4378-B40B-0F70ABCD61F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10515600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1053" name="AutoShape 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAD6DDE-76BC-438B-AF9F-447E15E0249E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12915900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="AutoShape 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1799883-0ABA-4DF6-82A7-D9004D6F8E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15306675"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1055" name="AutoShape 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AE027F-F7C4-4D83-A8F8-683C76F48F38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17154525"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1056" name="AutoShape 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85608A29-CD53-4A3B-8898-4BA449756979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18630900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1057" name="AutoShape 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D295C3-8A56-4735-B332-0DC34757F28E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20469225"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1058" name="AutoShape 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC4777A0-D131-4B10-9B41-201863179A5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22488525"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1059" name="AutoShape 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0551B8-81D3-4D69-89BE-109575E7B413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24507825"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1060" name="AutoShape 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3B9913-2E1B-4027-BEC1-F09B8047E32E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="26717625"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1061" name="AutoShape 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778CCAA5-DD45-4264-BBE9-6F90F7A640F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28013025"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1062" name="AutoShape 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57945E54-2403-4E6C-B013-1B620DC28E45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29870400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1063" name="AutoShape 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4BBCAA-CCC1-4EA7-9444-66DADF0888A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="32261175"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1064" name="AutoShape 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4E71C1-D029-4804-9600-24C77009568F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33737550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1065" name="AutoShape 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF5F6E5-50A6-484B-94C5-C581B30ED426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="36137850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1066" name="AutoShape 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800815AF-361A-446D-86E7-BED0C017D2AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38519100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1067" name="AutoShape 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC37F06-6425-474A-AF45-CB21A490E81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="40366950"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1068" name="AutoShape 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A7E6B7-2897-463C-8A7F-A365E579215E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="42938700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1069" name="AutoShape 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AB1FB3-413D-4948-ACA6-EF0AF260A314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="44777025"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1070" name="AutoShape 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FF2F8F-0FF0-4A9E-853D-C48CF83FD292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="48072675"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1156,748 +3608,869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.42578125" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" customWidth="1"/>
+    <col min="1" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="1" t="s">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="F26" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="E47" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="F47" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="28" t="s">
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="E48" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="F48" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="28" t="s">
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="E49" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="F49" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="28" t="s">
+    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="E50" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="F50" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="28" t="s">
+    <row r="51" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="E51" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="F51" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="E52" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="F52" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="28" t="s">
+    <row r="53" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="E53" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="F53" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="28" t="s">
+    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="E54" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="F54" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="28" t="s">
+    <row r="55" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="E55" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="F55" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="28" t="s">
+    <row r="56" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="E56" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="F56" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F59" xr:uid="{8E971CAE-7980-49A9-A46C-76395B1F2C7E}"/>
   <mergeCells count="8">
     <mergeCell ref="A47:A56"/>
     <mergeCell ref="A31:A35"/>
@@ -1909,61 +4482,448 @@
     <mergeCell ref="A26:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{9B5F3B7B-A5CA-47C6-8A2C-5DC8E43357C6}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0452C04E-AA7D-4E4C-BE8B-CDC9FBBAEAF9}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{A04EF8C0-43A1-49B3-B444-7D9171735EA7}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{43B8C6A6-845E-48DF-ACC1-DB94330924D6}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{9B82B932-2E31-48CB-9386-4A39DAA93DB7}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{47ED8E4E-C06F-48CE-B798-57C18F66BA34}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{12FF32E3-8D5A-4731-A795-B31E4904B6A3}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{62D83072-7999-435D-897E-1AF42A39A117}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{CD6EC34E-D088-429C-AD9A-AB439EC0DB0A}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{429BB144-3F44-4305-B493-0C8038B282B8}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00F6E29E-3CFA-4DEC-80EE-D747506EC40F}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{80A9A179-604E-43B7-9D09-C618DC2FB727}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{3C5A5375-2A67-4070-BC03-E58231B37901}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
-    <hyperlink ref="B23" r:id="rId21" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
-    <hyperlink ref="B22" r:id="rId22" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
-    <hyperlink ref="B31" r:id="rId27" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
-    <hyperlink ref="B40" r:id="rId34" xr:uid="{C53FB7C6-4615-42DE-9E26-0C49BD244FD7}"/>
-    <hyperlink ref="B39" r:id="rId35" xr:uid="{8C120859-B520-4D0C-92A9-39E35B45BD4D}"/>
-    <hyperlink ref="B43" r:id="rId36" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
-    <hyperlink ref="B41" r:id="rId37" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
-    <hyperlink ref="B42" r:id="rId38" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
-    <hyperlink ref="B44" r:id="rId39" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="B57" r:id="rId40" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
-    <hyperlink ref="B46" r:id="rId41" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
-    <hyperlink ref="B47" r:id="rId43" xr:uid="{E458DFC0-8563-4BBC-B41B-C802FC1AC8F1}"/>
-    <hyperlink ref="B48" r:id="rId44" display="AWS Identity and Access Management (IAM" xr:uid="{FAB0480D-04E4-4117-8E0A-7AB07AD34781}"/>
-    <hyperlink ref="B49" r:id="rId45" xr:uid="{5F1803ED-7567-459A-81DF-11FEC2873F56}"/>
-    <hyperlink ref="B50" r:id="rId46" xr:uid="{9B22D68D-95E4-4599-8B18-C6611C272E5E}"/>
-    <hyperlink ref="B51" r:id="rId47" xr:uid="{ED440E06-F7D5-41E7-B121-553E6C521984}"/>
-    <hyperlink ref="B52" r:id="rId48" xr:uid="{FAAACADF-79A6-4E3F-868E-3DDF288B61B7}"/>
-    <hyperlink ref="B53" r:id="rId49" xr:uid="{F4830D79-49C8-4643-8EB5-E859BE69270A}"/>
-    <hyperlink ref="B54" r:id="rId50" xr:uid="{C7819E46-F225-44E8-9F64-4BFF7AE163BA}"/>
-    <hyperlink ref="B55" r:id="rId51" xr:uid="{F37C6B6F-F1E5-4703-A7C8-ECA661E1EFA0}"/>
-    <hyperlink ref="B56" r:id="rId52" xr:uid="{E4E02F89-8797-44BE-AB94-38987EDD9EB4}"/>
-    <hyperlink ref="B59" r:id="rId53" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9B5F3B7B-A5CA-47C6-8A2C-5DC8E43357C6}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{0452C04E-AA7D-4E4C-BE8B-CDC9FBBAEAF9}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{A04EF8C0-43A1-49B3-B444-7D9171735EA7}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{43B8C6A6-845E-48DF-ACC1-DB94330924D6}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{9B82B932-2E31-48CB-9386-4A39DAA93DB7}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{47ED8E4E-C06F-48CE-B798-57C18F66BA34}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{12FF32E3-8D5A-4731-A795-B31E4904B6A3}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{62D83072-7999-435D-897E-1AF42A39A117}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{CD6EC34E-D088-429C-AD9A-AB439EC0DB0A}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{429BB144-3F44-4305-B493-0C8038B282B8}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00F6E29E-3CFA-4DEC-80EE-D747506EC40F}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{80A9A179-604E-43B7-9D09-C618DC2FB727}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{3C5A5375-2A67-4070-BC03-E58231B37901}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
+    <hyperlink ref="D22" r:id="rId22" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
+    <hyperlink ref="D26" r:id="rId23" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
+    <hyperlink ref="D27" r:id="rId24" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
+    <hyperlink ref="D29" r:id="rId25" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
+    <hyperlink ref="D30" r:id="rId26" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
+    <hyperlink ref="D31" r:id="rId27" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
+    <hyperlink ref="D32" r:id="rId28" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
+    <hyperlink ref="D35" r:id="rId30" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
+    <hyperlink ref="D36" r:id="rId31" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
+    <hyperlink ref="D37" r:id="rId32" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
+    <hyperlink ref="D38" r:id="rId33" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
+    <hyperlink ref="D40" r:id="rId34" xr:uid="{C53FB7C6-4615-42DE-9E26-0C49BD244FD7}"/>
+    <hyperlink ref="D39" r:id="rId35" xr:uid="{8C120859-B520-4D0C-92A9-39E35B45BD4D}"/>
+    <hyperlink ref="D43" r:id="rId36" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
+    <hyperlink ref="D41" r:id="rId37" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
+    <hyperlink ref="D42" r:id="rId38" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
+    <hyperlink ref="D44" r:id="rId39" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
+    <hyperlink ref="D57" r:id="rId40" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="D46" r:id="rId41" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
+    <hyperlink ref="D58" r:id="rId42" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D47" r:id="rId43" xr:uid="{E458DFC0-8563-4BBC-B41B-C802FC1AC8F1}"/>
+    <hyperlink ref="D48" r:id="rId44" display="AWS Identity and Access Management (IAM" xr:uid="{FAB0480D-04E4-4117-8E0A-7AB07AD34781}"/>
+    <hyperlink ref="D49" r:id="rId45" xr:uid="{5F1803ED-7567-459A-81DF-11FEC2873F56}"/>
+    <hyperlink ref="D50" r:id="rId46" xr:uid="{9B22D68D-95E4-4599-8B18-C6611C272E5E}"/>
+    <hyperlink ref="D51" r:id="rId47" xr:uid="{ED440E06-F7D5-41E7-B121-553E6C521984}"/>
+    <hyperlink ref="D52" r:id="rId48" xr:uid="{FAAACADF-79A6-4E3F-868E-3DDF288B61B7}"/>
+    <hyperlink ref="D53" r:id="rId49" xr:uid="{F4830D79-49C8-4643-8EB5-E859BE69270A}"/>
+    <hyperlink ref="D54" r:id="rId50" xr:uid="{C7819E46-F225-44E8-9F64-4BFF7AE163BA}"/>
+    <hyperlink ref="D55" r:id="rId51" xr:uid="{F37C6B6F-F1E5-4703-A7C8-ECA661E1EFA0}"/>
+    <hyperlink ref="D56" r:id="rId52" xr:uid="{E4E02F89-8797-44BE-AB94-38987EDD9EB4}"/>
+    <hyperlink ref="D59" r:id="rId53" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
+  <dimension ref="A1:A78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="114" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+    </row>
+    <row r="7" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+    </row>
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+    </row>
+    <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+    </row>
+    <row r="19" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="114" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+    </row>
+    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+    </row>
+    <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+    </row>
+    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+    </row>
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+    </row>
+    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="114" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+    </row>
+    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="114" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+    </row>
+    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A43" s="51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+    </row>
+    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+    </row>
+    <row r="48" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+    </row>
+    <row r="51" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+    </row>
+    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+    </row>
+    <row r="58" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="114" x14ac:dyDescent="0.25">
+      <c r="A59" s="51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="51"/>
+    </row>
+    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="51"/>
+    </row>
+    <row r="64" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="51"/>
+    </row>
+    <row r="67" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A68" s="48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="51"/>
+    </row>
+    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="51"/>
+    </row>
+    <row r="74" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="171" x14ac:dyDescent="0.25">
+      <c r="A76" s="51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+    </row>
+    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="https://aws.amazon.com/es/products/security/?nc2=h_ql_prod_se" xr:uid="{E92C470D-2D2D-4FC7-BD4E-3775451CD9AB}"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://aws.amazon.com/es/iam/?c=sc&amp;sec=srv" xr:uid="{ABDDCF86-13DF-4862-8A8C-34C94FB9E6DE}"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://aws.amazon.com/es/single-sign-on/?c=sc&amp;sec=srv" xr:uid="{B822DD53-8D83-4B40-A6E7-A79962BBD468}"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://aws.amazon.com/es/cognito/?c=sc&amp;sec=srv" xr:uid="{749037C8-920F-4771-8ADD-2D51467FC12E}"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://aws.amazon.com/es/directoryservice/?c=sc&amp;sec=srv" xr:uid="{0C8284D1-9EBC-4517-995E-4CA160B06CDB}"/>
+    <hyperlink ref="A19" r:id="rId6" display="https://aws.amazon.com/es/ram/?c=sc&amp;sec=srv" xr:uid="{672D8763-CD2C-4F52-B2F6-5E4A1C05A29A}"/>
+    <hyperlink ref="A22" r:id="rId7" display="https://aws.amazon.com/es/organizations/?c=sc&amp;sec=srv" xr:uid="{FA9D121E-2570-4E9E-AF1A-6B632552ADF6}"/>
+    <hyperlink ref="A26" r:id="rId8" display="https://aws.amazon.com/es/security-hub/?c=sc&amp;sec=srv" xr:uid="{10D1378F-07F3-4960-AFE1-0BC3F88474E4}"/>
+    <hyperlink ref="A29" r:id="rId9" display="https://aws.amazon.com/es/guardduty/?c=sc&amp;sec=srv" xr:uid="{595EE7D4-A733-43CE-A4FA-9839A0454492}"/>
+    <hyperlink ref="A32" r:id="rId10" display="https://aws.amazon.com/es/inspector/?c=sc&amp;sec=srv" xr:uid="{07DA3068-4439-4B5B-8CB3-112813289326}"/>
+    <hyperlink ref="A35" r:id="rId11" display="https://aws.amazon.com/es/config/?c=sc&amp;sec=srv" xr:uid="{17A887D8-7BBA-445E-A1FF-4118F22F8A5A}"/>
+    <hyperlink ref="A38" r:id="rId12" display="https://aws.amazon.com/es/cloudtrail/?c=sc&amp;sec=srv" xr:uid="{20B18D31-15AD-4EDD-A0D7-4C6A59BADA8D}"/>
+    <hyperlink ref="A41" r:id="rId13" display="https://aws.amazon.com/es/iot-device-defender/?c=sc&amp;sec=srv" xr:uid="{433C18AB-68F1-4646-B7AD-07F3949B452D}"/>
+    <hyperlink ref="A45" r:id="rId14" display="https://aws.amazon.com/es/shield/?c=sc&amp;sec=srv" xr:uid="{F06B93D5-08D5-4F7D-8678-8F9D55E55C2A}"/>
+    <hyperlink ref="A48" r:id="rId15" display="https://aws.amazon.com/es/waf/?c=sc&amp;sec=srv" xr:uid="{194D87A4-434A-4317-B10A-C5951D4B8666}"/>
+    <hyperlink ref="A51" r:id="rId16" display="https://aws.amazon.com/es/firewall-manager/?c=sc&amp;sec=srv" xr:uid="{4B7073D1-09C1-4319-9447-B053729FE85D}"/>
+    <hyperlink ref="A55" r:id="rId17" display="https://aws.amazon.com/es/macie/?c=sc&amp;sec=srv" xr:uid="{6C840A2E-4ECD-40EA-9F20-0EAC28709C9F}"/>
+    <hyperlink ref="A58" r:id="rId18" display="https://aws.amazon.com/es/kms/?c=sc&amp;sec=srv" xr:uid="{AECAC301-41F8-4DC0-8D18-92609D02E916}"/>
+    <hyperlink ref="A61" r:id="rId19" display="https://aws.amazon.com/es/cloudhsm/?c=sc&amp;sec=srv" xr:uid="{43DE9E89-D709-4B9E-A522-4BA4B6EF97B4}"/>
+    <hyperlink ref="A64" r:id="rId20" display="https://aws.amazon.com/es/certificate-manager/?c=sc&amp;sec=srv" xr:uid="{CB7DF868-ECFB-417E-89D2-779EF8EBE23B}"/>
+    <hyperlink ref="A67" r:id="rId21" display="https://aws.amazon.com/es/secrets-manager/?c=sc&amp;sec=srv" xr:uid="{B88AFD6A-490E-4757-9C60-C03698F5A7FC}"/>
+    <hyperlink ref="A71" r:id="rId22" display="https://aws.amazon.com/es/detective/?c=sc&amp;sec=srv" xr:uid="{89171B50-B128-4580-BA2F-EE599B7A8D9F}"/>
+    <hyperlink ref="A74" r:id="rId23" display="https://aws.amazon.com/es/cloudendure-disaster-recovery/?c=sc&amp;sec=srv" xr:uid="{77065849-6C1A-44DE-AEA1-E1579E6905A9}"/>
+    <hyperlink ref="A78" r:id="rId24" display="https://aws.amazon.com/es/artifact/?c=sc&amp;sec=srv" xr:uid="{84AF55D9-B343-4B20-9F8B-223C61AFE8EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <drawing r:id="rId26"/>
+</worksheet>
 </file>
--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398FE80C-2C4B-4398-B64D-BAEE54B810EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A06EA4-D15D-4482-A096-E80A5E64A3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,28 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$82</definedName>
+    <definedName name="AWS_Shield">Hoja1!$D$69</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="267">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -552,9 +561,6 @@
   <si>
     <t>AWS Certiﬁcate Manager es un servicio que le permite aprovisionar, administrar e implementar fácilmente los certificados de capa de conexión segura/Transport Layer Security (SSL/TLS) para su uso con servicios de AWS. Los certificados SSL/TLS se emplean para proteger las comunicaciones de red y establecer la identidad
 de los sitios web en Internet</t>
-  </si>
-  <si>
-    <t>AWS Certiﬁcate Manager</t>
   </si>
   <si>
     <t>AWS Certificate Manager is a service that lets you easily provision, manage, and deploy public and private Secure Sockets Layer/Transport Layer Security (SSL/TLS) certificates for use with AWS services and your internal connected resources. SSL/TLS certificates are used to secure network communications and establish the identity of websites over the Internet as well as resources on private networks.</t>
@@ -617,9 +623,6 @@
     <t>AWS WAF es un firewall para aplicaciones web que lo ayuda a proteger dichas aplicaciones de los ataques web más comunes que pueden afectar a la disponibilidad de las aplicaciones, comprometer la seguridad o consumir muchos recursos. AWS WAF le permite controlar el tráfico que desea habilitar o bloquear en su aplicación web por medio de la definición de reglas de seguridad web personalizables</t>
   </si>
   <si>
-    <t xml:space="preserve">AWS WAF </t>
-  </si>
-  <si>
     <t>AWS WAF is a web application firewall that helps protect your web applications or APIs against common web exploits that may affect availability, compromise security, or consume excessive resources.AWS WAF gives you control over how traffic reaches your applications by enabling you to create security rules that block common attack patterns, such as SQL injection or cross-site scripting, and rules that filter out specific traffic patterns you define</t>
   </si>
   <si>
@@ -641,164 +644,239 @@
     <t>Identity &amp; Access Management</t>
   </si>
   <si>
-    <t>Administre de manera segura el acceso a los servicios y los recursos</t>
-  </si>
-  <si>
-    <t> AWS Identity &amp; Access Management (IAM)</t>
-  </si>
-  <si>
     <t>Servicio de inicio de sesión único (SSO) en la nube</t>
   </si>
   <si>
-    <t> AWS Single Sign-On</t>
-  </si>
-  <si>
     <t>Administración de identidades para las aplicaciones</t>
   </si>
   <si>
-    <t> Amazon Cognito</t>
-  </si>
-  <si>
     <t>Microsoft Active Directory administrado</t>
   </si>
   <si>
-    <t> AWS Directory Service</t>
-  </si>
-  <si>
     <t>Servicio simple y seguro para compartir recursos de AWS</t>
   </si>
   <si>
-    <t> AWS Resource Access Manager</t>
-  </si>
-  <si>
     <t>Gobernanza y administración centralizadas en cuentas de AWS</t>
   </si>
   <si>
-    <t> AWS Organizations</t>
-  </si>
-  <si>
     <t>Detección</t>
   </si>
   <si>
     <t>Centro unificado de seguridad y conformidad</t>
   </si>
   <si>
-    <t> AWS Security Hub</t>
-  </si>
-  <si>
     <t>Servicio administrado de detección de amenazas</t>
   </si>
   <si>
-    <t> Amazon GuardDuty</t>
-  </si>
-  <si>
     <t>Analice la seguridad de las aplicaciones</t>
   </si>
   <si>
-    <t> Amazon Inspector</t>
-  </si>
-  <si>
     <t>Registre y evalúe las configuraciones de sus recursos de AWS</t>
   </si>
   <si>
-    <t> AWS Config</t>
-  </si>
-  <si>
     <t>Realice un seguimiento de la actividad de los usuarios y el uso de las API</t>
   </si>
   <si>
-    <t> AWS CloudTrail</t>
-  </si>
-  <si>
     <t>Administración de la seguridad para dispositivos compatibles con IoT</t>
   </si>
   <si>
-    <t> AWS IoT Device Defender</t>
-  </si>
-  <si>
     <t>Protección de infraestructuras</t>
   </si>
   <si>
     <t>Protección frente a ataques DDoS</t>
   </si>
   <si>
-    <t> AWS Shield</t>
-  </si>
-  <si>
     <t>Filtre el tráfico web malintencionado</t>
   </si>
   <si>
-    <t> AWS Web Application Firewall (WAF)</t>
-  </si>
-  <si>
     <t>Administración central de reglas de Firewall</t>
   </si>
   <si>
-    <t> AWS Firewall Manager</t>
-  </si>
-  <si>
     <t>Protección de datos</t>
   </si>
   <si>
     <t>Descubra y proteja sus datos confidenciales a escala</t>
   </si>
   <si>
-    <t> Amazon Macie</t>
-  </si>
-  <si>
     <t>Administración y almacenamiento clave</t>
   </si>
   <si>
-    <t> AWS Key Management Service (KMS)</t>
-  </si>
-  <si>
     <t>Almacenamiento de claves en hardware a efectos de conformidad normativa</t>
   </si>
   <si>
-    <t> AWS CloudHSM</t>
-  </si>
-  <si>
     <t>Aprovisionamiento, administración e implementación de certificados públicos y privados SSL/TLS</t>
   </si>
   <si>
-    <t> AWS Certificate Manager</t>
-  </si>
-  <si>
     <t>Alterne, administre y recupere datos confidenciales</t>
   </si>
   <si>
-    <t> AWS Secrets Manager</t>
-  </si>
-  <si>
     <t>Respuesta frente a incidencias</t>
   </si>
   <si>
     <t>Investigue los posibles problemas de seguridad</t>
   </si>
   <si>
-    <t> Amazon Detective</t>
-  </si>
-  <si>
     <t>Recuperación ante desastres rápida, automatizada y rentable</t>
   </si>
   <si>
-    <t> CloudEndure Disaster Recovery</t>
-  </si>
-  <si>
     <t>Conformidad</t>
   </si>
   <si>
     <t>Portal gratuito autoservicio para el acceso bajo demanda a los informes de conformidad de AWS</t>
   </si>
   <si>
-    <t> AWS Artifact</t>
+    <t>CloudEndure Disaster Recovery</t>
+  </si>
+  <si>
+    <t>AWS Artifact</t>
+  </si>
+  <si>
+    <t>AWS Single Sign-On</t>
+  </si>
+  <si>
+    <t>Amazon Cognito</t>
+  </si>
+  <si>
+    <t>AWS Resource Access Manager</t>
+  </si>
+  <si>
+    <t>AWS Security Hub</t>
+  </si>
+  <si>
+    <t>Amazon GuardDuty</t>
+  </si>
+  <si>
+    <t>AWS Config</t>
+  </si>
+  <si>
+    <t>AWS IoT Device Defender</t>
+  </si>
+  <si>
+    <t>AWS Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>AWS Firewall Manager</t>
+  </si>
+  <si>
+    <t>Amazon Macie</t>
+  </si>
+  <si>
+    <t>AWS Certificate Manager</t>
+  </si>
+  <si>
+    <t>AWS Secrets Manager</t>
+  </si>
+  <si>
+    <t>Amazon Detective</t>
+  </si>
+  <si>
+    <t>Cree directorios nativos flexibles en la nube</t>
+  </si>
+  <si>
+    <t>Administre el aceso a usuarios y las claves de cifrado</t>
+  </si>
+  <si>
+    <t>Cree una red en la nube</t>
+  </si>
+  <si>
+    <t>Defina y aprovisione una red aislada de forma lógica para sus recursos de AWS</t>
+  </si>
+  <si>
+    <t>Conecte las VPC y las redes en las instalaciones a través de un centro principal</t>
+  </si>
+  <si>
+    <t>AWS Transit Gateway</t>
+  </si>
+  <si>
+    <t>Brinde conectividad privada entre las VPC, los servicios y las aplicaciones en las instalaciones</t>
+  </si>
+  <si>
+    <t>AWS PrivateLink</t>
+  </si>
+  <si>
+    <t>Dirija a los usuarios a aplicaciones en Internet con un servicio de DNS administrado</t>
+  </si>
+  <si>
+    <t>Escale el diseño de su red</t>
+  </si>
+  <si>
+    <t>Distribuya el tráfico de forma automática en un grupo de recursos, como instancias, contenedores, direcciones IP y funciones Lambda</t>
+  </si>
+  <si>
+    <t>Dirija el tráfico por la red de AWS Global para mejorar el rendimiento global de la aplicación</t>
+  </si>
+  <si>
+    <t>AWS Global Accelerator</t>
+  </si>
+  <si>
+    <t>Asegure el tráfico de la red</t>
+  </si>
+  <si>
+    <t>Proteja las aplicaciones que se ejecutan en AWS de los ataques DDoS</t>
+  </si>
+  <si>
+    <t>Proteja sus aplicaciones web de ataques web comunes</t>
+  </si>
+  <si>
+    <t>AWS WAF</t>
+  </si>
+  <si>
+    <t>Configure y gestione reglas de firewall de forma centralizada</t>
+  </si>
+  <si>
+    <t>Cree una red de TI híbrida</t>
+  </si>
+  <si>
+    <t>Conecte a los usuarios a AWS o a recursos en las instalaciones con una red privada virtual</t>
+  </si>
+  <si>
+    <t>Red privada virtual (VPN) de AWS - Cliente</t>
+  </si>
+  <si>
+    <t>Cree una conexión encriptada entre la red y las VPC de Amazon o AWS Transit Gateway</t>
+  </si>
+  <si>
+    <t>Red privada virtual (VPN) de AWS - Sitio a sitio</t>
+  </si>
+  <si>
+    <t>Establezca una conexión privada y dedicada entre AWS y su centro de datos, oficina o entorno de colocación</t>
+  </si>
+  <si>
+    <t>Redes de entrega de contenido</t>
+  </si>
+  <si>
+    <t>Entregue datos, videos, aplicaciones y API con seguridad a clientes en todo el mundo con baja latencia y altas velocidades de transferencia</t>
+  </si>
+  <si>
+    <t>Cree una red para arquitecturas de microservicios</t>
+  </si>
+  <si>
+    <t>Ofrezca red de nivel de aplicación para contenedores y microservicios</t>
+  </si>
+  <si>
+    <t>AWS App Mesh</t>
+  </si>
+  <si>
+    <t>Cree, conserve y proteja las API a cualquier escala</t>
+  </si>
+  <si>
+    <t>Amazon API Gateway</t>
+  </si>
+  <si>
+    <t>Descubra servicios de AWS conectados a sus aplicaciones</t>
+  </si>
+  <si>
+    <t>AWS Cloud Map</t>
+  </si>
+  <si>
+    <t>Ver Definicion en Seguridad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,25 +912,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -961,11 +1040,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,131 +1059,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1113,6 +1075,122 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1133,6 +1211,587 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E770D08A-21A7-41DB-BD6C-2471DB50A93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3152FB5B-2111-4EF6-B1ED-47862B580CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1524000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CA8A69-675A-40A5-A45C-796EBBDE97B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6728C37-192F-4428-9B30-D173DC0CBB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C3493B-C6C8-41D0-9C80-4699F4DD77FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3238500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469A2A3E-80DF-468B-89F3-ED99C3257853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1A7852-47B9-47DF-B15E-E4B790B84F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D410FA-2403-49B7-95D6-62EA6A91D622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1524000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B303A2-9BB2-42C0-A477-0C556DD72896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9B8666-9E36-484B-A1D6-BF6A55032CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8AD2C8-6A21-40F3-B1A1-39DA553C38BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3238500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F24F845-47F7-4C5A-9579-499810DA069F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3608,878 +4267,1275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="3" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="1" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="1" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="1" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="3" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="1" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="1" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="1" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="1" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="1" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="1" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="1" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E38" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F38" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="1" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E42" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F42" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="1" t="s">
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E43" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F43" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="1" t="s">
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E44" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F44" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="1" t="s">
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E45" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F45" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="1" t="s">
+    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E46" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F46" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="1" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E47" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F47" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="1" t="s">
+    <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E48" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F48" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="1" t="s">
+    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E49" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F49" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="1" t="s">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F56" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F58" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F61" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F63" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E67" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F67" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="16" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="40"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F71" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
+      <c r="B72" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F72" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F76" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="40"/>
+      <c r="B77" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F77" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="40"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F78" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="40"/>
+      <c r="B79" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F79" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="1" t="s">
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E80" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F80" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="1" t="s">
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="49"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E81" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F81" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="D59" s="1" t="s">
+    <row r="82" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="D82" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E82" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F82" s="16" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F59" xr:uid="{8E971CAE-7980-49A9-A46C-76395B1F2C7E}"/>
-  <mergeCells count="8">
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A45"/>
+  <autoFilter ref="A1:F82" xr:uid="{8E971CAE-7980-49A9-A46C-76395B1F2C7E}"/>
+  <mergeCells count="18">
+    <mergeCell ref="A56:A79"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A54"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B78"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -4505,425 +5561,580 @@
     <hyperlink ref="D23" r:id="rId21" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
     <hyperlink ref="D22" r:id="rId22" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
     <hyperlink ref="D26" r:id="rId23" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
-    <hyperlink ref="D27" r:id="rId24" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
-    <hyperlink ref="D29" r:id="rId25" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
+    <hyperlink ref="D38" r:id="rId24" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
+    <hyperlink ref="D37" r:id="rId25" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
     <hyperlink ref="D30" r:id="rId26" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
-    <hyperlink ref="D31" r:id="rId27" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
-    <hyperlink ref="D32" r:id="rId28" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
-    <hyperlink ref="D35" r:id="rId30" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
-    <hyperlink ref="D36" r:id="rId31" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
-    <hyperlink ref="D37" r:id="rId32" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
-    <hyperlink ref="D38" r:id="rId33" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
-    <hyperlink ref="D40" r:id="rId34" xr:uid="{C53FB7C6-4615-42DE-9E26-0C49BD244FD7}"/>
-    <hyperlink ref="D39" r:id="rId35" xr:uid="{8C120859-B520-4D0C-92A9-39E35B45BD4D}"/>
-    <hyperlink ref="D43" r:id="rId36" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
-    <hyperlink ref="D41" r:id="rId37" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
-    <hyperlink ref="D42" r:id="rId38" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
-    <hyperlink ref="D44" r:id="rId39" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="D57" r:id="rId40" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
-    <hyperlink ref="D46" r:id="rId41" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="D58" r:id="rId42" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
-    <hyperlink ref="D47" r:id="rId43" xr:uid="{E458DFC0-8563-4BBC-B41B-C802FC1AC8F1}"/>
-    <hyperlink ref="D48" r:id="rId44" display="AWS Identity and Access Management (IAM" xr:uid="{FAB0480D-04E4-4117-8E0A-7AB07AD34781}"/>
-    <hyperlink ref="D49" r:id="rId45" xr:uid="{5F1803ED-7567-459A-81DF-11FEC2873F56}"/>
-    <hyperlink ref="D50" r:id="rId46" xr:uid="{9B22D68D-95E4-4599-8B18-C6611C272E5E}"/>
-    <hyperlink ref="D51" r:id="rId47" xr:uid="{ED440E06-F7D5-41E7-B121-553E6C521984}"/>
-    <hyperlink ref="D52" r:id="rId48" xr:uid="{FAAACADF-79A6-4E3F-868E-3DDF288B61B7}"/>
-    <hyperlink ref="D53" r:id="rId49" xr:uid="{F4830D79-49C8-4643-8EB5-E859BE69270A}"/>
-    <hyperlink ref="D54" r:id="rId50" xr:uid="{C7819E46-F225-44E8-9F64-4BFF7AE163BA}"/>
-    <hyperlink ref="D55" r:id="rId51" xr:uid="{F37C6B6F-F1E5-4703-A7C8-ECA661E1EFA0}"/>
-    <hyperlink ref="D56" r:id="rId52" xr:uid="{E4E02F89-8797-44BE-AB94-38987EDD9EB4}"/>
-    <hyperlink ref="D59" r:id="rId53" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D42" r:id="rId27" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
+    <hyperlink ref="D43" r:id="rId28" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
+    <hyperlink ref="D45" r:id="rId29" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
+    <hyperlink ref="D46" r:id="rId30" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
+    <hyperlink ref="D47" r:id="rId31" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
+    <hyperlink ref="D48" r:id="rId32" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
+    <hyperlink ref="D49" r:id="rId33" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
+    <hyperlink ref="D52" r:id="rId34" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
+    <hyperlink ref="D50" r:id="rId35" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
+    <hyperlink ref="D51" r:id="rId36" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
+    <hyperlink ref="D53" r:id="rId37" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
+    <hyperlink ref="D80" r:id="rId38" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="D55" r:id="rId39" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
+    <hyperlink ref="D81" r:id="rId40" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D82" r:id="rId41" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D57" r:id="rId42" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
+    <hyperlink ref="D59" r:id="rId43" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
+    <hyperlink ref="D60" r:id="rId44" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
+    <hyperlink ref="D62" r:id="rId45" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
+    <hyperlink ref="D65" r:id="rId46" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
+    <hyperlink ref="D69" r:id="rId47" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
+    <hyperlink ref="D70" r:id="rId48" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
+    <hyperlink ref="D73" r:id="rId49" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
+    <hyperlink ref="D74" r:id="rId50" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
+    <hyperlink ref="D75" r:id="rId51" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
+    <hyperlink ref="D66" r:id="rId52" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
+    <hyperlink ref="D67" r:id="rId53" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
+    <hyperlink ref="E32" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>
+  <drawing r:id="rId55"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A78"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="B2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-    </row>
-    <row r="7" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-    </row>
-    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="B7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-    </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-    </row>
-    <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-    </row>
-    <row r="19" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-    </row>
-    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="B13" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-    </row>
-    <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="C15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="B16" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-    </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-    </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
         <v>212</v>
       </c>
+      <c r="C20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-    </row>
-    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>214</v>
-      </c>
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-    </row>
-    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
-        <v>216</v>
-      </c>
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-    </row>
-    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
-        <v>219</v>
-      </c>
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-    </row>
-    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
-        <v>221</v>
-      </c>
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-    </row>
-    <row r="48" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
-        <v>223</v>
-      </c>
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-    </row>
-    <row r="51" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
-        <v>226</v>
-      </c>
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-    </row>
-    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
-        <v>228</v>
-      </c>
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-    </row>
-    <row r="58" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="52" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
-        <v>230</v>
-      </c>
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-    </row>
-    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
-        <v>232</v>
-      </c>
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-    </row>
-    <row r="64" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="52" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
-        <v>234</v>
-      </c>
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-    </row>
-    <row r="67" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="51" t="s">
-        <v>237</v>
-      </c>
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-    </row>
-    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="51" t="s">
-        <v>239</v>
-      </c>
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-    </row>
-    <row r="74" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="52" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="171" x14ac:dyDescent="0.25">
-      <c r="A76" s="51" t="s">
-        <v>242</v>
-      </c>
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-    </row>
-    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="52" t="s">
-        <v>243</v>
-      </c>
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://aws.amazon.com/es/products/security/?nc2=h_ql_prod_se" xr:uid="{E92C470D-2D2D-4FC7-BD4E-3775451CD9AB}"/>
-    <hyperlink ref="A7" r:id="rId2" display="https://aws.amazon.com/es/iam/?c=sc&amp;sec=srv" xr:uid="{ABDDCF86-13DF-4862-8A8C-34C94FB9E6DE}"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://aws.amazon.com/es/single-sign-on/?c=sc&amp;sec=srv" xr:uid="{B822DD53-8D83-4B40-A6E7-A79962BBD468}"/>
-    <hyperlink ref="A13" r:id="rId4" display="https://aws.amazon.com/es/cognito/?c=sc&amp;sec=srv" xr:uid="{749037C8-920F-4771-8ADD-2D51467FC12E}"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://aws.amazon.com/es/directoryservice/?c=sc&amp;sec=srv" xr:uid="{0C8284D1-9EBC-4517-995E-4CA160B06CDB}"/>
-    <hyperlink ref="A19" r:id="rId6" display="https://aws.amazon.com/es/ram/?c=sc&amp;sec=srv" xr:uid="{672D8763-CD2C-4F52-B2F6-5E4A1C05A29A}"/>
-    <hyperlink ref="A22" r:id="rId7" display="https://aws.amazon.com/es/organizations/?c=sc&amp;sec=srv" xr:uid="{FA9D121E-2570-4E9E-AF1A-6B632552ADF6}"/>
-    <hyperlink ref="A26" r:id="rId8" display="https://aws.amazon.com/es/security-hub/?c=sc&amp;sec=srv" xr:uid="{10D1378F-07F3-4960-AFE1-0BC3F88474E4}"/>
-    <hyperlink ref="A29" r:id="rId9" display="https://aws.amazon.com/es/guardduty/?c=sc&amp;sec=srv" xr:uid="{595EE7D4-A733-43CE-A4FA-9839A0454492}"/>
-    <hyperlink ref="A32" r:id="rId10" display="https://aws.amazon.com/es/inspector/?c=sc&amp;sec=srv" xr:uid="{07DA3068-4439-4B5B-8CB3-112813289326}"/>
-    <hyperlink ref="A35" r:id="rId11" display="https://aws.amazon.com/es/config/?c=sc&amp;sec=srv" xr:uid="{17A887D8-7BBA-445E-A1FF-4118F22F8A5A}"/>
-    <hyperlink ref="A38" r:id="rId12" display="https://aws.amazon.com/es/cloudtrail/?c=sc&amp;sec=srv" xr:uid="{20B18D31-15AD-4EDD-A0D7-4C6A59BADA8D}"/>
-    <hyperlink ref="A41" r:id="rId13" display="https://aws.amazon.com/es/iot-device-defender/?c=sc&amp;sec=srv" xr:uid="{433C18AB-68F1-4646-B7AD-07F3949B452D}"/>
-    <hyperlink ref="A45" r:id="rId14" display="https://aws.amazon.com/es/shield/?c=sc&amp;sec=srv" xr:uid="{F06B93D5-08D5-4F7D-8678-8F9D55E55C2A}"/>
-    <hyperlink ref="A48" r:id="rId15" display="https://aws.amazon.com/es/waf/?c=sc&amp;sec=srv" xr:uid="{194D87A4-434A-4317-B10A-C5951D4B8666}"/>
-    <hyperlink ref="A51" r:id="rId16" display="https://aws.amazon.com/es/firewall-manager/?c=sc&amp;sec=srv" xr:uid="{4B7073D1-09C1-4319-9447-B053729FE85D}"/>
-    <hyperlink ref="A55" r:id="rId17" display="https://aws.amazon.com/es/macie/?c=sc&amp;sec=srv" xr:uid="{6C840A2E-4ECD-40EA-9F20-0EAC28709C9F}"/>
-    <hyperlink ref="A58" r:id="rId18" display="https://aws.amazon.com/es/kms/?c=sc&amp;sec=srv" xr:uid="{AECAC301-41F8-4DC0-8D18-92609D02E916}"/>
-    <hyperlink ref="A61" r:id="rId19" display="https://aws.amazon.com/es/cloudhsm/?c=sc&amp;sec=srv" xr:uid="{43DE9E89-D709-4B9E-A522-4BA4B6EF97B4}"/>
-    <hyperlink ref="A64" r:id="rId20" display="https://aws.amazon.com/es/certificate-manager/?c=sc&amp;sec=srv" xr:uid="{CB7DF868-ECFB-417E-89D2-779EF8EBE23B}"/>
-    <hyperlink ref="A67" r:id="rId21" display="https://aws.amazon.com/es/secrets-manager/?c=sc&amp;sec=srv" xr:uid="{B88AFD6A-490E-4757-9C60-C03698F5A7FC}"/>
-    <hyperlink ref="A71" r:id="rId22" display="https://aws.amazon.com/es/detective/?c=sc&amp;sec=srv" xr:uid="{89171B50-B128-4580-BA2F-EE599B7A8D9F}"/>
-    <hyperlink ref="A74" r:id="rId23" display="https://aws.amazon.com/es/cloudendure-disaster-recovery/?c=sc&amp;sec=srv" xr:uid="{77065849-6C1A-44DE-AEA1-E1579E6905A9}"/>
-    <hyperlink ref="A78" r:id="rId24" display="https://aws.amazon.com/es/artifact/?c=sc&amp;sec=srv" xr:uid="{84AF55D9-B343-4B20-9F8B-223C61AFE8EC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
-  <drawing r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A06EA4-D15D-4482-A096-E80A5E64A3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE4D7F-1061-468C-9414-AC60C14FD534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$82</definedName>
-    <definedName name="AWS_Shield">Hoja1!$D$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$90</definedName>
+    <definedName name="AWS_Shield">Hoja1!$D$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="294">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Tipo Servicio</t>
   </si>
   <si>
-    <t>Computo</t>
-  </si>
-  <si>
     <t>Recurso</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Amazon Lightsail</t>
   </si>
   <si>
-    <t>AWS Batch</t>
-  </si>
-  <si>
     <t>AWS Elastic Beanstalk</t>
   </si>
   <si>
@@ -110,10 +104,6 @@
   </si>
   <si>
     <t>Amazon Elastic Compute Cloud (Amazon EC2) is a web service that provides secure, resizable compute capacity in the cloud. It is designed to make web-scale cloud computing easier for developers</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Compute Cloud (Amazon EC2) es un servicio web que proporciona capacidad de computación en la nube segura y de tamaño variable. Se ha diseñado para facilitar la computación de
-escalado web para los desarrolladores</t>
   </si>
   <si>
     <t>Amazon Elastic Container Service (Amazon ECS) is a fully managed container orchestration service</t>
@@ -870,6 +860,96 @@
   </si>
   <si>
     <t>Ver Definicion en Seguridad</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>Capacidad informática (servidores virtuales) en la nube, segura y de tamaño modificable</t>
+  </si>
+  <si>
+    <t>Ejecutar cargas de trabajo tolerantes a errores con hasta un 90 % de descuento</t>
+  </si>
+  <si>
+    <t>Amazon EC2 Spot</t>
+  </si>
+  <si>
+    <t>Agregue o elimine automáticamente la capacidad de cómputo para satisfacer los cambios en la demanda</t>
+  </si>
+  <si>
+    <t>Plataforma en la nube y fácil de usar, que ofrece todo lo que necesita para desarrollar una aplicación o sitio web</t>
+  </si>
+  <si>
+    <t>Procesamiento por lotes completamente administrado a cualquier escala</t>
+  </si>
+  <si>
+    <t>WS-Batch_Icon_32_Squid AWS Batch</t>
+  </si>
+  <si>
+    <t>Instancias (máquinas virtuales)</t>
+  </si>
+  <si>
+    <t>Contenedores</t>
+  </si>
+  <si>
+    <t>Una manera muy segura, confiable y escalable de ejecutar contenedores</t>
+  </si>
+  <si>
+    <t>Almacene, administre e implemente de forma sencilla imágenes de contenedores</t>
+  </si>
+  <si>
+    <t>Servicio de Kubernetes completamente administrado</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Kubernetes Service (EKS)</t>
+  </si>
+  <si>
+    <t>Capacidad informática sin servidor para contenedores</t>
+  </si>
+  <si>
+    <t>AWS Fargate</t>
+  </si>
+  <si>
+    <t>Tecnología sin servidor</t>
+  </si>
+  <si>
+    <t>Ejecute el código sin pensar en los servidores. Pague solo por el tiempo de capacidad informática que consume</t>
+  </si>
+  <si>
+    <t>Tecnología de borde e híbrida</t>
+  </si>
+  <si>
+    <t>Ejecute infraestructura y servicios de AWS localmente para una experiencia híbrida verdaderamente estable</t>
+  </si>
+  <si>
+    <t>AWS Outposts</t>
+  </si>
+  <si>
+    <t>Recopile y procese datos en entornos de borde duros o desconectados</t>
+  </si>
+  <si>
+    <t>Familia de productos AWS Snow</t>
+  </si>
+  <si>
+    <t>Entregue aplicaciones con una latencia extremadamente baja para los dispositivos 5G</t>
+  </si>
+  <si>
+    <t>WS-Wavelength_Icon_32_Squid AWS Wavelength</t>
+  </si>
+  <si>
+    <t>El servicio preferido para todas las cargas de trabajo de vSphere para extender y migrar rápidamente a la nube.</t>
+  </si>
+  <si>
+    <t>VMware Cloud on AWS</t>
+  </si>
+  <si>
+    <t>Ejecute aplicaciones sensibles a la latencia más cerca de los usuarios finales</t>
+  </si>
+  <si>
+    <t>AWS Local Zones</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Compute Cloud (Amazon EC2) es un servicio web que proporciona capacidad de computación en la nube segura y de tamaño variable. Se ha diseñado para facilitar la computación de escalado web para los desarrolladores</t>
   </si>
 </sst>
 </file>
@@ -880,14 +960,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -925,13 +997,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -1057,99 +1143,66 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1157,27 +1210,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1189,8 +1227,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1216,13 +1309,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1264,13 +1357,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1312,13 +1405,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1360,13 +1453,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1408,13 +1501,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1456,13 +1549,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1504,13 +1597,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1552,13 +1645,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1600,13 +1693,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1648,13 +1741,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1696,13 +1789,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1744,13 +1837,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4267,1331 +4360,1459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="20.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="15" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="16" t="s">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="14" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="E17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="16" t="s">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="E18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="14" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F28" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="14" t="s">
+    <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="F30" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="14" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+      <c r="F33" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="21" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D35" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E45" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F45" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="23" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="24" t="s">
+      <c r="E49" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D32" s="23" t="s">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F66" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="37"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="37"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="37"/>
+      <c r="B71" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F71" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F72" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="37"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="37"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="37"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="37"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E76" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F76" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A77" s="37"/>
+      <c r="B77" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="F78" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="37"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F79" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="B80" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F80" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A81" s="37"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="37"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="37"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="37"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="52" t="s">
+      <c r="E84" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F84" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="37"/>
+      <c r="B85" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F85" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="37"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E86" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F86" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="37"/>
+      <c r="B87" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E87" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F87" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="50"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" s="50"/>
+      <c r="D90" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="50"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F56" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E58" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F58" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="F60" s="42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E61" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F61" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F63" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="E68" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="E71" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F71" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D72" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="E72" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F72" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="E76" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F76" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E77" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F77" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D78" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="E78" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F78" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D79" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F79" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="D82" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>144</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F82" xr:uid="{8E971CAE-7980-49A9-A46C-76395B1F2C7E}"/>
-  <mergeCells count="18">
-    <mergeCell ref="A56:A79"/>
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
+  <mergeCells count="22">
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="A64:A87"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B86"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{9B5F3B7B-A5CA-47C6-8A2C-5DC8E43357C6}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{0452C04E-AA7D-4E4C-BE8B-CDC9FBBAEAF9}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{9B5F3B7B-A5CA-47C6-8A2C-5DC8E43357C6}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{0452C04E-AA7D-4E4C-BE8B-CDC9FBBAEAF9}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{A04EF8C0-43A1-49B3-B444-7D9171735EA7}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{43B8C6A6-845E-48DF-ACC1-DB94330924D6}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{9B82B932-2E31-48CB-9386-4A39DAA93DB7}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{47ED8E4E-C06F-48CE-B798-57C18F66BA34}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{12FF32E3-8D5A-4731-A795-B31E4904B6A3}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{62D83072-7999-435D-897E-1AF42A39A117}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{CD6EC34E-D088-429C-AD9A-AB439EC0DB0A}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{429BB144-3F44-4305-B493-0C8038B282B8}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00F6E29E-3CFA-4DEC-80EE-D747506EC40F}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{80A9A179-604E-43B7-9D09-C618DC2FB727}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{3C5A5375-2A67-4070-BC03-E58231B37901}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
-    <hyperlink ref="D22" r:id="rId22" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
-    <hyperlink ref="D26" r:id="rId23" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
-    <hyperlink ref="D38" r:id="rId24" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
-    <hyperlink ref="D37" r:id="rId25" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
-    <hyperlink ref="D30" r:id="rId26" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
-    <hyperlink ref="D42" r:id="rId27" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
-    <hyperlink ref="D43" r:id="rId28" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
-    <hyperlink ref="D45" r:id="rId29" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
-    <hyperlink ref="D46" r:id="rId30" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
-    <hyperlink ref="D47" r:id="rId31" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
-    <hyperlink ref="D48" r:id="rId32" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
-    <hyperlink ref="D49" r:id="rId33" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
-    <hyperlink ref="D52" r:id="rId34" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
-    <hyperlink ref="D50" r:id="rId35" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
-    <hyperlink ref="D51" r:id="rId36" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
-    <hyperlink ref="D53" r:id="rId37" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="D80" r:id="rId38" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
-    <hyperlink ref="D55" r:id="rId39" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="D81" r:id="rId40" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
-    <hyperlink ref="D82" r:id="rId41" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
-    <hyperlink ref="D57" r:id="rId42" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
-    <hyperlink ref="D59" r:id="rId43" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
-    <hyperlink ref="D60" r:id="rId44" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
-    <hyperlink ref="D62" r:id="rId45" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
-    <hyperlink ref="D65" r:id="rId46" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
-    <hyperlink ref="D69" r:id="rId47" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
-    <hyperlink ref="D70" r:id="rId48" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
-    <hyperlink ref="D73" r:id="rId49" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
-    <hyperlink ref="D74" r:id="rId50" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
-    <hyperlink ref="D75" r:id="rId51" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
-    <hyperlink ref="D66" r:id="rId52" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
-    <hyperlink ref="D67" r:id="rId53" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
-    <hyperlink ref="E32" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
+    <hyperlink ref="D54" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{9B82B932-2E31-48CB-9386-4A39DAA93DB7}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{47ED8E4E-C06F-48CE-B798-57C18F66BA34}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{12FF32E3-8D5A-4731-A795-B31E4904B6A3}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{62D83072-7999-435D-897E-1AF42A39A117}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{CD6EC34E-D088-429C-AD9A-AB439EC0DB0A}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{429BB144-3F44-4305-B493-0C8038B282B8}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{00F6E29E-3CFA-4DEC-80EE-D747506EC40F}"/>
+    <hyperlink ref="D22" r:id="rId13" xr:uid="{80A9A179-604E-43B7-9D09-C618DC2FB727}"/>
+    <hyperlink ref="D23" r:id="rId14" xr:uid="{3C5A5375-2A67-4070-BC03-E58231B37901}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
+    <hyperlink ref="D25" r:id="rId16" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
+    <hyperlink ref="D26" r:id="rId17" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
+    <hyperlink ref="D27" r:id="rId18" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
+    <hyperlink ref="D28" r:id="rId19" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
+    <hyperlink ref="D30" r:id="rId20" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
+    <hyperlink ref="D29" r:id="rId21" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
+    <hyperlink ref="D33" r:id="rId22" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
+    <hyperlink ref="D45" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
+    <hyperlink ref="D44" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
+    <hyperlink ref="D37" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
+    <hyperlink ref="D49" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
+    <hyperlink ref="D50" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
+    <hyperlink ref="D52" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
+    <hyperlink ref="D53" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
+    <hyperlink ref="D55" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
+    <hyperlink ref="D56" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
+    <hyperlink ref="D57" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
+    <hyperlink ref="D60" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
+    <hyperlink ref="D58" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
+    <hyperlink ref="D59" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
+    <hyperlink ref="D61" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
+    <hyperlink ref="D88" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="D63" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
+    <hyperlink ref="D89" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D90" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D65" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
+    <hyperlink ref="D67" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
+    <hyperlink ref="D68" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
+    <hyperlink ref="D70" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
+    <hyperlink ref="D73" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
+    <hyperlink ref="D77" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
+    <hyperlink ref="D78" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
+    <hyperlink ref="D81" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
+    <hyperlink ref="D82" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
+    <hyperlink ref="D83" r:id="rId50" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
+    <hyperlink ref="D74" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
+    <hyperlink ref="D75" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
+    <hyperlink ref="E39" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
+    <hyperlink ref="D6" r:id="rId53" xr:uid="{2804486C-FEC1-42AC-AB75-F7030E15D0F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>
@@ -5616,24 +5837,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D2" t="e">
         <v>#N/A</v>
@@ -5645,10 +5866,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D3" t="e">
         <v>#N/A</v>
@@ -5660,25 +5881,25 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D5" t="e">
         <v>#N/A</v>
@@ -5690,27 +5911,27 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D7" t="e">
         <v>#N/A</v>
@@ -5722,10 +5943,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D8" t="e">
         <v>#N/A</v>
@@ -5737,25 +5958,25 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D10" t="e">
         <v>#N/A</v>
@@ -5767,10 +5988,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" t="e">
         <v>#N/A</v>
@@ -5782,10 +6003,10 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D12" t="e">
         <v>#N/A</v>
@@ -5796,43 +6017,43 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -5843,13 +6064,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D16" t="e">
         <v>#N/A</v>
@@ -5861,55 +6082,55 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -5920,13 +6141,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D21" t="e">
         <v>#N/A</v>
@@ -5938,10 +6159,10 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
         <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>218</v>
       </c>
       <c r="D22" t="e">
         <v>#N/A</v>
@@ -5952,13 +6173,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" t="s">
         <v>216</v>
-      </c>
-      <c r="B23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" t="s">
-        <v>219</v>
       </c>
       <c r="D23" t="e">
         <v>#N/A</v>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE4D7F-1061-468C-9414-AC60C14FD534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119AB2BC-8D1A-4CB0-8B72-C204AB50018F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$90</definedName>
-    <definedName name="AWS_Shield">Hoja1!$D$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$98</definedName>
+    <definedName name="AWS_Shield">Hoja1!$D$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="356">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -862,9 +862,6 @@
     <t>Ver Definicion en Seguridad</t>
   </si>
   <si>
-    <t>Informatica</t>
-  </si>
-  <si>
     <t>Capacidad informática (servidores virtuales) en la nube, segura y de tamaño modificable</t>
   </si>
   <si>
@@ -950,13 +947,202 @@
   </si>
   <si>
     <t>Amazon Elastic Compute Cloud (Amazon EC2) es un servicio web que proporciona capacidad de computación en la nube segura y de tamaño variable. Se ha diseñado para facilitar la computación de escalado web para los desarrolladores</t>
+  </si>
+  <si>
+    <t>Almacenamiento de objetos</t>
+  </si>
+  <si>
+    <t>Almacenamiento de objetos creado para almacenar y recuperar cualquier volumen de datos desde cualquier ubicación</t>
+  </si>
+  <si>
+    <t>Almacenamiento de archivos</t>
+  </si>
+  <si>
+    <t>Almacenamiento en bloque</t>
+  </si>
+  <si>
+    <t>Almacenamiento de bloque de alto rendimiento y con facilidad de uso a cualquier escala</t>
+  </si>
+  <si>
+    <t>Sistema de archivos NFS escalable, elástico y nativo en la nube por 0,08 USD por GB-mes*</t>
+  </si>
+  <si>
+    <t>Amazon FSx for Windows File Server</t>
+  </si>
+  <si>
+    <t>Almacenamiento de archivos completamente administrado basado en Windows Server</t>
+  </si>
+  <si>
+    <t>Amazon FSx for Lustre</t>
+  </si>
+  <si>
+    <t>Almacenamiento compartido rápido y escalable para potenciar sus cargas de trabajo informáticas</t>
+  </si>
+  <si>
+    <t>Transferencia de datos</t>
+  </si>
+  <si>
+    <t>AWS Storage Gateway es un servicio de almacenamiento en la nube híbrida que le brinda acceso local al almacenamiento en la nube prácticamente ilimitado</t>
+  </si>
+  <si>
+    <t>AWS DataSync</t>
+  </si>
+  <si>
+    <t>implificar, automatizar y acelerar la transferencia de datos hacia el almacenamiento de AWS y desde este.</t>
+  </si>
+  <si>
+    <t>AWS Transfer Family</t>
+  </si>
+  <si>
+    <t>Transferencia de archivos, simple y sin problemas a Amazon S3 con protocolos SFTP, FTPS y FTP</t>
+  </si>
+  <si>
+    <t>Dispositivos portátiles de alta seguridad para recopilar y procesar datos en el borde, y migrar datos hacia y desde AWS</t>
+  </si>
+  <si>
+    <t>Almacenamiento e informática de borde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clases de almacenamiento de objetos en Amazon S3 seguro, duradero y a largo plazo </t>
+  </si>
+  <si>
+    <t>Relacional</t>
+  </si>
+  <si>
+    <t>Análisis interactivo</t>
+  </si>
+  <si>
+    <t>Procesamiento de big data</t>
+  </si>
+  <si>
+    <t>Almacenamiento de datos</t>
+  </si>
+  <si>
+    <t>Análisis en tiempo real</t>
+  </si>
+  <si>
+    <t>Análisis operacionales</t>
+  </si>
+  <si>
+    <t>Paneles y visualizaciones</t>
+  </si>
+  <si>
+    <t>Preparación de datos visuales</t>
+  </si>
+  <si>
+    <t>Migración de datos</t>
+  </si>
+  <si>
+    <t>Migración de datos en tiempo real</t>
+  </si>
+  <si>
+    <t>Lago de datos</t>
+  </si>
+  <si>
+    <t>Copias de seguridad y archivo</t>
+  </si>
+  <si>
+    <t>Catálogo de datos</t>
+  </si>
+  <si>
+    <t>Datos de terceros</t>
+  </si>
+  <si>
+    <t>Análisis predictivo y aprendizaje automático</t>
+  </si>
+  <si>
+    <t>Marcos e interfaces</t>
+  </si>
+  <si>
+    <t>Servicios de la plataforma</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Amazon-Kinesis</t>
+  </si>
+  <si>
+    <t>Amazon-Elasticsearch-Service</t>
+  </si>
+  <si>
+    <t>Amazon-QuickSight</t>
+  </si>
+  <si>
+    <t>AWS Glue DataBrew</t>
+  </si>
+  <si>
+    <t>AWS-Glue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Managed Streaming for Apache Kafka (MSK) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Kinesis Data Streams </t>
+  </si>
+  <si>
+    <t>Amazon Kinesis Data Firehose</t>
+  </si>
+  <si>
+    <t>Kinesis Video Streams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon S3 </t>
+  </si>
+  <si>
+    <t>AWS Lake Formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon S3 Glacier </t>
+  </si>
+  <si>
+    <t>AWS Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Glue </t>
+  </si>
+  <si>
+    <t>AWS Data Exchange</t>
+  </si>
+  <si>
+    <t>AMI de aprendizaje profundo de AWS</t>
+  </si>
+  <si>
+    <t>Amazon SageMaker</t>
+  </si>
+  <si>
+    <t>Amazon Pinpoint</t>
+  </si>
+  <si>
+    <t>Servicio multicanal de comunicación de marketing</t>
+  </si>
+  <si>
+    <t>Amazon Pinpoint es un servicio flexible y escalable de comunicaciones de marketing de entrada y salida. Puede conectarse con los clientes a través de canales como correo electrónico, mensajes SMS, notificaciones push o mensajes de voz</t>
+  </si>
+  <si>
+    <t>Amazon Pinpoint is a flexible and scalable outbound and inbound marketing communications service. You can connect with customers over channels like email, SMS, push, or voice</t>
+  </si>
+  <si>
+    <t>Centro de contacto omnicanal en la nube fácil de usar</t>
+  </si>
+  <si>
+    <t>Amazon Simple Email Service</t>
+  </si>
+  <si>
+    <t>Amazon Simple Email Service (SES) is a cost-effective, flexible, and scalable email service that enables developers to send mail from within any application</t>
+  </si>
+  <si>
+    <t>Servicio de correo electrónico en la nube entrante y saliente a gran escala</t>
+  </si>
+  <si>
+    <t>Amazon Simple Email Service (SES) es un servicio de correo electrónico rentable, flexible y escalable que permite a los desarrolladores enviar correos desde cualquier aplicación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,6 +1191,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF232F3E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1020,7 +1213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1042,45 +1235,8 @@
         <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1145,7 +1301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1162,112 +1318,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,15 +1352,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1309,13 +1425,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1357,13 +1473,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1405,13 +1521,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1453,13 +1569,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1501,13 +1617,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1549,13 +1665,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1597,13 +1713,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1645,13 +1761,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1693,13 +1809,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1741,13 +1857,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1789,13 +1905,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1837,13 +1953,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4360,1463 +4476,1813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="20.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="C7" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="34" t="s">
+      <c r="C17" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10" t="s">
+      <c r="B28" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E28" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F28" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="10" t="s">
+    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F29" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="10" t="s">
+    <row r="30" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F30" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="10" t="s">
+    <row r="31" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F31" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F32" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="10" t="s">
+    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F33" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="10" t="s">
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F34" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10" t="s">
+    <row r="35" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F35" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="10" t="s">
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E36" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F36" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="10" t="s">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="10" t="s">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F38" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+    <row r="39" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B39" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C39" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F39" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="34" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D40" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="34" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D41" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="34" t="s">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D42" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E42" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F42" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39" t="s">
+    <row r="43" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C43" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F43" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="34" t="s">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D44" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C45" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D45" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E45" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="34" t="s">
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D46" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="34" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D47" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C48" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D48" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="34" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D49" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="34" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D50" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E50" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F50" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="14" t="s">
+    <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C51" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D51" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E51" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F51" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C52" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D52" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="34" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D53" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="34" t="s">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D54" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="15" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E55" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F55" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="15" t="s">
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E56" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F56" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="15" t="s">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E57" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F57" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="15" t="s">
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E58" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F58" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="15" t="s">
+    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E59" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F59" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="15" t="s">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F60" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="40" t="s">
+    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="18" t="s">
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E61" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F61" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="10" t="s">
+    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="29"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E62" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F62" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="10" t="s">
+    <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="29"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F63" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="10" t="s">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="29"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E64" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F64" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="10" t="s">
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E65" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F65" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="10" t="s">
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E66" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F66" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="10" t="s">
+    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="29"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E67" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F67" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="10" t="s">
+    <row r="68" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E68" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F68" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23" t="s">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E69" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F69" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B72" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C72" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D72" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E64" s="26" t="e">
+      <c r="E72" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F64" s="20" t="e">
+      <c r="F72" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="8" t="s">
+    <row r="73" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D73" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E73" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F73" s="31" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="8" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D74" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="26" t="e">
+      <c r="E74" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F66" s="26" t="e">
+      <c r="F74" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="8" t="s">
+    <row r="75" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="29"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D75" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E75" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F75" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="8" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D76" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="28" t="s">
+      <c r="E76" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F76" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="8" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D77" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="26" t="e">
+      <c r="E77" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F69" s="19" t="e">
+      <c r="F77" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="8" t="s">
+    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="29"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D78" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E78" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F78" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="47" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C79" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D79" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="E71" s="26" t="e">
+      <c r="E79" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F71" s="19" t="e">
+      <c r="F79" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="8" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D80" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E72" s="26" t="e">
+      <c r="E80" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F72" s="19" t="e">
+      <c r="F80" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="8" t="s">
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D81" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E81" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="F81" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="8" t="s">
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D82" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E82" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F82" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="8" t="s">
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="29"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E83" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F83" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="8" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D84" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="E76" s="26" t="e">
+      <c r="E84" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F76" s="19" t="e">
+      <c r="F84" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="48" t="s">
+    <row r="85" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A85" s="29"/>
+      <c r="B85" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C85" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D85" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E85" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F85" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="8" t="s">
+    <row r="86" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A86" s="29"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D86" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E86" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="F86" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="8" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="29"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D87" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="E79" s="26" t="e">
+      <c r="E87" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F79" s="19" t="e">
+      <c r="F87" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="48" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="29"/>
+      <c r="B88" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C88" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D88" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="E80" s="26" t="e">
+      <c r="E88" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F80" s="19" t="e">
+      <c r="F88" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="8" t="s">
+    <row r="89" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="29"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D89" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E89" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F89" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="8" t="s">
+    <row r="90" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="29"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D90" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E90" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F82" s="19" t="s">
+      <c r="F90" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="8" t="s">
+    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="29"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D91" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E91" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F91" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="8" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="29"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D92" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E84" s="26" t="e">
+      <c r="E92" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F84" s="19" t="e">
+      <c r="F92" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="47" t="s">
+    <row r="93" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="29"/>
+      <c r="B93" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C93" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D93" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="E85" s="26" t="e">
+      <c r="E93" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F85" s="19" t="e">
+      <c r="F93" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="8" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="29"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D94" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E86" s="26" t="e">
+      <c r="E94" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F86" s="19" t="e">
+      <c r="F94" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="30" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="29"/>
+      <c r="B95" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C95" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="D95" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="E87" s="26" t="e">
+      <c r="E95" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F87" s="19" t="e">
+      <c r="F95" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="49" t="s">
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="10" t="s">
+      <c r="B96" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E96" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F96" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="10" t="s">
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E97" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F97" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
-      <c r="D90" s="10" t="s">
+    <row r="98" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E98" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F98" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>264</v>
-      </c>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="25"/>
+      <c r="B103" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="25"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
+      <c r="B108" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="25"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="25"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="25"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="25"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="25"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="25"/>
+      <c r="B115" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A88:A91"/>
+  <mergeCells count="34">
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="A96:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B92"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="A64:A87"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A39:A54"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B52:B54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{9B5F3B7B-A5CA-47C6-8A2C-5DC8E43357C6}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{0452C04E-AA7D-4E4C-BE8B-CDC9FBBAEAF9}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{A04EF8C0-43A1-49B3-B444-7D9171735EA7}"/>
-    <hyperlink ref="D54" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
+    <hyperlink ref="D60" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{9B82B932-2E31-48CB-9386-4A39DAA93DB7}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{47ED8E4E-C06F-48CE-B798-57C18F66BA34}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{12FF32E3-8D5A-4731-A795-B31E4904B6A3}"/>
-    <hyperlink ref="D18" r:id="rId9" xr:uid="{62D83072-7999-435D-897E-1AF42A39A117}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{CD6EC34E-D088-429C-AD9A-AB439EC0DB0A}"/>
-    <hyperlink ref="D20" r:id="rId11" xr:uid="{429BB144-3F44-4305-B493-0C8038B282B8}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{00F6E29E-3CFA-4DEC-80EE-D747506EC40F}"/>
-    <hyperlink ref="D22" r:id="rId13" xr:uid="{80A9A179-604E-43B7-9D09-C618DC2FB727}"/>
-    <hyperlink ref="D23" r:id="rId14" xr:uid="{3C5A5375-2A67-4070-BC03-E58231B37901}"/>
-    <hyperlink ref="D24" r:id="rId15" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
-    <hyperlink ref="D25" r:id="rId16" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
-    <hyperlink ref="D26" r:id="rId17" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
-    <hyperlink ref="D27" r:id="rId18" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
-    <hyperlink ref="D28" r:id="rId19" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
-    <hyperlink ref="D30" r:id="rId20" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
-    <hyperlink ref="D29" r:id="rId21" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
-    <hyperlink ref="D33" r:id="rId22" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
-    <hyperlink ref="D45" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
-    <hyperlink ref="D44" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
-    <hyperlink ref="D37" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
-    <hyperlink ref="D49" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
-    <hyperlink ref="D50" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
-    <hyperlink ref="D52" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
-    <hyperlink ref="D53" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
-    <hyperlink ref="D55" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
-    <hyperlink ref="D56" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
-    <hyperlink ref="D57" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
-    <hyperlink ref="D60" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
-    <hyperlink ref="D58" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
-    <hyperlink ref="D59" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
-    <hyperlink ref="D61" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="D88" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
-    <hyperlink ref="D63" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="D89" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
-    <hyperlink ref="D90" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
-    <hyperlink ref="D65" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
-    <hyperlink ref="D67" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
-    <hyperlink ref="D68" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
-    <hyperlink ref="D70" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
-    <hyperlink ref="D73" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
-    <hyperlink ref="D77" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
-    <hyperlink ref="D78" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
-    <hyperlink ref="D81" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
-    <hyperlink ref="D82" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
-    <hyperlink ref="D83" r:id="rId50" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
-    <hyperlink ref="D74" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
-    <hyperlink ref="D75" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
-    <hyperlink ref="E39" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{62D83072-7999-435D-897E-1AF42A39A117}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{CD6EC34E-D088-429C-AD9A-AB439EC0DB0A}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{429BB144-3F44-4305-B493-0C8038B282B8}"/>
+    <hyperlink ref="D23" r:id="rId12" xr:uid="{00F6E29E-3CFA-4DEC-80EE-D747506EC40F}"/>
+    <hyperlink ref="D28" r:id="rId13" xr:uid="{80A9A179-604E-43B7-9D09-C618DC2FB727}"/>
+    <hyperlink ref="D29" r:id="rId14" xr:uid="{3C5A5375-2A67-4070-BC03-E58231B37901}"/>
+    <hyperlink ref="D30" r:id="rId15" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
+    <hyperlink ref="D31" r:id="rId16" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
+    <hyperlink ref="D32" r:id="rId17" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
+    <hyperlink ref="D33" r:id="rId18" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
+    <hyperlink ref="D34" r:id="rId19" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
+    <hyperlink ref="D36" r:id="rId20" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
+    <hyperlink ref="D35" r:id="rId21" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
+    <hyperlink ref="D39" r:id="rId22" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
+    <hyperlink ref="D51" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
+    <hyperlink ref="D50" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
+    <hyperlink ref="D43" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
+    <hyperlink ref="D55" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
+    <hyperlink ref="D56" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
+    <hyperlink ref="D58" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
+    <hyperlink ref="D59" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
+    <hyperlink ref="D61" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
+    <hyperlink ref="D62" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
+    <hyperlink ref="D63" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
+    <hyperlink ref="D66" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
+    <hyperlink ref="D64" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
+    <hyperlink ref="D65" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
+    <hyperlink ref="D67" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
+    <hyperlink ref="D96" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="D69" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
+    <hyperlink ref="D97" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D98" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D73" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
+    <hyperlink ref="D75" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
+    <hyperlink ref="D76" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
+    <hyperlink ref="D78" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
+    <hyperlink ref="D81" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
+    <hyperlink ref="D85" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
+    <hyperlink ref="D86" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
+    <hyperlink ref="D89" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
+    <hyperlink ref="D90" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
+    <hyperlink ref="D91" r:id="rId50" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
+    <hyperlink ref="D82" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
+    <hyperlink ref="D83" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
+    <hyperlink ref="E45" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
     <hyperlink ref="D6" r:id="rId53" xr:uid="{2804486C-FEC1-42AC-AB75-F7030E15D0F4}"/>
+    <hyperlink ref="D70" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
+    <hyperlink ref="D71" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId54"/>
-  <drawing r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
+  <drawing r:id="rId57"/>
 </worksheet>
 </file>
 

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119AB2BC-8D1A-4CB0-8B72-C204AB50018F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7DA464-4B76-4058-96EC-CAC2E0602CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Servicios" sheetId="1" r:id="rId1"/>
+    <sheet name="OtrosConceptos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$98</definedName>
-    <definedName name="AWS_Shield">Hoja1!$D$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$104</definedName>
+    <definedName name="Amazon_Redshift">Servicios!$D$104</definedName>
+    <definedName name="AWS_FamiliaSnow">Servicios!$D$41:$D$44</definedName>
+    <definedName name="AWS_Shield">Servicios!$D$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="426">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -622,15 +624,6 @@
     <t>Casos De uso</t>
   </si>
   <si>
-    <t>Categoría</t>
-  </si>
-  <si>
-    <t>Casos de uso</t>
-  </si>
-  <si>
-    <t>Servicio de AWS</t>
-  </si>
-  <si>
     <t>Identity &amp; Access Management</t>
   </si>
   <si>
@@ -736,9 +729,6 @@
     <t>Amazon GuardDuty</t>
   </si>
   <si>
-    <t>AWS Config</t>
-  </si>
-  <si>
     <t>AWS IoT Device Defender</t>
   </si>
   <si>
@@ -1136,13 +1126,409 @@
   </si>
   <si>
     <t>Amazon Simple Email Service (SES) es un servicio de correo electrónico rentable, flexible y escalable que permite a los desarrolladores enviar correos desde cualquier aplicación.</t>
+  </si>
+  <si>
+    <t>Descubra el comportamiento y el inventario de los servidores locales</t>
+  </si>
+  <si>
+    <t>Migre sus bases de datos a AWS con un tiempo de inactividad mínimo</t>
+  </si>
+  <si>
+    <t>Migre sus cargas de trabajo locales a AWS</t>
+  </si>
+  <si>
+    <t>Cargas De trabajo</t>
+  </si>
+  <si>
+    <t>Bases de Datos</t>
+  </si>
+  <si>
+    <t>Aplicaciones tradicionales, ERP, CRM y e-commerce</t>
+  </si>
+  <si>
+    <t>Aplicaciones web de alto tráfico, sistemas de e-comercio, aplicaciones de juegos</t>
+  </si>
+  <si>
+    <t>Clave-valor</t>
+  </si>
+  <si>
+    <t>En memoria</t>
+  </si>
+  <si>
+    <t>Almacenamiento en caché, gestión de sesiones, marcadores de juegos, aplicaciones geoespaciales</t>
+  </si>
+  <si>
+    <t>Gestión de contenidos, catálogos, perfiles de usuario</t>
+  </si>
+  <si>
+    <t>Amazon DocumentDB (compatible con MongoDB)</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Columna ancha</t>
+  </si>
+  <si>
+    <t>Aplicaciones industriales de gran escala para el mantenimiento de equipos, la administración de flotas y la optimización de la ruta</t>
+  </si>
+  <si>
+    <t>Amazon Keyspaces (para Apache Cassandra)</t>
+  </si>
+  <si>
+    <t>Gráfico</t>
+  </si>
+  <si>
+    <t>Detección de fraudes, redes sociales y motores de recomendaciones</t>
+  </si>
+  <si>
+    <t>Amazon Neptune</t>
+  </si>
+  <si>
+    <t>Series temporales</t>
+  </si>
+  <si>
+    <t>Aplicaciones de IoT, DevOps y telemetría industrial</t>
+  </si>
+  <si>
+    <t>Amazon Timestream</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>Sistemas de registro, cadenas de suministros, registros y transacciones bancarias</t>
+  </si>
+  <si>
+    <t>Amazon QLDB</t>
+  </si>
+  <si>
+    <t>Ventajas de la Nube</t>
+  </si>
+  <si>
+    <t>Que Region Elegir</t>
+  </si>
+  <si>
+    <t>Pilares de Arquitectura</t>
+  </si>
+  <si>
+    <t>Planes</t>
+  </si>
+  <si>
+    <t>Realizar operaciones como código</t>
+  </si>
+  <si>
+    <t>Realizar cambios pequeños, reversibles y frecuentes</t>
+  </si>
+  <si>
+    <t>Mejorar los procedimientos operativos con frecuencia</t>
+  </si>
+  <si>
+    <t>Anticipar los errores</t>
+  </si>
+  <si>
+    <t>Aprender de todos los errores operativos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWS Well-Architected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Aprenda, calcule y cree con prácticas recomendadas para arquitecturas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Implemente una base de identidad sólida</t>
+  </si>
+  <si>
+    <t>Permita la trazabilidad</t>
+  </si>
+  <si>
+    <t>Aplique la seguridad en todos los niveles</t>
+  </si>
+  <si>
+    <t>Automatice las prácticas recomendadas de seguridad</t>
+  </si>
+  <si>
+    <t>Proteja los datos en tránsito y en reposo</t>
+  </si>
+  <si>
+    <t>Aleje a las personas de los datos</t>
+  </si>
+  <si>
+    <t>Prepárese para eventos de seguridad</t>
+  </si>
+  <si>
+    <t>Recuperarse de los errores automáticamente</t>
+  </si>
+  <si>
+    <t>Probar los procedimientos de recuperación</t>
+  </si>
+  <si>
+    <t>Escalar horizontalmente para aumentar la disponibilidad de la carga de trabajo agregada</t>
+  </si>
+  <si>
+    <t>Dejar de suponer la capacidad</t>
+  </si>
+  <si>
+    <t>Administrar los cambios en la automatización</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilar de excelencia operativa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incluye la manera en la que la organización respalda los objetivos empresariales, además de la habilidad para ejecutar cargas de trabajo de forma eficaz, obtener información sobre las operaciones y mejorar continuamente los procedimientos y los procesos de soporte para ofrecer valor de negocio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilar de seguridad
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aprovechar las tecnologías de la nube para proteger los datos, los sistemas y los activos en forma tal que pueda mejorar la posición de seguridad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilar de fiabilidad
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>incluye la capacidad de una carga de trabajo para llevar a cabo la función prevista de forma correcta y consistente en el momento esperado. Esto incluye la capacidad de operar y probar la carga de trabajo a través de su ciclo de vida completo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilar de eficacia del rendimiento
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se centra en el uso eficaz de recursos informáticos para cumplir con los requisitos y la forma de mantener la eficiencia a medida que las demandas cambian y las tecnologías evolucionan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratice las tecnologías avanzadas: facilite la implementación de tecnología avanzada para su equipo </t>
+  </si>
+  <si>
+    <t>Incorporarse al mercado global en minutos</t>
+  </si>
+  <si>
+    <t>Utilizar arquitecturas sin servidor</t>
+  </si>
+  <si>
+    <t>Experimentar con más frecuencia</t>
+  </si>
+  <si>
+    <t>Considere la afinidad mecánica</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilar de optimización de costos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(proceso continuo de perfeccionamiento y mejora durante todo el ciclo de vida de una carga de trabajo)</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementar la administración financiera en la nube</t>
+  </si>
+  <si>
+    <t>Adoptar un modelo de consumo</t>
+  </si>
+  <si>
+    <t>Medir la eficiencia general</t>
+  </si>
+  <si>
+    <t>Dejar de gastar dinero en tareas complicadas no diferenciadas</t>
+  </si>
+  <si>
+    <t>Analizar y asignar los gastos</t>
+  </si>
+  <si>
+    <t>Que es la Nube</t>
+  </si>
+  <si>
+    <t>Disminuya Costos Fijos por hastos variable</t>
+  </si>
+  <si>
+    <t>Beneficio Economia de Escalas</t>
+  </si>
+  <si>
+    <t>Deje de adivinar la capacidad</t>
+  </si>
+  <si>
+    <t>Aumente velocidad y agilidad</t>
+  </si>
+  <si>
+    <t>Diminuya gastos de sostenimiento de centros de computo</t>
+  </si>
+  <si>
+    <t>Despliege Global</t>
+  </si>
+  <si>
+    <t>Leyes Gubernamentales</t>
+  </si>
+  <si>
+    <t>Latencia</t>
+  </si>
+  <si>
+    <t>Servicios Disponible Region</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>La informática en la nube es la distribución de recursos de TI bajo demanda a través de Internet mediante un esquema de pago por uso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,18 +1543,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1194,6 +1568,29 @@
     <font>
       <sz val="12"/>
       <color rgb="FF232F3E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1235,26 +1632,6 @@
         <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
@@ -1273,15 +1650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1296,110 +1664,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1425,13 +1823,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1473,13 +1871,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1521,13 +1919,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1569,13 +1967,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1617,13 +2015,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1665,13 +2063,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1713,13 +2111,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1761,13 +2159,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1809,13 +2207,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1857,13 +2255,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1905,13 +2303,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1953,13 +2351,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2004,15 +2402,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2052,13 +2450,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2102,13 +2500,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2150,13 +2548,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2198,13 +2596,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2246,13 +2644,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2294,13 +2692,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2342,13 +2740,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2390,13 +2788,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2438,13 +2836,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2486,13 +2884,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2534,13 +2932,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2582,13 +2980,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2630,13 +3028,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2678,13 +3076,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2726,13 +3124,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2774,13 +3172,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2822,13 +3220,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2870,13 +3268,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2918,13 +3316,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2966,13 +3364,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3014,13 +3412,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3062,13 +3460,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3108,15 +3506,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3156,13 +3554,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3206,13 +3604,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3230,8 +3628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="7010400"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="714374" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3254,13 +3652,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3302,13 +3700,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3350,13 +3748,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3398,13 +3796,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3446,13 +3844,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3494,13 +3892,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3542,13 +3940,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3590,13 +3988,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3638,13 +4036,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3686,13 +4084,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3734,13 +4132,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3782,13 +4180,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3830,13 +4228,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3878,13 +4276,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3926,13 +4324,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3974,13 +4372,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4022,13 +4420,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4070,13 +4468,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4118,13 +4516,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4166,13 +4564,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4476,1758 +4874,1866 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B71"/>
+    <sheetView topLeftCell="C97" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25" t="s">
+      <c r="C19" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F78" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F80" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F83" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E85" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F85" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F86" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="23"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F90" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
+      <c r="B91" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="23"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="23"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F93" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F94" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95" s="23"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E98" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F98" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F99" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E100" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F100" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+      <c r="B101" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E101" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F101" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="20"/>
+      <c r="B109" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="20"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="20"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="20"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="20"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="20"/>
+      <c r="B114" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C114" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="E72" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F72" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="E74" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F74" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F77" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="E79" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F79" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="E80" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F80" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D84" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E84" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F84" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="D87" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F87" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D88" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="E88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E92" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
-      <c r="B93" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E93" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F93" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="E94" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F94" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="E95" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F95" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="C96" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="31" t="s">
+      <c r="D114" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="20"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="20"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="D102" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
-      <c r="B103" s="40" t="s">
+      <c r="D116" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="20"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="20"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="C103" s="40" t="s">
+      <c r="D118" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="20"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="20"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D103" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="40" t="s">
+      <c r="D120" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="20"/>
+      <c r="B121" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C108" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="40" t="s">
+      <c r="C121" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D121" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="31" t="s">
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="20"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
-      <c r="B115" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A96:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B96:B102"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B92"/>
+  <mergeCells count="38">
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A37"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="A39:A54"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A45:A60"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="A102:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="A78:A101"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{9B5F3B7B-A5CA-47C6-8A2C-5DC8E43357C6}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{0452C04E-AA7D-4E4C-BE8B-CDC9FBBAEAF9}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{A04EF8C0-43A1-49B3-B444-7D9171735EA7}"/>
-    <hyperlink ref="D60" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
+    <hyperlink ref="D66" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{9B82B932-2E31-48CB-9386-4A39DAA93DB7}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{47ED8E4E-C06F-48CE-B798-57C18F66BA34}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{12FF32E3-8D5A-4731-A795-B31E4904B6A3}"/>
@@ -6237,48 +6743,51 @@
     <hyperlink ref="D23" r:id="rId12" xr:uid="{00F6E29E-3CFA-4DEC-80EE-D747506EC40F}"/>
     <hyperlink ref="D28" r:id="rId13" xr:uid="{80A9A179-604E-43B7-9D09-C618DC2FB727}"/>
     <hyperlink ref="D29" r:id="rId14" xr:uid="{3C5A5375-2A67-4070-BC03-E58231B37901}"/>
-    <hyperlink ref="D30" r:id="rId15" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
-    <hyperlink ref="D31" r:id="rId16" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
-    <hyperlink ref="D32" r:id="rId17" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
-    <hyperlink ref="D33" r:id="rId18" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
-    <hyperlink ref="D34" r:id="rId19" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
-    <hyperlink ref="D36" r:id="rId20" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
-    <hyperlink ref="D35" r:id="rId21" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
-    <hyperlink ref="D39" r:id="rId22" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
-    <hyperlink ref="D51" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
-    <hyperlink ref="D50" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
-    <hyperlink ref="D43" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
-    <hyperlink ref="D55" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
-    <hyperlink ref="D56" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
-    <hyperlink ref="D58" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
-    <hyperlink ref="D59" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
-    <hyperlink ref="D61" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
-    <hyperlink ref="D62" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
-    <hyperlink ref="D63" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
-    <hyperlink ref="D66" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
-    <hyperlink ref="D64" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
-    <hyperlink ref="D65" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
-    <hyperlink ref="D67" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="D96" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
-    <hyperlink ref="D69" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="D97" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
-    <hyperlink ref="D98" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
-    <hyperlink ref="D73" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
-    <hyperlink ref="D75" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
-    <hyperlink ref="D76" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
-    <hyperlink ref="D78" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
-    <hyperlink ref="D81" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
-    <hyperlink ref="D85" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
-    <hyperlink ref="D86" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
-    <hyperlink ref="D89" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
-    <hyperlink ref="D90" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
-    <hyperlink ref="D91" r:id="rId50" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
-    <hyperlink ref="D82" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
-    <hyperlink ref="D83" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
-    <hyperlink ref="E45" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
+    <hyperlink ref="D31" r:id="rId15" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
+    <hyperlink ref="D32" r:id="rId16" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
+    <hyperlink ref="D38" r:id="rId17" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
+    <hyperlink ref="D39" r:id="rId18" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
+    <hyperlink ref="D40" r:id="rId19" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
+    <hyperlink ref="D42" r:id="rId20" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
+    <hyperlink ref="D41" r:id="rId21" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
+    <hyperlink ref="D45" r:id="rId22" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
+    <hyperlink ref="D57" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
+    <hyperlink ref="D56" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
+    <hyperlink ref="D49" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
+    <hyperlink ref="D61" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
+    <hyperlink ref="D62" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
+    <hyperlink ref="D64" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
+    <hyperlink ref="D65" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
+    <hyperlink ref="D67" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
+    <hyperlink ref="D68" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
+    <hyperlink ref="D69" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
+    <hyperlink ref="D72" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
+    <hyperlink ref="D70" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
+    <hyperlink ref="D71" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
+    <hyperlink ref="D73" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
+    <hyperlink ref="D102" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="D75" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
+    <hyperlink ref="D103" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D104" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D79" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
+    <hyperlink ref="D81" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
+    <hyperlink ref="D82" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
+    <hyperlink ref="D84" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
+    <hyperlink ref="D87" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
+    <hyperlink ref="D91" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
+    <hyperlink ref="D92" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
+    <hyperlink ref="D95" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
+    <hyperlink ref="D96" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
+    <hyperlink ref="D97" r:id="rId50" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
+    <hyperlink ref="D88" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
+    <hyperlink ref="D89" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
+    <hyperlink ref="E51" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
     <hyperlink ref="D6" r:id="rId53" xr:uid="{2804486C-FEC1-42AC-AB75-F7030E15D0F4}"/>
-    <hyperlink ref="D70" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
-    <hyperlink ref="D71" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
+    <hyperlink ref="D76" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
+    <hyperlink ref="D77" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
+    <hyperlink ref="D26" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{4746361F-EC10-4BFB-A46D-4B92FDB9897D}"/>
+    <hyperlink ref="D27" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{154EC12F-1FC2-4537-BDB7-9683A6CB9FB8}"/>
+    <hyperlink ref="D30" location="Amazon_Redshift" display="Amazon Redshift" xr:uid="{7AE7E9A3-53BC-4B15-A8C4-56294B3E5E35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId56"/>
@@ -6288,538 +6797,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>380</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A17:A43"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7DA464-4B76-4058-96EC-CAC2E0602CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF13C27-7680-4BA4-BD5C-BC79ABB12581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicios" sheetId="1" r:id="rId1"/>
     <sheet name="OtrosConceptos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$104</definedName>
-    <definedName name="Amazon_Redshift">Servicios!$D$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$111</definedName>
+    <definedName name="Amazon_Redshift">Servicios!$D$111</definedName>
     <definedName name="AWS_FamiliaSnow">Servicios!$D$41:$D$44</definedName>
-    <definedName name="AWS_Shield">Servicios!$D$91</definedName>
+    <definedName name="AWS_Shield">Servicios!$D$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="466">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -1522,6 +1522,126 @@
   </si>
   <si>
     <t>La informática en la nube es la distribución de recursos de TI bajo demanda a través de Internet mediante un esquema de pago por uso</t>
+  </si>
+  <si>
+    <t>Aloje con seguridad repositorios Git privados y con alta escalabilidad. Colabore en el código</t>
+  </si>
+  <si>
+    <t>Cree y pruebe código con escalado continuo. Pague sólo por el tiempo de compilación que utilice</t>
+  </si>
+  <si>
+    <t>Automatice las implementaciones de código para conservar el tiempo de actividad de las aplicaciones</t>
+  </si>
+  <si>
+    <t>Automatice canalizaciones de entrega continua para lograr actualizaciones rápidas y fiables</t>
+  </si>
+  <si>
+    <t>Analice y depure aplicaciones de producción distribuidas</t>
+  </si>
+  <si>
+    <t>Es muy sencillo ponerlo en marcha e imposible que se produzca un crecimiento excesivo</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>Despliegue Infraestructura</t>
+  </si>
+  <si>
+    <t>AWS Cloud9</t>
+  </si>
+  <si>
+    <t>AWS Cloud9 es un entorno de desarrollo integrado (IDE) basado en la nube que le permite escribir, ejecutar y depurar su código solo con un navegador. Incluye un editor de código, así como un depurador y un terminal</t>
+  </si>
+  <si>
+    <t>AWS Cloud9 is a cloud-based integrated development environment (IDE) that lets you write, run, and debug your code with just a browser. It includes a code editor, debugger, and terminal.</t>
+  </si>
+  <si>
+    <t>Ide</t>
+  </si>
+  <si>
+    <t>Administración de artefactos segura, escalable y rentable para el desarrollo de software</t>
+  </si>
+  <si>
+    <t>AWS CodeArtifact</t>
+  </si>
+  <si>
+    <t>AWS CodeArtifact es un servicio de repositorio de artefactos completamente administrado que hace fácil para las organizaciones almacenar, publicar y compartir de forma segura paquetes de software utilizados en sus procesos de desarrollo de software</t>
+  </si>
+  <si>
+    <t>AWS CodeArtifact is a fully managed artifact repository service that makes it easy for organizations of any size to securely store, publish, and share software packages used in their software development process</t>
+  </si>
+  <si>
+    <t>Un IDE en la nube para escribir, ejecutar y depurar código</t>
+  </si>
+  <si>
+    <t>La interfaz de línea de comandos (CLI) es una herramienta unificada para administrar los productos de AWS. Solo tendrá que descargar y configurar una única herramienta para poder controlar varios servicios de AWS desde la línea de comando y automatizarlos mediante secuencias de comandos</t>
+  </si>
+  <si>
+    <t>The AWS Command Line Interface (CLI) is a unified tool to manage your AWS services. With just one tool to download and configure, you can control multiple AWS services from the command line and automate them through scripts</t>
+  </si>
+  <si>
+    <t>AWS CLI (Command Line Interface)</t>
+  </si>
+  <si>
+    <t>Consola</t>
+  </si>
+  <si>
+    <t>AWS CloudShell is a browser-based shell that makes it easy to securely manage, explore, and interact with your AWS resources.</t>
+  </si>
+  <si>
+    <t>AWS CloudShell es un shell basado en navegador que facilita la administración, exploración e interacción de forma segura con sus recursos de AWS.</t>
+  </si>
+  <si>
+    <t>AWS CloudShell</t>
+  </si>
+  <si>
+    <t>Acceso en linea de comando a los recursos y herramientas de AWS directamente desde un navegador</t>
+  </si>
+  <si>
+    <t>Una herramienta unificada para administrar, controlar y automatizar scripts de comandos desde una terminal</t>
+  </si>
+  <si>
+    <t>Amazon CodeGuru</t>
+  </si>
+  <si>
+    <t>Automatice las revisiones de código y optimice el rendimiento de la aplicación con recomendaciones generadas por AA</t>
+  </si>
+  <si>
+    <t>Amazon CodeGuru es una herramienta para desarrolladores que brinda recomendaciones inteligentes para mejorar la calidad del código e identificar las líneas de código más costosas de una aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon CodeGuru is a developer tool that provides intelligent recommendations to improve your code quality and identify an application’s most expensive lines of code. </t>
+  </si>
+  <si>
+    <t>Revision de Codigo</t>
+  </si>
+  <si>
+    <t>AWS Device Farm</t>
+  </si>
+  <si>
+    <t>AWS Device Farm es un servicio de prueba de aplicaciones que permite mejorar la calidad de sus aplicaciones web y móviles mediante su prueba en un amplio rango de navegadores de escritorio y dispositivos móviles reales, sin tener que aprovisionar y administrar ninguna infraestructura de pruebas.</t>
+  </si>
+  <si>
+    <t>Mejore la calidad de sus aplicaciones web y móviles mediante su prueba entre los navegadores de escritorio y los dispositivos móviles reales alojados en la nube de AWS</t>
+  </si>
+  <si>
+    <t>AWS Device Farm is an application testing service that lets you improve the quality of your web and mobile apps by testing them across an extensive range of desktop browsers and real mobile devices; without having to provision and manage any testing infrastructure</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>AWS Fault Injection Simulator</t>
+  </si>
+  <si>
+    <t>AWS Fault Injection Simulator is a fully managed chaos engineering service that makes it easier for teams to discover an application’s weaknesses at scale in order to improve performance, observability, and resiliency. Chaos engineering is the process of stressing an application in testing or production environments by creating disruptive events, such as server outages or API throttling, observing how the system responds, and implementing improvements</t>
+  </si>
+  <si>
+    <t>AWS Fault Injection Simulator es un servicio de ingeniería del caos completamente administrado que facilita a los equipos descubrir las debilidades de una aplicación a escala para mejorar el rendimiento, la observabilidad y la resistencia. La ingeniería del caos es el proceso de estresar una aplicación en entornos de prueba o producción mediante la creación de eventos disruptivos, como interrupciones del servidor o limitación de API, observar cómo responde el sistema e implementar mejoras.</t>
+  </si>
+  <si>
+    <t>Ejecute experimentos de ingenieria del caos controlado en AWS para mejorar el rendimiento, la resistencia y la disponibilidad de las aplicaciones</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1745,13 +1865,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1759,21 +1883,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1784,12 +1913,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1797,6 +1920,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1823,13 +1958,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1871,13 +2006,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1919,13 +2054,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1967,13 +2102,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2015,13 +2150,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2063,13 +2198,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2111,13 +2246,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2159,13 +2294,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2207,13 +2342,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2255,13 +2390,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2303,13 +2438,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2351,13 +2486,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4874,10 +5009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="C97" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,8 +5047,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>267</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -4930,8 +5065,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>261</v>
       </c>
@@ -4942,8 +5077,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>263</v>
       </c>
@@ -4958,8 +5093,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>264</v>
       </c>
@@ -4974,8 +5109,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>265</v>
       </c>
@@ -4990,8 +5125,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23" t="s">
         <v>268</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5008,8 +5143,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="4" t="s">
         <v>270</v>
       </c>
@@ -5024,8 +5159,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4" t="s">
         <v>271</v>
       </c>
@@ -5036,8 +5171,8 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>273</v>
       </c>
@@ -5048,7 +5183,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="11" t="s">
         <v>275</v>
       </c>
@@ -5066,8 +5201,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23" t="s">
         <v>277</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -5080,8 +5215,8 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4" t="s">
         <v>280</v>
       </c>
@@ -5092,8 +5227,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="4" t="s">
         <v>282</v>
       </c>
@@ -5104,8 +5239,8 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4" t="s">
         <v>284</v>
       </c>
@@ -5116,8 +5251,8 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4" t="s">
         <v>286</v>
       </c>
@@ -5128,10 +5263,10 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -5148,8 +5283,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="11" t="s">
         <v>307</v>
       </c>
@@ -5164,7 +5299,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3" t="s">
         <v>292</v>
       </c>
@@ -5182,8 +5317,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24" t="s">
         <v>291</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -5200,8 +5335,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="11" t="s">
         <v>296</v>
       </c>
@@ -5212,8 +5347,8 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="11" t="s">
         <v>298</v>
       </c>
@@ -5224,8 +5359,8 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="25" t="s">
         <v>299</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -5242,8 +5377,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="11" t="s">
         <v>302</v>
       </c>
@@ -5254,8 +5389,8 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="11" t="s">
         <v>304</v>
       </c>
@@ -5266,8 +5401,8 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="11" t="s">
         <v>305</v>
       </c>
@@ -5278,7 +5413,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
         <v>306</v>
       </c>
@@ -5290,13 +5425,13 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="23" t="s">
         <v>357</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -5310,9 +5445,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
@@ -5324,9 +5459,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="10" t="s">
         <v>140</v>
       </c>
@@ -5334,7 +5469,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="12" t="s">
         <v>359</v>
       </c>
@@ -5352,7 +5487,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="12" t="s">
         <v>360</v>
       </c>
@@ -5370,7 +5505,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="12" t="s">
         <v>364</v>
       </c>
@@ -5384,7 +5519,7 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="12" t="s">
         <v>365</v>
       </c>
@@ -5398,7 +5533,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="12" t="s">
         <v>368</v>
       </c>
@@ -5412,7 +5547,7 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="12" t="s">
         <v>371</v>
       </c>
@@ -5426,7 +5561,7 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="12" t="s">
         <v>374</v>
       </c>
@@ -5440,7 +5575,7 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="12"/>
@@ -5458,7 +5593,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="12" t="s">
         <v>356</v>
       </c>
@@ -5476,7 +5611,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="12" t="s">
         <v>355</v>
       </c>
@@ -5494,11 +5629,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="22" t="s">
         <v>305</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -5512,9 +5647,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="2" t="s">
         <v>66</v>
       </c>
@@ -5526,9 +5661,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="2" t="s">
         <v>68</v>
       </c>
@@ -5538,9 +5673,9 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="2" t="s">
         <v>71</v>
       </c>
@@ -5552,10 +5687,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="22" t="s">
         <v>228</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -5572,8 +5707,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="4" t="s">
         <v>230</v>
       </c>
@@ -5584,8 +5719,8 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="4" t="s">
         <v>232</v>
       </c>
@@ -5596,8 +5731,8 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="4" t="s">
         <v>234</v>
       </c>
@@ -5612,8 +5747,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="25"/>
+      <c r="B49" s="22" t="s">
         <v>235</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -5630,8 +5765,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="4" t="s">
         <v>237</v>
       </c>
@@ -5642,8 +5777,8 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="25" t="s">
+      <c r="A51" s="25"/>
+      <c r="B51" s="22" t="s">
         <v>239</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -5658,8 +5793,8 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="4" t="s">
         <v>241</v>
       </c>
@@ -5670,8 +5805,8 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="4" t="s">
         <v>243</v>
       </c>
@@ -5682,8 +5817,8 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="25" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="22" t="s">
         <v>244</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -5696,8 +5831,8 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="25"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="4" t="s">
         <v>247</v>
       </c>
@@ -5708,8 +5843,8 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="4" t="s">
         <v>249</v>
       </c>
@@ -5724,7 +5859,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="6" t="s">
         <v>250</v>
       </c>
@@ -5742,8 +5877,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="25" t="s">
+      <c r="A58" s="25"/>
+      <c r="B58" s="22" t="s">
         <v>252</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -5756,8 +5891,8 @@
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="25"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="4" t="s">
         <v>255</v>
       </c>
@@ -5768,8 +5903,8 @@
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="4" t="s">
         <v>257</v>
       </c>
@@ -5779,382 +5914,406 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="2" t="s">
+      <c r="B61" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="2" t="s">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="2" t="s">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="2" t="s">
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="2" t="s">
+    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
+      <c r="B66" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="2" t="s">
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="40"/>
+      <c r="B68" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
+      <c r="B71" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5" t="s">
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13" t="s">
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D84" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+    <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B85" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D85" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="E78" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F78" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E80" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F80" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E83" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F83" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="E85" s="3" t="e">
         <v>#N/A</v>
@@ -6163,78 +6322,78 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="21"/>
+    <row r="86" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" s="3" t="e">
+        <v>227</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F86" s="3" t="e">
+      <c r="F87" s="3" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="21"/>
+    <row r="88" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="21"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="13" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>119</v>
+        <v>154</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>219</v>
+        <v>188</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="E90" s="3" t="e">
         <v>#N/A</v>
@@ -6243,48 +6402,48 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="24" t="s">
-        <v>197</v>
-      </c>
+    <row r="91" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="13" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="24"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="27" t="s">
+        <v>190</v>
+      </c>
       <c r="C92" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E92" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F92" s="3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="24"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>221</v>
+        <v>192</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="E93" s="3" t="e">
         <v>#N/A</v>
@@ -6293,114 +6452,112 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24" t="s">
-        <v>201</v>
-      </c>
+    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E94" s="3" t="e">
+        <v>193</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E97" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F94" s="3" t="e">
+      <c r="F97" s="3" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
+    <row r="98" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="28" t="s">
+        <v>197</v>
+      </c>
       <c r="C98" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E98" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F98" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="21" t="s">
-        <v>207</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E99" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F99" s="3" t="e">
-        <v>#N/A</v>
+        <v>199</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="21"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="13" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E100" s="3" t="e">
         <v>#N/A</v>
@@ -6410,15 +6567,15 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="17" t="s">
-        <v>210</v>
+      <c r="A101" s="25"/>
+      <c r="B101" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E101" s="3" t="e">
         <v>#N/A</v>
@@ -6427,273 +6584,412 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+    <row r="102" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A102" s="25"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="25"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F105" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="25"/>
+      <c r="B106" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E106" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F106" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E107" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F107" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
+      <c r="B108" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E108" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F108" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B109" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C109" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="18" t="s">
+    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13" t="s">
+    <row r="111" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D112" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="13" t="s">
-        <v>333</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="D113" s="13" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>289</v>
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="13" t="s">
+        <v>315</v>
+      </c>
       <c r="D115" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19" t="s">
-        <v>319</v>
+      <c r="A116" s="23"/>
+      <c r="B116" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
       <c r="D117" s="13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19" t="s">
-        <v>320</v>
-      </c>
+      <c r="A118" s="23"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
       <c r="D118" s="13" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
       <c r="D119" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="13" t="s">
-        <v>321</v>
-      </c>
+      <c r="A120" s="23"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
       <c r="D120" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
-      <c r="B121" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>323</v>
+      <c r="A121" s="23"/>
+      <c r="B121" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>289</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="13" t="s">
-        <v>324</v>
-      </c>
+      <c r="A122" s="23"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
       <c r="D122" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="23"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="23"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="23"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="23"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="23"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="23"/>
+      <c r="B128" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="23"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A37"/>
+  <mergeCells count="41">
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="A109:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="A85:A108"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A45:A60"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="B71:B72"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B16"/>
@@ -6702,38 +6998,18 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A45:A60"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="A102:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B102:B108"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="A78:A101"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{9B5F3B7B-A5CA-47C6-8A2C-5DC8E43357C6}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{0452C04E-AA7D-4E4C-BE8B-CDC9FBBAEAF9}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{A04EF8C0-43A1-49B3-B444-7D9171735EA7}"/>
-    <hyperlink ref="D66" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
+    <hyperlink ref="D67" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{9B82B932-2E31-48CB-9386-4A39DAA93DB7}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{47ED8E4E-C06F-48CE-B798-57C18F66BA34}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{12FF32E3-8D5A-4731-A795-B31E4904B6A3}"/>
@@ -6754,44 +7030,50 @@
     <hyperlink ref="D57" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
     <hyperlink ref="D56" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
     <hyperlink ref="D49" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
-    <hyperlink ref="D61" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
-    <hyperlink ref="D62" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
-    <hyperlink ref="D64" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
-    <hyperlink ref="D65" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
-    <hyperlink ref="D67" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
-    <hyperlink ref="D68" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
-    <hyperlink ref="D69" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
-    <hyperlink ref="D72" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
-    <hyperlink ref="D70" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
-    <hyperlink ref="D71" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
-    <hyperlink ref="D73" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="D102" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
-    <hyperlink ref="D75" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="D103" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
-    <hyperlink ref="D104" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
-    <hyperlink ref="D79" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
-    <hyperlink ref="D81" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
-    <hyperlink ref="D82" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
-    <hyperlink ref="D84" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
-    <hyperlink ref="D87" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
-    <hyperlink ref="D91" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
-    <hyperlink ref="D92" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
-    <hyperlink ref="D95" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
-    <hyperlink ref="D96" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
-    <hyperlink ref="D97" r:id="rId50" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
-    <hyperlink ref="D88" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
-    <hyperlink ref="D89" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
+    <hyperlink ref="D62" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
+    <hyperlink ref="D63" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
+    <hyperlink ref="D65" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
+    <hyperlink ref="D66" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
+    <hyperlink ref="D74" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
+    <hyperlink ref="D75" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
+    <hyperlink ref="D76" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
+    <hyperlink ref="D79" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
+    <hyperlink ref="D77" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
+    <hyperlink ref="D78" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
+    <hyperlink ref="D80" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
+    <hyperlink ref="D109" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="D82" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
+    <hyperlink ref="D110" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D111" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D86" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
+    <hyperlink ref="D88" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
+    <hyperlink ref="D89" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
+    <hyperlink ref="D91" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
+    <hyperlink ref="D94" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
+    <hyperlink ref="D98" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
+    <hyperlink ref="D99" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
+    <hyperlink ref="D102" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
+    <hyperlink ref="D103" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
+    <hyperlink ref="D104" r:id="rId50" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
+    <hyperlink ref="D95" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
+    <hyperlink ref="D96" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
     <hyperlink ref="E51" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
     <hyperlink ref="D6" r:id="rId53" xr:uid="{2804486C-FEC1-42AC-AB75-F7030E15D0F4}"/>
-    <hyperlink ref="D76" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
-    <hyperlink ref="D77" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
+    <hyperlink ref="D83" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
+    <hyperlink ref="D84" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
     <hyperlink ref="D26" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{4746361F-EC10-4BFB-A46D-4B92FDB9897D}"/>
     <hyperlink ref="D27" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{154EC12F-1FC2-4537-BDB7-9683A6CB9FB8}"/>
     <hyperlink ref="D30" location="Amazon_Redshift" display="Amazon Redshift" xr:uid="{7AE7E9A3-53BC-4B15-A8C4-56294B3E5E35}"/>
+    <hyperlink ref="D68" r:id="rId56" xr:uid="{F7F20B19-F42C-4946-8595-6B7DAE268AD3}"/>
+    <hyperlink ref="D61" r:id="rId57" xr:uid="{C722DBA6-1EBB-48B6-911E-5A34565CC3B7}"/>
+    <hyperlink ref="D70" r:id="rId58" display="https://aws.amazon.com/cli/" xr:uid="{226E5FFD-1B22-48A9-937F-820E657F97C9}"/>
+    <hyperlink ref="D69" r:id="rId59" xr:uid="{0214839F-6AA7-44C9-9B64-D4150403EA2C}"/>
+    <hyperlink ref="D73" r:id="rId60" xr:uid="{169E646D-B5A4-473E-A6AF-C33E9687D7F6}"/>
+    <hyperlink ref="D71" r:id="rId61" xr:uid="{83EF94BC-B020-45C4-BD97-34175F575C58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
-  <drawing r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId62"/>
+  <drawing r:id="rId63"/>
 </worksheet>
 </file>
 
@@ -6799,7 +7081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6811,74 +7093,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="21" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="21" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="21" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="21" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="21" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="21" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="21" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="21" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="21" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="21" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6888,203 +7170,203 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="21" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="21" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="21" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="21" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="21" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="21" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="29" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="21" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="29" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="21" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="29" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="21" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="29" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="21" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="29" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="21" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="21" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="21" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="21" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="29" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="21" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="29" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="21" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="29" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="21" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="21" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="29" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="21" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="29" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="21" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="29" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="21" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="29" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="21" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="36" t="s">
         <v>408</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="21" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="29" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="21" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="29" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="21" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="29" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="21" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="29" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="21" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7095,14 +7377,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="A17:A43"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF13C27-7680-4BA4-BD5C-BC79ABB12581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15162ECB-B7AE-4846-91DF-EF91D0D40429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicios" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$111</definedName>
     <definedName name="Amazon_Redshift">Servicios!$D$111</definedName>
+    <definedName name="Amazon_S3">Servicios!$D$17</definedName>
     <definedName name="AWS_FamiliaSnow">Servicios!$D$41:$D$44</definedName>
     <definedName name="AWS_Shield">Servicios!$D$98</definedName>
   </definedNames>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="467">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -1228,33 +1229,6 @@
   </si>
   <si>
     <t>Aprender de todos los errores operativos</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AWS Well-Architected
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Aprenda, calcule y cree con prácticas recomendadas para arquitecturas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Implemente una base de identidad sólida</t>
@@ -1643,12 +1617,45 @@
   <si>
     <t>Ejecute experimentos de ingenieria del caos controlado en AWS para mejorar el rendimiento, la resistencia y la disponibilidad de las aplicaciones</t>
   </si>
+  <si>
+    <t>Ver Amazon S3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWS Well-Architected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Aprenda, calcule y cree con prácticas recomendadas para arquitecturas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,15 +1708,25 @@
     </font>
     <font>
       <i/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1730,7 +1747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1821,12 +1838,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1867,24 +1893,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1892,17 +1911,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1922,18 +1953,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4743,6 +4778,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E930CA4B-4293-4DA7-AA49-AA2F89F4AF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9994868"/>
+          <a:ext cx="10496550" cy="5920652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5011,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:B72"/>
+    <sheetView topLeftCell="C111" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5266,7 +5345,7 @@
       <c r="A17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="31" t="s">
         <v>289</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -5284,7 +5363,7 @@
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="11" t="s">
         <v>307</v>
       </c>
@@ -5318,7 +5397,7 @@
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -5336,7 +5415,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="11" t="s">
         <v>296</v>
       </c>
@@ -5348,7 +5427,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="11" t="s">
         <v>298</v>
       </c>
@@ -5360,7 +5439,7 @@
     </row>
     <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>299</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -5378,7 +5457,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="25"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="11" t="s">
         <v>302</v>
       </c>
@@ -5390,7 +5469,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="11" t="s">
         <v>304</v>
       </c>
@@ -5402,7 +5481,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="11" t="s">
         <v>305</v>
       </c>
@@ -5633,7 +5712,7 @@
       <c r="B41" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="27" t="s">
         <v>305</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -5649,7 +5728,7 @@
     <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="22"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="2" t="s">
         <v>66</v>
       </c>
@@ -5663,7 +5742,7 @@
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="22"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="2" t="s">
         <v>68</v>
       </c>
@@ -5675,7 +5754,7 @@
     <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="22"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="2" t="s">
         <v>71</v>
       </c>
@@ -5687,10 +5766,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="27" t="s">
         <v>228</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -5707,8 +5786,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="4" t="s">
         <v>230</v>
       </c>
@@ -5719,8 +5798,8 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="4" t="s">
         <v>232</v>
       </c>
@@ -5731,8 +5810,8 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="4" t="s">
         <v>234</v>
       </c>
@@ -5747,8 +5826,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27" t="s">
         <v>235</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -5765,8 +5844,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="4" t="s">
         <v>237</v>
       </c>
@@ -5777,8 +5856,8 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="22" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27" t="s">
         <v>239</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -5793,8 +5872,8 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="4" t="s">
         <v>241</v>
       </c>
@@ -5805,8 +5884,8 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="4" t="s">
         <v>243</v>
       </c>
@@ -5817,8 +5896,8 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="27" t="s">
         <v>244</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -5831,8 +5910,8 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="4" t="s">
         <v>247</v>
       </c>
@@ -5843,8 +5922,8 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="4" t="s">
         <v>249</v>
       </c>
@@ -5859,7 +5938,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="6" t="s">
         <v>250</v>
       </c>
@@ -5877,8 +5956,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27" t="s">
         <v>252</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -5891,8 +5970,8 @@
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="4" t="s">
         <v>255</v>
       </c>
@@ -5903,8 +5982,8 @@
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="4" t="s">
         <v>257</v>
       </c>
@@ -5915,30 +5994,30 @@
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="39" t="s">
-        <v>432</v>
+      <c r="B61" s="28" t="s">
+        <v>431</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="E61" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>93</v>
@@ -5951,10 +6030,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>95</v>
@@ -5967,10 +6046,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>99</v>
@@ -5983,10 +6062,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>103</v>
@@ -5999,12 +6078,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>105</v>
@@ -6017,12 +6096,12 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>9</v>
@@ -6035,111 +6114,111 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C68" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="29"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="39" t="s">
-        <v>446</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="19" t="s">
+      <c r="F70" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="29"/>
+      <c r="B71" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="29"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="30"/>
+      <c r="B73" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42" t="s">
-        <v>456</v>
-      </c>
-      <c r="C73" s="19" t="s">
+      <c r="E73" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>455</v>
-      </c>
     </row>
     <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="26" t="s">
         <v>108</v>
       </c>
       <c r="B74" s="5"/>
@@ -6155,7 +6234,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="2" t="s">
@@ -6169,7 +6248,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="2" t="s">
@@ -6183,7 +6262,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="2" t="s">
@@ -6197,7 +6276,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="2" t="s">
@@ -6211,7 +6290,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="2" t="s">
@@ -6225,7 +6304,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="2" t="s">
@@ -6239,7 +6318,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="2" t="s">
@@ -6253,7 +6332,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="22" t="s">
         <v>146</v>
       </c>
       <c r="B82" s="5"/>
@@ -6271,7 +6350,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
         <v>344</v>
@@ -6287,7 +6366,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
         <v>350</v>
@@ -6303,10 +6382,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="24" t="s">
         <v>184</v>
       </c>
       <c r="C85" s="13" t="s">
@@ -6323,8 +6402,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="27"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="13" t="s">
         <v>227</v>
       </c>
@@ -6339,8 +6418,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="27"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="13" t="s">
         <v>186</v>
       </c>
@@ -6355,8 +6434,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="13" t="s">
         <v>187</v>
       </c>
@@ -6371,8 +6450,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
-      <c r="B89" s="27"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="13" t="s">
         <v>226</v>
       </c>
@@ -6387,8 +6466,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="13" t="s">
         <v>188</v>
       </c>
@@ -6403,8 +6482,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="13" t="s">
         <v>189</v>
       </c>
@@ -6419,8 +6498,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="27" t="s">
+      <c r="A92" s="26"/>
+      <c r="B92" s="24" t="s">
         <v>190</v>
       </c>
       <c r="C92" s="13" t="s">
@@ -6437,8 +6516,8 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="13" t="s">
         <v>192</v>
       </c>
@@ -6453,8 +6532,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="13" t="s">
         <v>193</v>
       </c>
@@ -6469,8 +6548,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="24"/>
       <c r="C95" s="13" t="s">
         <v>194</v>
       </c>
@@ -6485,8 +6564,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="24"/>
       <c r="C96" s="13" t="s">
         <v>195</v>
       </c>
@@ -6501,8 +6580,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="13" t="s">
         <v>196</v>
       </c>
@@ -6517,8 +6596,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="28" t="s">
+      <c r="A98" s="26"/>
+      <c r="B98" s="25" t="s">
         <v>197</v>
       </c>
       <c r="C98" s="13" t="s">
@@ -6535,8 +6614,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="28"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="13" t="s">
         <v>199</v>
       </c>
@@ -6551,8 +6630,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="28"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="13" t="s">
         <v>200</v>
       </c>
@@ -6567,8 +6646,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
-      <c r="B101" s="28" t="s">
+      <c r="A101" s="26"/>
+      <c r="B101" s="25" t="s">
         <v>201</v>
       </c>
       <c r="C101" s="13" t="s">
@@ -6585,8 +6664,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
-      <c r="B102" s="28"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="13" t="s">
         <v>203</v>
       </c>
@@ -6601,8 +6680,8 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
-      <c r="B103" s="28"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="13" t="s">
         <v>204</v>
       </c>
@@ -6617,8 +6696,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
-      <c r="B104" s="28"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="13" t="s">
         <v>205</v>
       </c>
@@ -6633,8 +6712,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
-      <c r="B105" s="28"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="13" t="s">
         <v>206</v>
       </c>
@@ -6649,8 +6728,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
-      <c r="B106" s="27" t="s">
+      <c r="A106" s="26"/>
+      <c r="B106" s="24" t="s">
         <v>207</v>
       </c>
       <c r="C106" s="13" t="s">
@@ -6667,8 +6746,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="27"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="13" t="s">
         <v>209</v>
       </c>
@@ -6683,7 +6762,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
+      <c r="A108" s="26"/>
       <c r="B108" s="17" t="s">
         <v>210</v>
       </c>
@@ -6802,10 +6881,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="22" t="s">
         <v>317</v>
       </c>
       <c r="D116" s="13" t="s">
@@ -6816,8 +6895,8 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
       <c r="D117" s="13" t="s">
         <v>331</v>
       </c>
@@ -6826,8 +6905,8 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
       <c r="D118" s="13" t="s">
         <v>332</v>
       </c>
@@ -6836,8 +6915,8 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
       <c r="D119" s="13" t="s">
         <v>333</v>
       </c>
@@ -6846,8 +6925,8 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
       <c r="D120" s="13" t="s">
         <v>334</v>
       </c>
@@ -6856,22 +6935,24 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
-      <c r="B121" s="26" t="s">
+      <c r="B121" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C121" s="22" t="s">
         <v>289</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="E121" s="13"/>
+      <c r="E121" s="10" t="s">
+        <v>465</v>
+      </c>
       <c r="F121" s="13"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
       <c r="D122" s="13" t="s">
         <v>336</v>
       </c>
@@ -6880,8 +6961,8 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26" t="s">
+      <c r="B123" s="22"/>
+      <c r="C123" s="22" t="s">
         <v>319</v>
       </c>
       <c r="D123" s="13" t="s">
@@ -6892,8 +6973,8 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
       <c r="D124" s="13" t="s">
         <v>338</v>
       </c>
@@ -6902,8 +6983,8 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26" t="s">
+      <c r="B125" s="22"/>
+      <c r="C125" s="22" t="s">
         <v>320</v>
       </c>
       <c r="D125" s="13" t="s">
@@ -6914,8 +6995,8 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
       <c r="D126" s="13" t="s">
         <v>336</v>
       </c>
@@ -6924,7 +7005,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
-      <c r="B127" s="26"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="13" t="s">
         <v>321</v>
       </c>
@@ -6936,7 +7017,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="22" t="s">
         <v>322</v>
       </c>
       <c r="C128" s="13" t="s">
@@ -6950,7 +7031,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
-      <c r="B129" s="26"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="13" t="s">
         <v>324</v>
       </c>
@@ -6962,6 +7043,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A45:A60"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="B71:B72"/>
     <mergeCell ref="C125:C126"/>
     <mergeCell ref="B121:B127"/>
     <mergeCell ref="A109:A129"/>
@@ -6978,31 +7084,6 @@
     <mergeCell ref="B101:B105"/>
     <mergeCell ref="B85:B91"/>
     <mergeCell ref="A85:A108"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A45:A60"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A61:A73"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -7070,6 +7151,7 @@
     <hyperlink ref="D69" r:id="rId59" xr:uid="{0214839F-6AA7-44C9-9B64-D4150403EA2C}"/>
     <hyperlink ref="D73" r:id="rId60" xr:uid="{169E646D-B5A4-473E-A6AF-C33E9687D7F6}"/>
     <hyperlink ref="D71" r:id="rId61" xr:uid="{83EF94BC-B020-45C4-BD97-34175F575C58}"/>
+    <hyperlink ref="E121" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{DD100AC8-6BDE-4F4E-84A7-09629C91214A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId62"/>
@@ -7079,10 +7161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7092,291 +7174,306 @@
     <col min="3" max="3" width="80.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="21" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="20" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="20" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="21" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="20" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="21" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="20" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="21" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="20" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="21" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="20" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="21" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="20" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>379</v>
       </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="21" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="21" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="21" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="21" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="21" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="21" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="36" t="s">
+      <c r="C34" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="C34" s="21" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="21" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="20" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="21" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="20" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="21" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="20" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="21" t="s">
+    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="37" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="36" t="s">
+      <c r="C39" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C39" s="21" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="20" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="21" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="20" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="21" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="20" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="21" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="21" t="s">
-        <v>413</v>
-      </c>
-    </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="44" t="s">
         <v>380</v>
       </c>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A46:C46"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B17:B21"/>
@@ -7385,6 +7482,7 @@
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15162ECB-B7AE-4846-91DF-EF91D0D40429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611C2C5-4FF7-4BD3-9BEC-F53F26B5A7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicios" sheetId="1" r:id="rId1"/>
     <sheet name="OtrosConceptos" sheetId="2" r:id="rId2"/>
+    <sheet name="Informacion Adicional" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$111</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="478">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -178,10 +179,6 @@
   <si>
     <t>Amazon Aurora is a MySQL and PostgreSQL-compatible relational database built for the cloud, that combines the performance and availability of traditional enterprise databases with the simplicity and cost-effectiveness of open source databases.
 Amazon Aurora is up to five times faster than standard MySQL databases and three times faster than standard PostgreSQL databases</t>
-  </si>
-  <si>
-    <t>Amazon Aurora es un motor de base de datos relacional compatible con MySQL y PostgreSQL que combina la velocidad y la disponibilidad de las bases de datos comerciales de gama alta con la sencillez y la rentabilidad de las bases de datos de código abierto.
- Amazon Aurora proporciona un rendimiento cinco veces superior al de MySQL estándar o tres veces superior al de PostgreSQ</t>
   </si>
   <si>
     <t>Amazon Relational Database Service (Amazon RDS)</t>
@@ -740,9 +737,6 @@
   </si>
   <si>
     <t>Amazon Macie</t>
-  </si>
-  <si>
-    <t>AWS Certificate Manager</t>
   </si>
   <si>
     <t>AWS Secrets Manager</t>
@@ -1650,12 +1644,102 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>Amazon Aurora es un motor de base de datos relacional compatible con MySQL y PostgreSQL que combina la velocidad y la disponibilidad de las bases de datos comerciales de gama alta con la sencillez y la rentabilidad de las bases de datos de código abierto.
+ Amazon Aurora proporciona un rendimiento cinco veces superior al de MySQL estándar o tres veces superior al de PostgreSQl</t>
+  </si>
+  <si>
+    <t>Ver Redshift</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Escala automáticamente a tipos de instancia más grandes o más pequeños es incorrecto. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazon RDS le ofrece seis motores de base de datos ampliamente utilizados para elegir, incluidos Amazon Aurora, PostgreSQL, MySQL, MariaDB, Oracle Database y SQL Server. La única base de datos RDS que puede escalar instancias automáticamente es Amazon Aurora.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Scales automatically to larger or smaller instance types" is incorrect. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazon RDS provides you with six widely-used database engines to choose from, including Amazon Aurora, PostgreSQL, MySQL, MariaDB, Oracle Database, and SQL Server. The only RDS database that can scale instances automatically is Amazon Aurora.</t>
+    </r>
+  </si>
+  <si>
+    <t>For RDS databases other than Aurora, RDS only supports storage auto-scaling, NOT instance auto-scaling. If you want to scale Amazon RDS instances (other than Aurora), you have two options:
+1- Manual horizontal scaling (by adding read replicas)
+2- Manual vertical scaling (by upgrading/downgrading an existing instance)</t>
+  </si>
+  <si>
+    <t>Para las bases de datos RDS distintas de Aurora, RDS solo admite el escalado automático de almacenamiento, NO el escalado automático de instancias. Si desea escalar instancias de Amazon RDS (que no sean Aurora), tiene dos opciones:
+1- Escalado horizontal manual (agregando réplicas de lectura)
+2- Escalado vertical manual (mediante la actualización / degradación de una instancia existente).</t>
+  </si>
+  <si>
+    <t>Las soluciones de red privada virtual de AWS establecen conexiones seguras entre sus redes en las instalaciones, las oficinas remotas, los dispositivos cliente y la red global de AWS. AWS VPN se compone de dos servicios: AWS Site-to-Site VPN y AWS Client VPN. Juntos, ofrecen una solución de VPN en la nube de alta disponibilidad, administrada y elástica para proteger su tráfico de red.
+AWS Site-to-Site VPN crea túneles cifrados entre su red y sus instancias de Amazon Virtual Private Cloud o AWS Transit Gateway. Para administrar el acceso remoto, AWS Client VPN conecta sus usuarios a recursos de AWS o en las instalaciones mediante un cliente de software de VPN</t>
+  </si>
+  <si>
+    <t>AWS Virtual Private Network solutions establish secure connections between your on-premises networks, remote offices, client devices, and the AWS global network. AWS VPN is comprised of two services: AWS Site-to-Site VPN and AWS Client VPN. Together, they deliver a highly-available, managed, and elastic cloud VPN solution to protect your network traffic.
+AWS Site-to-Site VPN creates encrypted tunnels between your network and your Amazon Virtual Private Clouds or AWS Transit Gateways. For managing remote access, AWS Client VPN connects your users to AWS or on-premises resources using a VPN software client.</t>
+  </si>
+  <si>
+    <t>Both AWS Config and AWS CloudTrail can be used to track resource changes, and it is very important to distinguish between them. AWS Config is used to monitor and audit changes in AWS resources and allow you to automate the evaluation of recorded configurations of a specific resource against desired configurations. AWS CloudTrail records user API activity on your account and allows you to access information about this activity. You get full details about API actions, such as identity of the caller, the time of the API call, the request parameters, and the response elements returned by the AWS service. In brief, AWS Config provides information about the changes made to a resource, and AWS CloudTrail provides information about who made those changes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto AWS Config como AWS CloudTrail se pueden utilizar para realizar un seguimiento de los cambios en los recursos, y es muy importante distinguirlos. AWS Config se utiliza para monitorear y auditar cambios en los recursos de AWS y le permite automatizar la evaluación de las configuraciones registradas de un recurso específico frente a las configuraciones deseadas. AWS CloudTrail registra la actividad de la API del usuario en su cuenta y le permite acceder a información sobre esta actividad. Obtiene todos los detalles sobre las acciones de la API, como la identidad de la persona que llama, la hora de la llamada a la API, los parámetros de solicitud y los elementos de respuesta devueltos por el servicio de AWS.En resumen, AWS Config proporciona información sobre los cambios realizados en un recurso y AWS CloudTrail proporciona información sobre quién realizó esos cambios. </t>
+  </si>
+  <si>
+    <t>AWS Config - AWS CloudTrail</t>
+  </si>
+  <si>
+    <t>AWS Certificate Manager (ACM)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,6 +1815,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF232F3E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1852,7 +1942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1899,23 +1989,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1926,14 +2014,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1956,19 +2059,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4822,6 +4927,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5046978</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>37377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7058D82E-1A29-4023-BC36-5947323C79DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16116300"/>
+          <a:ext cx="10171428" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>398762</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>161187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA9C13D-2565-44F1-A20E-DF5989F6C8CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10467975" y="16116300"/>
+          <a:ext cx="10304762" cy="5904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5090,8 +5283,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="C111" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5110,10 +5306,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
@@ -5126,40 +5322,40 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
-        <v>267</v>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -5172,10 +5368,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -5188,13 +5384,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -5204,12 +5400,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23" t="s">
-        <v>268</v>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
+        <v>266</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -5222,10 +5418,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -5238,36 +5434,36 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -5280,76 +5476,76 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>289</v>
+      <c r="B17" s="26" t="s">
+        <v>287</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -5362,10 +5558,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -5378,12 +5574,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -5396,12 +5592,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="31" t="s">
-        <v>291</v>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
+        <v>289</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -5414,36 +5610,36 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="26" t="s">
-        <v>299</v>
+      <c r="A23" s="25"/>
+      <c r="B23" s="27" t="s">
+        <v>297</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -5456,652 +5652,658 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>357</v>
+      <c r="B28" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>355</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="12" t="s">
+      <c r="F31" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="12" t="s">
+      <c r="E32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D33" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>55</v>
+      <c r="A38" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="F42" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="B45" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="F45" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27" t="s">
+      <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27" t="s">
+    <row r="54" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="E54" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="4" t="s">
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+    </row>
+    <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="6" t="s">
+      <c r="D57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27" t="s">
+      <c r="D58" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="F61" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
       <c r="B64" s="29"/>
       <c r="C64" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
       <c r="B65" s="30"/>
       <c r="C65" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
       <c r="B66" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
       <c r="B67" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>9</v>
@@ -6116,283 +6318,283 @@
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
       <c r="B68" s="19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D68" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
       <c r="B69" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
       <c r="B70" s="30"/>
       <c r="C70" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="29"/>
       <c r="B71" s="28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="29"/>
       <c r="B72" s="30"/>
       <c r="C72" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D72" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C73" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>454</v>
-      </c>
     </row>
     <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
-        <v>108</v>
+      <c r="A74" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="75" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="76" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
+      <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
+      <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
+      <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
+      <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
+      <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
-        <v>146</v>
+      <c r="A82" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" s="24" t="s">
+      <c r="A85" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>185</v>
-      </c>
       <c r="D85" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E85" s="3" t="e">
         <v>#N/A</v>
@@ -6402,29 +6604,29 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="24"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E86" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E87" s="3" t="e">
         <v>#N/A</v>
@@ -6434,45 +6636,45 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="D90" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E90" s="3" t="e">
         <v>#N/A</v>
@@ -6482,31 +6684,31 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="24" t="s">
+      <c r="C92" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>191</v>
-      </c>
       <c r="D92" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E92" s="3" t="e">
         <v>#N/A</v>
@@ -6516,13 +6718,13 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="24"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E93" s="3" t="e">
         <v>#N/A</v>
@@ -6532,61 +6734,61 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="13" t="s">
+      <c r="D95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="13" t="s">
+      <c r="D96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="13" t="s">
-        <v>196</v>
-      </c>
       <c r="D97" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E97" s="3" t="e">
         <v>#N/A</v>
@@ -6596,47 +6798,47 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="B98" s="25" t="s">
+      <c r="A98" s="27"/>
+      <c r="B98" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="D98" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E98" s="3" t="s">
+      <c r="D99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="13" t="s">
+      <c r="F99" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="27"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D100" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="E100" s="3" t="e">
         <v>#N/A</v>
@@ -6646,15 +6848,15 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="25" t="s">
+      <c r="A101" s="27"/>
+      <c r="B101" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="13" t="s">
-        <v>202</v>
-      </c>
       <c r="D101" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E101" s="3" t="e">
         <v>#N/A</v>
@@ -6664,61 +6866,61 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="25"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="27"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="13" t="s">
+      <c r="D103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="27"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="13" t="s">
+      <c r="D104" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="27"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="13" t="s">
-        <v>206</v>
-      </c>
       <c r="D105" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E105" s="3" t="e">
         <v>#N/A</v>
@@ -6728,15 +6930,15 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
-      <c r="B106" s="24" t="s">
+      <c r="A106" s="27"/>
+      <c r="B106" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>208</v>
-      </c>
       <c r="D106" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E106" s="3" t="e">
         <v>#N/A</v>
@@ -6746,13 +6948,13 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E107" s="3" t="e">
         <v>#N/A</v>
@@ -6762,15 +6964,15 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
+      <c r="A108" s="27"/>
       <c r="B108" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="D108" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E108" s="3" t="e">
         <v>#N/A</v>
@@ -6780,294 +6982,271 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B109" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="C109" s="18" t="s">
+      <c r="F109" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="18" t="s">
+      <c r="D111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="13" t="s">
-        <v>312</v>
-      </c>
       <c r="D112" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="23"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="23"/>
-      <c r="B116" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>317</v>
+      <c r="A116" s="25"/>
+      <c r="B116" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>315</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="23"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
       <c r="D118" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="23"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
       <c r="D119" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="23"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
       <c r="D120" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="23"/>
-      <c r="B121" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>289</v>
+      <c r="A121" s="25"/>
+      <c r="B121" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F121" s="13"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="23"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
       <c r="D122" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="23"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22" t="s">
-        <v>319</v>
+      <c r="A123" s="25"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31" t="s">
+        <v>317</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="23"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
       <c r="D124" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="23"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22" t="s">
-        <v>320</v>
+      <c r="A125" s="25"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31" t="s">
+        <v>318</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="23"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
       <c r="D126" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="23"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="23"/>
-      <c r="B128" s="22" t="s">
-        <v>322</v>
+      <c r="A128" s="25"/>
+      <c r="B128" s="31" t="s">
+        <v>320</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="23"/>
-      <c r="B129" s="22"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="31"/>
       <c r="C129" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A45:A60"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A61:A73"/>
-    <mergeCell ref="B71:B72"/>
+  <mergeCells count="43">
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
     <mergeCell ref="C125:C126"/>
     <mergeCell ref="B121:B127"/>
     <mergeCell ref="A109:A129"/>
@@ -7084,6 +7263,31 @@
     <mergeCell ref="B101:B105"/>
     <mergeCell ref="B85:B91"/>
     <mergeCell ref="A85:A108"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A45:A60"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -7135,7 +7339,7 @@
     <hyperlink ref="D99" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
     <hyperlink ref="D102" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
     <hyperlink ref="D103" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
-    <hyperlink ref="D104" r:id="rId50" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
+    <hyperlink ref="D104" r:id="rId50" display="AWS Certificate Manager" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
     <hyperlink ref="D95" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
     <hyperlink ref="D96" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
     <hyperlink ref="E51" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
@@ -7161,10 +7365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:C46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7175,301 +7379,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="20" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="20" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="20" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="20" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="20" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="20" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>466</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="20" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="20" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="20" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="20" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="20" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="20" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="20" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="82" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B82" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7488,4 +7695,73 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90C9E2A-3EF0-4FC9-88E0-13C91A1375D7}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="87.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611C2C5-4FF7-4BD3-9BEC-F53F26B5A7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDADC4E-0CD4-417A-B951-741E525F2A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,11 @@
     <sheet name="Informacion Adicional" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$111</definedName>
-    <definedName name="Amazon_Redshift">Servicios!$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$114</definedName>
+    <definedName name="Amazon_Redshift">Servicios!$D$114</definedName>
     <definedName name="Amazon_S3">Servicios!$D$17</definedName>
-    <definedName name="AWS_FamiliaSnow">Servicios!$D$41:$D$44</definedName>
-    <definedName name="AWS_Shield">Servicios!$D$98</definedName>
+    <definedName name="AWS_FamiliaSnow">Servicios!$D$43:$D$46</definedName>
+    <definedName name="AWS_Shield">Servicios!$D$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="531">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -191,10 +191,6 @@
 Amazon RDS is available on several database instance types - optimized for memory, performance or I/O - and provides you with six familiar database engines to choose from, including Amazon Aurora, PostgreSQL, MySQL, MariaDB, Oracle Database, and SQL Server</t>
   </si>
   <si>
-    <t>Amazon DynamoDB es un servicio de base de datos NoSQL rápido y ﬂexible para todas las aplicaciones que requieren latencias constantes de milisegundos de un solo dígito a cualquier escala. Se trata de una base de
-datos completamente administrada que admite modelos de datos de documentos y de valor clave.</t>
-  </si>
-  <si>
     <t>Amazon DynamoDB</t>
   </si>
   <si>
@@ -224,9 +220,6 @@
     <t>AWS Application Discovery Service helps enterprise customers plan migration projects by gathering information about their on-premises data centers.</t>
   </si>
   <si>
-    <t>AWS Database Migration Service</t>
-  </si>
-  <si>
     <t>AWS Database Migration Service helps you migrate databases to AWS quickly and securely. The source database remains fully operational during the migration, minimizing downtime to applications that rely on the database. The AWS Database Migration Service can migrate your data to and from most widely used commercial and open-source databases</t>
   </si>
   <si>
@@ -374,9 +367,6 @@
   </si>
   <si>
     <t>AWS X-Ray helps developers analyze and debug production, distributed applications, such as those built using a microservices architecture. With X-Ray, you can understand how your application and its underlying services are performing to identify and troubleshoot the root cause of performance issues and error</t>
-  </si>
-  <si>
-    <t>AWS X-Ray ayuda a los desarrolladores a analizar y depurar aplicaciones distribuidas en producción o en fase de desarrollo, como las que se crean utilizando una arquitectura de microservicios. Con X-Ray podrá conocer el desempeño de su aplicación y de los servicios subyacentes para identificar y solucionar la causa raíz de los problemas y errores de desempeñ</t>
   </si>
   <si>
     <t>Herramientas 
@@ -1733,6 +1723,174 @@
   </si>
   <si>
     <t>AWS Certificate Manager (ACM)</t>
+  </si>
+  <si>
+    <t>AWS Database Migration Service(DMS)</t>
+  </si>
+  <si>
+    <t>AWS Migration Hub</t>
+  </si>
+  <si>
+    <t>Simplifique y agilice las migraciones a AWS</t>
+  </si>
+  <si>
+    <t>AWS Migration Hub ofrece una ubicación única para realizar el seguimiento de los avances de las migraciones de aplicaciones en varias soluciones de AWS y de socios</t>
+  </si>
+  <si>
+    <t>AWS Migration Hub provides a single location to track the progress of application migrations across multiple AWS and partner solutions</t>
+  </si>
+  <si>
+    <t>Recopilar Informacion Centro Datos</t>
+  </si>
+  <si>
+    <t>Seguimiento migraciones</t>
+  </si>
+  <si>
+    <t>Amazon SimpleDB</t>
+  </si>
+  <si>
+    <t>Amazon DynamoDB es un servicio de base de datos NoSQL rápido y ﬂexible para todas las aplicaciones que requieren latencias constantes de milisegundos de un solo dígito a cualquier escala. Se trata de una base de datos completamente administrada que admite modelos de datos de documentos y de valor clave.</t>
+  </si>
+  <si>
+    <t>Amazon SimpleDB es un datastore NoSQL de alta disponibilidad que elimina las tareas de administración de base de datos. Los desarrolladores simplemente almacenan elementos de datos y los consultan mediante solicitudes de servicios web, y Amazon SimpleDB se encarga del resto. Solo admite modelos clave-valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon SimpleDB is a highly available NoSQL data store that offloads the work of database administration. Developers simply store and query data items via web services requests and Amazon SimpleDB does the rest. Only supports key-value values </t>
+  </si>
+  <si>
+    <t>AWS Transit Gateway conecta las VPC y las redes en las instalaciones a través de un centro principal. Esto simplifica su red y pone fin a las complejas relaciones de interconexión. Actúa como un enrutador en la nube: cada conexión nueva se realiza solo una vez</t>
+  </si>
+  <si>
+    <t>AWS Transit Gateway connects VPCs and on-premises networks through a central hub. This simplifies your network and puts an end to complex peering relationships. It acts as a cloud router – each new connection is only made once.</t>
+  </si>
+  <si>
+    <t>AWS PrivateLink provides private connectivity between VPCs, AWS services, and your on-premises networks, without exposing your traffic to the public internet. AWS PrivateLink makes it easy to connect services across different accounts and VPCs to significantly simplify your network architecture</t>
+  </si>
+  <si>
+    <t>AWS PrivateLink ofrece conectividad privada entre las VPC y los servicios alojados en AWS o en las instalaciones, de forma segura en la red de Amazon. Al proporcionar un punto de enlace privado para acceder a sus servicios, AWS PrivateLink garantiza que su tráfico no esté expuesto a la Internet pública. AWS PrivateLink facilita la conexión de servicios entre diferentes cuentas y las VPC a fin de simplificar radicalmente la arquitectura de su red.</t>
+  </si>
+  <si>
+    <t>Una interconexión de VPC es una conexión de red entre dos VPC que le permite enrutar el tráfico entre ellas mediante direcciones IPv4 privadas o direcciones IPv6. Las instancias de cualquiera de las VPC pueden comunicarse entre sí como si estuvieran dentro de la misma red. Puede crear una interconexión de VPC entre sus propias VPC o con una VPC en otra cuenta de AWS. Las VPC pueden estar en diferentes regiones (también conocida como interconexión de VPC entre regiones).</t>
+  </si>
+  <si>
+    <t>A VPC peering connection is a networking connection between two VPCs that enables you to route traffic between them using private IPv4 addresses or IPv6 addresses. Instances in either VPC can communicate with each other as if they are within the same network. You can create a VPC peering connection between your own VPCs, or with a VPC in another AWS account. The VPCs can be in different regions (also known as an inter-region VPC peering connection).</t>
+  </si>
+  <si>
+    <t>VPC peering connection</t>
+  </si>
+  <si>
+    <t>Conexión de red entre dos VPC</t>
+  </si>
+  <si>
+    <t>Amazon Macie es un servicio de privacidad y seguridad de datos totalmente administrado que utiliza el aprendizaje automático y la correspondencia de patrones para descubrir y proteger sus datos confidenciales en AWS</t>
+  </si>
+  <si>
+    <t>Amazon Macie is a fully managed data security and data privacy service that uses machine learning and pattern matching to discover and protect your sensitive data in AWS</t>
+  </si>
+  <si>
+    <t>AWS Firewall Manager is a security management service which allows you to centrally configure and manage firewall rules across your accounts and applications in AWS Organizations</t>
+  </si>
+  <si>
+    <t>AWS Firewall Manager es un servicio de administración de seguridad que permite la configuración y administración centralizadas de reglas de firewall en todas las cuentas y aplicaciones de AWS Organizations</t>
+  </si>
+  <si>
+    <t>Notificaciones push móviles, correo electrónico, SMS y mensajería de publicación/suscripción completamente administrada</t>
+  </si>
+  <si>
+    <t>Amazon Simple Notification Service (Amazon SNS)</t>
+  </si>
+  <si>
+    <t>Integración de aplicaciones</t>
+  </si>
+  <si>
+    <t>Cola de mensajes que envía, almacena y recibe cualquier volumen de mensajes entre los componentes de la aplicación</t>
+  </si>
+  <si>
+    <t>Agente de mensajes para Apache ActiveMQ y RabbitMQ que permite realizar migraciones fácilmente y habilita arquitecturas híbridas</t>
+  </si>
+  <si>
+    <t>Amazon Simple Queue Service (Amazon SQS)</t>
+  </si>
+  <si>
+    <t>Amazon MQ</t>
+  </si>
+  <si>
+    <t>Mensajeria</t>
+  </si>
+  <si>
+    <t>Flujos de trabajo</t>
+  </si>
+  <si>
+    <t>Coordinación de múltiples servicios de AWS en flujos de trabajo sin servidor para poder crear y actualizar aplicaciones rápidamente</t>
+  </si>
+  <si>
+    <t>Ejecute Apache Airflow a escala sin aprovisionar o administrar infraestructura</t>
+  </si>
+  <si>
+    <t>AWS Step Functions</t>
+  </si>
+  <si>
+    <t>Flujos de trabajo administrados de Amazon para Apache Airflow (MWAA)</t>
+  </si>
+  <si>
+    <t>Creación, publicación, mantenimiento, monitoreo y protección de las API a cualquier escala para cargas de trabajo y aplicaciones web sin servidor</t>
+  </si>
+  <si>
+    <t>Creación de una API flexible para acceder de forma segura a datos a partir de uno o más orígenes de datos, y la posibilidad de manipularlos y combinarlos</t>
+  </si>
+  <si>
+    <t>Administración de API</t>
+  </si>
+  <si>
+    <t>AWS AppSync</t>
+  </si>
+  <si>
+    <t>Creación de una arquitectura basada en eventos que conecta los datos de sus aplicaciones, las aplicaciones de SaaS y los servicios AWS</t>
+  </si>
+  <si>
+    <t>Amazon EventBridge</t>
+  </si>
+  <si>
+    <t>Bus de eventos</t>
+  </si>
+  <si>
+    <t>Automatice el flujo de datos entre aplicaciones tipo SaaS y servicios de AWS a prácticamente cualquier escala, sin código.</t>
+  </si>
+  <si>
+    <t>Amazon AppFlow</t>
+  </si>
+  <si>
+    <t>Integración de API sin código</t>
+  </si>
+  <si>
+    <t>Amazon Simple Notification Service (Amazon SNS) is a fully managed messaging service for both application-to-application (A2A) and application-to-person (A2P) communication.Amazon SNS enables you to send messages or notifications directly to users with SMS text messages to over 200 countries, mobile push on Apple, Android, and other platforms or email (SMTP)</t>
+  </si>
+  <si>
+    <t>Amazon Simple Notification Service (Amazon SNS) es un servicio de mensajería completamente administrado para la comunicación aplicación a aplicación (A2A) y aplicación a persona (A2P).Amazon SNS le permite enviar mensajes o notificaciones de forma directa a usuarios mediante mensajes de texto SMS a más de 200 países, notificaciones push en Apple, Android y otras plataformas o correo electrónico (SMTP)</t>
+  </si>
+  <si>
+    <t>AWS X-Ray ayuda a los desarrolladores a analizar y depurar aplicaciones distribuidas en producción o en fase de desarrollo, como las que se crean utilizando una arquitectura de microservicios. Con X-Ray podrá conocer el desempeño de su aplicación y de los servicios subyacentes para identificar y solucionar la causa raíz de los problemas y errores de desempeño.</t>
+  </si>
+  <si>
+    <t>Amazon QuickSight es un servicio de inteligencia empresarial (BI) escalable, sin servidor, integrable y con tecnología de aprendizaje automático creado para la nube. QuickSight le permite crear y publicar fácilmente paneles interactivos de inteligencia empresarial que incluyen información con tecnología de aprendizaje automático</t>
+  </si>
+  <si>
+    <t>Amazon QuickSight is a scalable, serverless, embeddable, machine learning-powered business intelligence (BI) service built for the cloud. QuickSight lets you easily create and publish interactive BI dashboards that include Machine Learning-powered insights</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>AWS Professional Services created the AWS Cloud Adoption Framework (AWS CAF) to help organizations develop and execute efficient and effective plans for their cloud adoption journey. The guidance and best practices provided by the framework help you build a comprehensive approach to cloud computing across your organization, and throughout your IT lifecycle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acelerando el camino de su organización hacia la adopción exitosa de la nube </t>
+  </si>
+  <si>
+    <t>AWS Cloud Adoption Framework (CAF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los servicios profesionales de AWS crearon el marco de adopción de la nube de AWS (AWS CAF) para ayudar a las organizaciones a desarrollar y ejecutar planes eficientes y efectivos para su proceso de adopción de la nube. La guía y las mejores prácticas proporcionadas por el marco lo ayudan a crear un enfoque integral para la computación en la nube en toda su organización y durante todo el ciclo de vida de TI. </t>
   </si>
 </sst>
 </file>
@@ -1942,7 +2100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1952,58 +2110,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2014,11 +2163,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2059,20 +2211,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2098,13 +2274,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2146,13 +2322,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2194,13 +2370,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2242,14 +2418,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2290,13 +2466,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2338,13 +2514,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2386,13 +2562,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2434,13 +2610,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2482,13 +2658,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2530,14 +2706,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2578,13 +2754,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2626,13 +2802,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5281,20 +5457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
+      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="55" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="76.140625" style="1" customWidth="1"/>
@@ -5302,60 +5478,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
-        <v>265</v>
+      <c r="A2" s="22"/>
+      <c r="B2" s="21" t="s">
+        <v>262</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -5368,10 +5544,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -5384,13 +5560,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -5400,12 +5576,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25" t="s">
-        <v>266</v>
+      <c r="A7" s="22"/>
+      <c r="B7" s="21" t="s">
+        <v>263</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -5418,10 +5594,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -5434,36 +5610,36 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="11" t="s">
-        <v>273</v>
+      <c r="A11" s="22"/>
+      <c r="B11" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -5476,76 +5652,76 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25" t="s">
-        <v>275</v>
+      <c r="A12" s="22"/>
+      <c r="B12" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>288</v>
+      <c r="B17" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>285</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -5558,10 +5734,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="11" t="s">
-        <v>305</v>
+      <c r="A18" s="22"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -5574,12 +5750,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>291</v>
+      <c r="A19" s="22"/>
+      <c r="B19" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -5592,12 +5768,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>289</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -5610,36 +5786,36 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="11" t="s">
-        <v>294</v>
+      <c r="A21" s="22"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="11" t="s">
-        <v>296</v>
+      <c r="A22" s="22"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>298</v>
+      <c r="A23" s="22"/>
+      <c r="B23" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -5652,77 +5828,77 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="11" t="s">
-        <v>300</v>
+      <c r="A24" s="22"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="11" t="s">
-        <v>302</v>
+      <c r="A25" s="22"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="20" t="s">
+        <v>299</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>279</v>
+      <c r="A26" s="22"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10" t="s">
-        <v>279</v>
+      <c r="A27" s="22"/>
+      <c r="B27" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>355</v>
+      <c r="B28" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>352</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="2" t="s">
         <v>45</v>
       </c>
@@ -5734,947 +5910,957 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="10" t="s">
-        <v>139</v>
+      <c r="A30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="12" t="s">
+      <c r="D34" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>367</v>
+      <c r="A35" s="22"/>
+      <c r="B35" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>370</v>
+      <c r="A36" s="22"/>
+      <c r="B36" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>373</v>
+      <c r="A37" s="22"/>
+      <c r="B37" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12" t="s">
+      <c r="E39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="C42" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="3" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="F44" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="B47" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="24" t="s">
+      <c r="F47" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E48" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E49" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="4" t="s">
+      <c r="D51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="4" t="s">
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="24" t="s">
+      <c r="D53" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="24" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E54" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="4" t="s">
+      <c r="D59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-    </row>
-    <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="4" t="s">
+      <c r="D60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="6" t="s">
+      <c r="C61" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="24" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="28" t="s">
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="F71" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D66" s="2" t="s">
+    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="F77" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="2" t="s">
+    </row>
+    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="2" t="s">
+    </row>
+    <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="2" t="s">
+    </row>
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E81" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="2" t="s">
+    </row>
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="2" t="s">
+    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="2" t="s">
+    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5" t="s">
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="D87" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="E87" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" s="3" t="e">
+    <row r="88" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F85" s="3" t="e">
+      <c r="F88" s="3" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E87" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F87" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="13" t="s">
-        <v>224</v>
+    <row r="89" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="53" t="s">
+        <v>222</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="F89" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>215</v>
+      <c r="A90" s="23"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="E90" s="3" t="e">
         <v>#N/A</v>
@@ -6683,48 +6869,46 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="13" t="s">
-        <v>188</v>
+    <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E92" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="3" t="e">
-        <v>#N/A</v>
+      <c r="A92" s="23"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>217</v>
+      <c r="A93" s="23"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="E93" s="3" t="e">
         <v>#N/A</v>
@@ -6733,112 +6917,112 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="13" t="s">
+    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="23"/>
+      <c r="B95" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F95" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F96" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E97" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F97" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>220</v>
+      <c r="D100" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="E100" s="3" t="e">
         <v>#N/A</v>
@@ -6847,132 +7031,130 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="33" t="s">
+    <row r="101" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+      <c r="B101" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="23"/>
+      <c r="B104" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A105" s="23"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="23"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="D106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="23"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="D101" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E101" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F101" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="13" t="s">
+      <c r="D107" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="23"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="27"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="27"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E105" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F105" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
-      <c r="B106" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="E106" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F106" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E107" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F107" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
-      <c r="B108" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>212</v>
+      <c r="D108" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="E108" s="3" t="e">
         <v>#N/A</v>
@@ -6981,300 +7163,502 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
+    <row r="109" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="23"/>
+      <c r="B109" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E109" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F109" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="23"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E110" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F110" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="23"/>
+      <c r="B111" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E111" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F111" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B109" s="25" t="s">
+    </row>
+    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="13" t="s">
+      <c r="E117" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D118" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="13" t="s">
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
+      <c r="B119" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="C119" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D114" s="13" t="s">
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="13" t="s">
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="22"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
+      <c r="B124" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="D115" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
-      <c r="B116" s="31" t="s">
+      <c r="C124" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="D126" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="22"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="D116" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="25"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="13" t="s">
+      <c r="D128" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
-      <c r="B121" s="31" t="s">
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="B130" s="54"/>
+      <c r="C130" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="C121" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="F121" s="13"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="25"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="25"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="31" t="s">
+      <c r="D130" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
+      <c r="B131" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="D123" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="25"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="13" t="s">
+      <c r="C131" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="D125" s="13" t="s">
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="25"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="25"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="25"/>
-      <c r="B128" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A133" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="B133" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="22"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="22"/>
+      <c r="B136" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="22"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="22"/>
+      <c r="B138" s="54" t="s">
+        <v>513</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="22"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="22"/>
+      <c r="B140" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="22"/>
+      <c r="B141" s="53" t="s">
+        <v>520</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>527</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="A109:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="A85:A108"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A45:A60"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
+  <mergeCells count="48">
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="A112:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="A88:A111"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A47:A63"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A61:A73"/>
-    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A64:A76"/>
+    <mergeCell ref="B74:B75"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B16"/>
@@ -7283,18 +7667,19 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{9B5F3B7B-A5CA-47C6-8A2C-5DC8E43357C6}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{0452C04E-AA7D-4E4C-BE8B-CDC9FBBAEAF9}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{A04EF8C0-43A1-49B3-B444-7D9171735EA7}"/>
-    <hyperlink ref="D67" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
+    <hyperlink ref="D70" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{9B82B932-2E31-48CB-9386-4A39DAA93DB7}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{47ED8E4E-C06F-48CE-B798-57C18F66BA34}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{12FF32E3-8D5A-4731-A795-B31E4904B6A3}"/>
@@ -7305,61 +7690,67 @@
     <hyperlink ref="D28" r:id="rId13" xr:uid="{80A9A179-604E-43B7-9D09-C618DC2FB727}"/>
     <hyperlink ref="D29" r:id="rId14" xr:uid="{3C5A5375-2A67-4070-BC03-E58231B37901}"/>
     <hyperlink ref="D31" r:id="rId15" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
-    <hyperlink ref="D32" r:id="rId16" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
-    <hyperlink ref="D38" r:id="rId17" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
-    <hyperlink ref="D39" r:id="rId18" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
-    <hyperlink ref="D40" r:id="rId19" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
-    <hyperlink ref="D42" r:id="rId20" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
-    <hyperlink ref="D41" r:id="rId21" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
-    <hyperlink ref="D45" r:id="rId22" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
-    <hyperlink ref="D57" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
-    <hyperlink ref="D56" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
-    <hyperlink ref="D49" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
-    <hyperlink ref="D62" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
-    <hyperlink ref="D63" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
-    <hyperlink ref="D65" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
-    <hyperlink ref="D66" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
-    <hyperlink ref="D74" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
-    <hyperlink ref="D75" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
-    <hyperlink ref="D76" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
-    <hyperlink ref="D79" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
-    <hyperlink ref="D77" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
-    <hyperlink ref="D78" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
-    <hyperlink ref="D80" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="D109" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
-    <hyperlink ref="D82" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="D110" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
-    <hyperlink ref="D111" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
-    <hyperlink ref="D86" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
-    <hyperlink ref="D88" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
-    <hyperlink ref="D89" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
-    <hyperlink ref="D91" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
-    <hyperlink ref="D94" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
-    <hyperlink ref="D98" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
-    <hyperlink ref="D99" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
-    <hyperlink ref="D102" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
-    <hyperlink ref="D103" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
-    <hyperlink ref="D104" r:id="rId50" display="AWS Certificate Manager" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
-    <hyperlink ref="D95" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
-    <hyperlink ref="D96" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
-    <hyperlink ref="E51" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
+    <hyperlink ref="D33" r:id="rId16" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
+    <hyperlink ref="D39" r:id="rId17" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
+    <hyperlink ref="D41" r:id="rId18" display="AWS Database Migration Service" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
+    <hyperlink ref="D42" r:id="rId19" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
+    <hyperlink ref="D44" r:id="rId20" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
+    <hyperlink ref="D43" r:id="rId21" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
+    <hyperlink ref="D47" r:id="rId22" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
+    <hyperlink ref="D60" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
+    <hyperlink ref="D59" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
+    <hyperlink ref="D52" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
+    <hyperlink ref="D65" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
+    <hyperlink ref="D66" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
+    <hyperlink ref="D68" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
+    <hyperlink ref="D69" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
+    <hyperlink ref="D77" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
+    <hyperlink ref="D78" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
+    <hyperlink ref="D79" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
+    <hyperlink ref="D82" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
+    <hyperlink ref="D80" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
+    <hyperlink ref="D81" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
+    <hyperlink ref="D83" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
+    <hyperlink ref="D112" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="D85" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
+    <hyperlink ref="D113" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D114" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D89" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
+    <hyperlink ref="D91" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
+    <hyperlink ref="D92" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
+    <hyperlink ref="D94" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
+    <hyperlink ref="D97" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
+    <hyperlink ref="D101" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
+    <hyperlink ref="D102" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
+    <hyperlink ref="D105" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
+    <hyperlink ref="D106" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
+    <hyperlink ref="D107" r:id="rId50" display="AWS Certificate Manager" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
+    <hyperlink ref="D98" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
+    <hyperlink ref="D99" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
+    <hyperlink ref="E54" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
     <hyperlink ref="D6" r:id="rId53" xr:uid="{2804486C-FEC1-42AC-AB75-F7030E15D0F4}"/>
-    <hyperlink ref="D83" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
-    <hyperlink ref="D84" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
+    <hyperlink ref="D86" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
+    <hyperlink ref="D87" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
     <hyperlink ref="D26" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{4746361F-EC10-4BFB-A46D-4B92FDB9897D}"/>
     <hyperlink ref="D27" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{154EC12F-1FC2-4537-BDB7-9683A6CB9FB8}"/>
     <hyperlink ref="D30" location="Amazon_Redshift" display="Amazon Redshift" xr:uid="{7AE7E9A3-53BC-4B15-A8C4-56294B3E5E35}"/>
-    <hyperlink ref="D68" r:id="rId56" xr:uid="{F7F20B19-F42C-4946-8595-6B7DAE268AD3}"/>
-    <hyperlink ref="D61" r:id="rId57" xr:uid="{C722DBA6-1EBB-48B6-911E-5A34565CC3B7}"/>
-    <hyperlink ref="D70" r:id="rId58" display="https://aws.amazon.com/cli/" xr:uid="{226E5FFD-1B22-48A9-937F-820E657F97C9}"/>
-    <hyperlink ref="D69" r:id="rId59" xr:uid="{0214839F-6AA7-44C9-9B64-D4150403EA2C}"/>
-    <hyperlink ref="D73" r:id="rId60" xr:uid="{169E646D-B5A4-473E-A6AF-C33E9687D7F6}"/>
-    <hyperlink ref="D71" r:id="rId61" xr:uid="{83EF94BC-B020-45C4-BD97-34175F575C58}"/>
-    <hyperlink ref="E121" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{DD100AC8-6BDE-4F4E-84A7-09629C91214A}"/>
+    <hyperlink ref="D71" r:id="rId56" xr:uid="{F7F20B19-F42C-4946-8595-6B7DAE268AD3}"/>
+    <hyperlink ref="D64" r:id="rId57" xr:uid="{C722DBA6-1EBB-48B6-911E-5A34565CC3B7}"/>
+    <hyperlink ref="D73" r:id="rId58" display="https://aws.amazon.com/cli/" xr:uid="{226E5FFD-1B22-48A9-937F-820E657F97C9}"/>
+    <hyperlink ref="D72" r:id="rId59" xr:uid="{0214839F-6AA7-44C9-9B64-D4150403EA2C}"/>
+    <hyperlink ref="D76" r:id="rId60" xr:uid="{169E646D-B5A4-473E-A6AF-C33E9687D7F6}"/>
+    <hyperlink ref="D74" r:id="rId61" xr:uid="{83EF94BC-B020-45C4-BD97-34175F575C58}"/>
+    <hyperlink ref="E124" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{DD100AC8-6BDE-4F4E-84A7-09629C91214A}"/>
+    <hyperlink ref="D32" r:id="rId62" xr:uid="{B20AD222-C821-4CBF-B094-CEAA7B8A3200}"/>
+    <hyperlink ref="D104" r:id="rId63" xr:uid="{0119CB9D-577C-47F4-88AC-6107CC489E5F}"/>
+    <hyperlink ref="D103" r:id="rId64" xr:uid="{B775A593-2D06-4F95-84DB-E5713A371954}"/>
+    <hyperlink ref="D133" r:id="rId65" display="https://aws.amazon.com/sns/" xr:uid="{6AF41E67-CD24-41E2-B9CA-430BFC5C475E}"/>
+    <hyperlink ref="D117" r:id="rId66" xr:uid="{58316A02-A9FE-47EF-933C-598BF797D617}"/>
+    <hyperlink ref="D142" r:id="rId67" display="https://aws.amazon.com/professional-services/CAF/" xr:uid="{5C52581F-6C72-4E0D-838D-B84D148EA140}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId62"/>
-  <drawing r:id="rId63"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
+  <drawing r:id="rId69"/>
 </worksheet>
 </file>
 
@@ -7367,8 +7758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7379,304 +7770,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="20" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="20" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="20" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="20" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="20" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="20" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="20" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="20" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="20" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="20" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="20" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="20" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="20" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="20" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="20" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="20" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="20" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
     </row>
     <row r="82" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B82" s="50"/>
+      <c r="B82" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7712,49 +8103,49 @@
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="87.28515625" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="47" t="s">
+      <c r="C3" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>471</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDADC4E-0CD4-417A-B951-741E525F2A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA9175D-4962-42A0-96CF-E675ECF4372B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$114</definedName>
+    <definedName name="Amazon_API_Gateway">Servicios!$D$62</definedName>
     <definedName name="Amazon_Redshift">Servicios!$D$114</definedName>
     <definedName name="Amazon_S3">Servicios!$D$17</definedName>
     <definedName name="AWS_FamiliaSnow">Servicios!$D$43:$D$46</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="589">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -498,9 +499,6 @@
   </si>
   <si>
     <t>Amazon EMR es la plataforma de big data en la nube líder del sector destinada al procesamiento de grandes volúmenes de datos mediante el uso de herramientas de código abierto, como Apache Spark, Apache Hive, Apache HBase, Apache Flink, Apache Hudi y Presto.</t>
-  </si>
-  <si>
-    <t>Amazon EMR</t>
   </si>
   <si>
     <t>Amazon EMR is the industry-leading cloud big data platform for processing vast amounts of data using open source tools such as Apache Spark, Apache Hive, Apache HBase, Apache Flink, Apache Hudi, and Presto.</t>
@@ -706,9 +704,6 @@
   </si>
   <si>
     <t>Amazon Cognito</t>
-  </si>
-  <si>
-    <t>AWS Resource Access Manager</t>
   </si>
   <si>
     <t>AWS Security Hub</t>
@@ -1891,6 +1886,186 @@
   </si>
   <si>
     <t xml:space="preserve">Los servicios profesionales de AWS crearon el marco de adopción de la nube de AWS (AWS CAF) para ayudar a las organizaciones a desarrollar y ejecutar planes eficientes y efectivos para su proceso de adopción de la nube. La guía y las mejores prácticas proporcionadas por el marco lo ayudan a crear un enfoque integral para la computación en la nube en toda su organización y durante todo el ciclo de vida de TI. </t>
+  </si>
+  <si>
+    <t>Amazon EMR (Elastic MapReduce)</t>
+  </si>
+  <si>
+    <t>AWS Secrets Manager le ayuda a proteger los datos confidenciales necesarios para acceder a sus aplicaciones, servicios y recursos de TI. El servicio le permite alternar, administrar y recuperar fácilmente credenciales de bases de datos, claves de API y otros datos confidenciales durante su ciclo de vida</t>
+  </si>
+  <si>
+    <t>AWS Secrets Manager helps you protect secrets needed to access your applications, services, and IT resources. The service enables you to easily rotate, manage, and retrieve database credentials, API keys, and other secrets throughout their lifecycle</t>
+  </si>
+  <si>
+    <t>Amazon Detective makes it easy to analyze, investigate, and quickly identify the root cause of potential security issues or suspicious activities. Amazon Detective automatically collects log data from your AWS resources and uses machine learning, statistical analysis, and graph theory to build a linked set of data that enables you to easily conduct faster and more efficient security investigations.</t>
+  </si>
+  <si>
+    <t>Amazon Detective facilita el análisis, la investigación y la rápida identificación de la causa raíz de posibles problemas de seguridad o actividades sospechosas. Amazon Detective recopila datos de registro de manera automática a partir de sus recursos de AWS y utiliza el aprendizaje automático, el análisis estadístico y la teoría de gráficos para crear un conjunto de datos vinculados que le permite llevar a cabo fácilmente investigaciones sobre la seguridad más rápidas y eficientes.</t>
+  </si>
+  <si>
+    <t>Los desastres vinculados con la TI, como los errores en los centros de datos, los daños en los servidores o los ataques cibernéticos no solo pueden interrumpir las operaciones comerciales, sino también provocar pérdida de datos, afectar los ingresos y dañar su reputación. CloudEndure Disaster Recovery minimiza el tiempo de inactividad y la pérdida de datos mediante la recuperación rápida y fiable de servidores físicos, virtuales y basados en la nube en AWS</t>
+  </si>
+  <si>
+    <t>IT disasters such as data center failures, server corruptions, or cyber attacks can not only disrupt your business, but also cause data loss, impact your revenue, and damage your reputation. CloudEndure Disaster Recovery minimizes downtime and data loss by providing fast, reliable recovery of physical, virtual, and cloud-based servers into AWS Cloud, including public regions, AWS GovCloud (US), and AWS Outposts</t>
+  </si>
+  <si>
+    <t>AWS Artifact es el recurso central in situ para información relacionada con conformidad importante para usted. Proporciona acceso bajo demanda a los informes de seguridad y conformidad de AWS y acuerdos online seleccionados. Algunos de los informes de AWS Artifact incluyen informes de control de organizaciones de servicios (SOC), informes de la industria de las tarjetas de pago (PCI) y certificaciones de organismos de acreditación de distintas regiones y tipos de conformidad que validan la implementación y eficacia operativa de los controles de seguridad de AWS. Los acuerdos disponibles en AWS Artifact incluyen el Anexo al acuerdo con un socio empresarial (BAA) y el acuerdo de confidencialidad (NDA)</t>
+  </si>
+  <si>
+    <t>AWS Artifact is your go-to, central resource for compliance-related information that matters to you. It provides on-demand access to AWS’ security and compliance reports and select online agreements. Reports available in AWS Artifact include our Service Organization Control (SOC) reports, Payment Card Industry (PCI) reports, and certifications from accreditation bodies across geographies and compliance verticals that validate the implementation and operating effectiveness of AWS security controls. Agreements available in AWS Artifact include the Business Associate Addendum (BAA) and the Nondisclosure Agreement (NDA)</t>
+  </si>
+  <si>
+    <t>Amazon Kinesis facilita la recopilación, el procesamiento y el análisis de datos de streaming en tiempo real para obtener datos de manera oportuna y reaccionar rápidamente ante información nueva. Amazon Kinesis ofrece capacidades clave para procesar de manera rentable datos de streaming a cualquier escala, además de la flexibilidad para elegir las herramientas más adecuadas para los requisitos de su aplicación. Con Amazon Kinesis, puede incorporar datos en tiempo real, como videos, audios, registros de aplicaciones, secuencias de clics de sitios web y datos de telemetría de IoT para aprendizaje automático, análisis y otras aplicaciones. Amazon Kinesis le permite procesar y analizar datos a medida que se reciben y responder instantáneamente en vez de tener que esperar a que los datos se recopilen antes de que el procesamiento pueda comenzar</t>
+  </si>
+  <si>
+    <t>Amazon Kinesis makes it easy to collect, process, and analyze real-time, streaming data so you can get timely insights and react quickly to new information. Amazon Kinesis offers key capabilities to cost-effectively process streaming data at any scale, along with the flexibility to choose the tools that best suit the requirements of your application. With Amazon Kinesis, you can ingest real-time data such as video, audio, application logs, website clickstreams, and IoT telemetry data for machine learning, analytics, and other applications. Amazon Kinesis enables you to process and analyze data as it arrives and respond instantly instead of having to wait until all your data is collected before the processing can begin</t>
+  </si>
+  <si>
+    <t>Amazon Elasticsearch Service es un servicio completamente administrado que facilita la implementación, la protección y la ejecución de Elasticsearch a escala de manera rentable. Puede crear y monitorear las aplicaciones, además de solucionar sus problemas con las herramientas que prefiera, a la escala que necesite.</t>
+  </si>
+  <si>
+    <t>Amazon Elasticsearch Service is a fully managed service that makes it easy for you to deploy, secure, and run Elasticsearch cost effectively at scale. You can build, monitor, and troubleshoot your applications using the tools you love, at the scale you need</t>
+  </si>
+  <si>
+    <t>AWS Glue DataBrew is a new visual data preparation tool that makes it easy for data analysts and data scientists to clean and normalize data to prepare it for analytics and machine learning.</t>
+  </si>
+  <si>
+    <t>AWS Glue DataBrew es una nueva herramienta de preparación de datos visuales que facilita a los analistas de datos y científicos de datos limpiar y normalizar los datos para prepararlos para el análisis y el aprendizaje automático.</t>
+  </si>
+  <si>
+    <t>AWS Glue es un servicio de integración de datos sin servidores que facilita descubrir, preparar y combinar datos para análisis, aprendizaje automático y desarrollo de aplicaciones. AWS Glue proporciona interfaces visuales y basadas en código para facilitar la integración de datos. Los usuarios pueden encontrar datos y acceder a ellos fácilmente con el catálogo de datos de AWS Glue.</t>
+  </si>
+  <si>
+    <t>AWS Glue is a serverless data integration service that makes it easy to discover, prepare, and combine data for analytics, machine learning, and application development. AWS Glue provides both visual and code-based interfaces to make data integration easier. Users can easily find and access data using the AWS Glue Data Catalog</t>
+  </si>
+  <si>
+    <t>Monitoreo</t>
+  </si>
+  <si>
+    <t>Recabe información operativa e implemente acciones en recursos de AWS</t>
+  </si>
+  <si>
+    <t>Acelere el aprovisionamiento en la nube con infrastructure as code</t>
+  </si>
+  <si>
+    <t>Automatice operaciones con Chef y Puppet</t>
+  </si>
+  <si>
+    <t>Automatizacion</t>
+  </si>
+  <si>
+    <t>Cree, organice y controle su catálogo seleccionado de productos de AWS</t>
+  </si>
+  <si>
+    <t>Optimice el rendimiento y la seguridad</t>
+  </si>
+  <si>
+    <t>Vista personalizada del estado del servicio de AWS</t>
+  </si>
+  <si>
+    <t>Administra su infraestructura de AWS por usted</t>
+  </si>
+  <si>
+    <t>Gracias a AWS Single Sign-On (SSO), es muy sencillo administrar de forma centralizada el acceso a múltiples cuentas de AWS y aplicaciones empresariales, además de proporcionar a los usuarios un acceso de inicio de sesión único a todas las aplicaciones y cuentas asignadas desde un mismo lugar. Con AWS SSO, puede administrar de forma centralizada y con facilidad el acceso y los permisos de usuario a todas sus cuentas de AWS Organizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Single Sign-On (SSO) makes it easy to centrally manage access to multiple AWS accounts and business applications and provide users with single sign-on access to all their assigned accounts and applications from one place. With AWS SSO, you can easily manage access and user permissions to all of your accounts in AWS Organizations centrally. </t>
+  </si>
+  <si>
+    <t>Amazon Cognito le permite, de manera rápida y sencilla, incorporar a sus aplicaciones web y móviles funcionalidades, como el control de acceso, la inscripción y el inicio de sesión de los usuarios</t>
+  </si>
+  <si>
+    <t>Amazon Cognito lets you add user sign-up, sign-in, and access control to your web and mobile apps quickly and easily.</t>
+  </si>
+  <si>
+    <t>AWS Resource Access Manager (RAM)</t>
+  </si>
+  <si>
+    <t>AWS Resource Access Manager (RAM) is a service that enables you to easily and securely share AWS resources with any AWS account or within your AWS Organization. You can share AWS Transit Gateways, Subnets, AWS License Manager configurations, and Amazon Route 53 Resolver rules resources with RAM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Resource Access Manager (RAM) es un servicio que le permite compartir recursos de AWS de forma fácil y segura con cualquier cuenta de AWS o dentro de su organización de AWS. Puede compartir AWS Transit Gateways, subredes, configuraciones de AWS License Manager y recursos de reglas de resolución de Amazon Route 53 con RAM. </t>
+  </si>
+  <si>
+    <t>AWS IoT Device Defender es un servicio completamente administrado que le ayuda a proteger su flota de dispositivos IoT. AWS IoT Device Defender audita continuamente sus configuraciones de IoT para garantizar que no se aparten de las prácticas recomendadas de seguridad</t>
+  </si>
+  <si>
+    <t>AWS IoT Device Defender is a fully managed service that helps you secure your fleet of IoT devices. AWS IoT Device Defender continuously audits your IoT configurations to make sure that they aren’t deviating from security best practices.</t>
+  </si>
+  <si>
+    <t>AWS App Mesh is a service mesh that provides application-level networking to make it easy for your services to communicate with each other across multiple types of compute infrastructure. App Mesh gives end-to-end visibility and high-availability for your applications</t>
+  </si>
+  <si>
+    <t>AWS App Mesh es una malla de servicios que proporciona redes de nivel de aplicación para facilitar la comunicación entre sus servicios a través de diversos tipos de infraestructura informática. App Mesh ofrece visibilidad integral y alta disponibilidad para sus aplicaciones.</t>
+  </si>
+  <si>
+    <t>Amazon API Gateway es un servicio completamente administrado que facilita a los desarrolladores la creación, la publicación, el mantenimiento, el monitoreo y la protección de API a cualquier escala. Las API actúan como la "puerta de entrada" para que las aplicaciones accedan a los datos, la lógica empresarial o la funcionalidad de sus servicios de backend</t>
+  </si>
+  <si>
+    <t>mazon API Gateway is a fully managed service that makes it easy for developers to create, publish, maintain, monitor, and secure APIs at any scale. APIs act as the "front door" for applications to access data, business logic, or functionality from your backend services</t>
+  </si>
+  <si>
+    <t>AWS Cloud Map es un servicio de detección de recursos en la nube. Con Cloud Map puede definir nombres personalizados para los recursos de su aplicación, y mantiene la ubicación actualizada de estos recursos que cambian dinámicamente. Esto aumenta la disponibilidad de su aplicación porque su servicio web siempre detecta las últimas ubicaciones de los recursos.</t>
+  </si>
+  <si>
+    <t>AWS Cloud Map is a cloud resource discovery service. With Cloud Map, you can define custom names for your application resources, and it maintains the updated location of these dynamically changing resources. This increases your application availability because your web service always discovers the most up-to-date locations of its resources</t>
+  </si>
+  <si>
+    <t>AWS Security Hub le permite ver de manera integral las alertas de seguridad de alta prioridad y el estado de conformidad en todas las cuentas de AWS.</t>
+  </si>
+  <si>
+    <t>AWS Security Hub gives you a comprehensive view of your security alerts and security posture across your AWS accounts.</t>
+  </si>
+  <si>
+    <t>Amazon GuardDuty es un servicio de detección de amenazas que monitorea continuamente para detectar actividades maliciosas y comportamientos no autorizados con el fin de proteger sus datos, cargas de trabajo y cuentas de AWS almacenados en Amazon S3.</t>
+  </si>
+  <si>
+    <t>Amazon GuardDuty is a threat detection service that continuously monitors for malicious activity and unauthorized behavior to protect your AWS accounts, workloads, and data stored in Amazon S3</t>
+  </si>
+  <si>
+    <t>Amazon Simple Queue Service (SQS) is a fully managed message queuing service that enables you to decouple and scale microservices, distributed systems, and serverless applications.Using SQS, you can send, store, and receive messages between software components at any volume, without losing messages or requiring other services to be available</t>
+  </si>
+  <si>
+    <t>Amazon Simple Queue Service (SQS) es un servicio de colas de mensajes completamente administrado que permite desacoplar y ajustar la escala de microservicios, sistemas distribuidos y aplicaciones sin servidor.Con SQS, puede enviar, almacenar y recibir mensajes entre componentes de software de cualquier volumen, sin pérdida de mensajes ni la necesidad de que otros servicios estén disponibles</t>
+  </si>
+  <si>
+    <t>Amazon MQ es un servicio de agentes de mensajes administrado para Apache ActiveMQ y RabbitMQ que facilita la configuración y la operación de agentes de mensajes en AWS</t>
+  </si>
+  <si>
+    <t>Amazon MQ is a managed message broker service for Apache ActiveMQ and RabbitMQ that makes it easy to set up and operate message brokers on AWS.</t>
+  </si>
+  <si>
+    <t>AWS Step Functions es un organizador de funciones sin servidor que hace fácil secuenciar funciones de AWS Lambda y múltiples servicios de AWS en aplicaciones clave para empresas. A través de su interfaz visual, puede crear y ejecutar una serie de flujos de trabajo verificados y dirigidos por eventos que mantienen el estado de la aplicación. La salida de un paso sirve de entrada al siguiente. Cada paso de su aplicación se ejecuta en orden, como se define en su lógica de negocio.</t>
+  </si>
+  <si>
+    <t>AWS Step Functions is a serverless function orchestrator that makes it easy to sequence AWS Lambda functions and multiple AWS services into business-critical applications. Through its visual interface, you can create and run a series of checkpointed and event-driven workflows that maintain the application state. The output of one step acts as an input to the next. Each step in your application executes in order, as defined by your business logic.</t>
+  </si>
+  <si>
+    <t>Amazon Managed Workflows para Apache Airflow (MWAA) es un servicio de orquestación administrado para Apache Airflow1 que facilita la configuración y operación de canalizaciones de datos de un extremo a otro en la nube a escala. Apache Airflow es una herramienta de código abierto que se utiliza para crear, programar y supervisar de forma programática secuencias de procesos y tareas denominados "flujos de trabajo".</t>
+  </si>
+  <si>
+    <t>Amazon Managed Workflows for Apache Airflow (MWAA) is a managed orchestration service for Apache Airflow1 that makes it easier to set up and operate end-to-end data pipelines in the cloud at scale. Apache Airflow is an open-source tool used to programmatically author, schedule, and monitor sequences of processes and tasks referred to as “workflows.</t>
+  </si>
+  <si>
+    <t>Ver Api Gatehay</t>
+  </si>
+  <si>
+    <t>AWS AppSync es un servicio completamente administrado que facilita el desarrollo de API de GraphQL ya que se encarga de la ardua tarea de conectar de manera segura los orígenes de datos como AWS DynamoDB, Lambda y más</t>
+  </si>
+  <si>
+    <t>AWS AppSync is a fully managed service that makes it easy to develop GraphQL APIs by handling the heavy lifting of securely connecting to data sources like AWS DynamoDB, Lambda, and more</t>
+  </si>
+  <si>
+    <t>Amazon EventBridge es un bus de eventos sin servidor que facilita la conexión de aplicaciones mediante el uso de datos provenientes de aplicaciones propias, aplicaciones integradas de software como servicio (SaaS) y servicios de AWS</t>
+  </si>
+  <si>
+    <t>Amazon EventBridge is a serverless event bus that makes it easy to connect applications together using data from your own applications, integrated Software-as-a-Service (SaaS) applications, and AWS services.</t>
+  </si>
+  <si>
+    <t>Amazon AppFlow es un servicio de integración completamente administrado que permite, con unos pocos clics y de manera segura, transmitir datos entre aplicaciones de software como servicio (SaaS), como Salesforce, Marketo, Slack y ServiceNow, y servicios de AWS, como Amazon S3 y Amazon Redshift.</t>
+  </si>
+  <si>
+    <t>Amazon AppFlow is a fully managed integration service that enables you to securely transfer data between Software-as-a-Service (SaaS) applications like Salesforce, Marketo, Slack, and ServiceNow, and AWS services like Amazon S3 and Amazon Redshift, in just a few clicks</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2118,8 +2293,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2143,15 +2316,54 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2163,17 +2375,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2209,45 +2421,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2376,8 +2549,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2520,8 +2693,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2664,8 +2837,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2808,8 +2981,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5460,17 +5633,17 @@
   <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
+      <selection pane="bottomRight" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="22" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="76.140625" style="1" customWidth="1"/>
@@ -5481,11 +5654,11 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>178</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>179</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -5498,40 +5671,40 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="21" t="s">
-        <v>262</v>
+      <c r="A2" s="25"/>
+      <c r="B2" s="29" t="s">
+        <v>260</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -5544,10 +5717,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -5560,13 +5733,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -5576,12 +5749,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
-        <v>263</v>
+      <c r="A7" s="25"/>
+      <c r="B7" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -5594,10 +5767,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -5610,36 +5783,36 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="20" t="s">
-        <v>270</v>
+      <c r="A11" s="25"/>
+      <c r="B11" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -5652,76 +5825,76 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>285</v>
+      <c r="B17" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -5734,10 +5907,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="20" t="s">
-        <v>302</v>
+      <c r="A18" s="25"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -5750,12 +5923,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>288</v>
+      <c r="A19" s="25"/>
+      <c r="B19" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -5768,12 +5941,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>289</v>
+      <c r="A20" s="25"/>
+      <c r="B20" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -5786,36 +5959,36 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="20" t="s">
-        <v>291</v>
+      <c r="A21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="20" t="s">
-        <v>293</v>
+      <c r="A22" s="25"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>295</v>
+      <c r="A23" s="25"/>
+      <c r="B23" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -5828,77 +6001,77 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="20" t="s">
-        <v>297</v>
+      <c r="A24" s="25"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="20" t="s">
-        <v>299</v>
+      <c r="A25" s="25"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="20" t="s">
-        <v>300</v>
+      <c r="A26" s="25"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C27" s="20"/>
+        <v>299</v>
+      </c>
+      <c r="C27" s="18"/>
       <c r="D27" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>352</v>
+      <c r="B28" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="2" t="s">
         <v>45</v>
       </c>
@@ -5910,56 +6083,56 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>353</v>
+      <c r="A31" s="25"/>
+      <c r="B31" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>356</v>
+      <c r="A33" s="25"/>
+      <c r="B33" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>354</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
@@ -5972,84 +6145,84 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="18" t="s">
         <v>357</v>
       </c>
+      <c r="C34" s="18" t="s">
+        <v>355</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>347</v>
+      <c r="B39" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>54</v>
@@ -6062,33 +6235,33 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="C40" s="20" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>479</v>
-      </c>
     </row>
     <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>348</v>
+      <c r="A41" s="25"/>
+      <c r="B41" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>58</v>
@@ -6098,12 +6271,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>349</v>
+      <c r="A42" s="25"/>
+      <c r="B42" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>347</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>59</v>
@@ -6116,12 +6289,12 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>300</v>
+      <c r="A43" s="25"/>
+      <c r="B43" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>298</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>71</v>
@@ -6134,9 +6307,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="2" t="s">
         <v>63</v>
       </c>
@@ -6148,9 +6321,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="2" t="s">
         <v>65</v>
       </c>
@@ -6160,9 +6333,9 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="2" t="s">
         <v>68</v>
       </c>
@@ -6174,14 +6347,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>223</v>
+      <c r="B47" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>75</v>
@@ -6194,58 +6367,58 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="4" t="s">
+    </row>
+    <row r="50" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>80</v>
@@ -6258,12 +6431,12 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="21" t="s">
-        <v>230</v>
+      <c r="A52" s="32"/>
+      <c r="B52" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>87</v>
@@ -6276,92 +6449,92 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="32"/>
+      <c r="B54" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="21" t="s">
+      <c r="A57" s="32"/>
+      <c r="B57" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="E57" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E57" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="4" t="s">
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+    </row>
+    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>85</v>
@@ -6374,12 +6547,12 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="20" t="s">
-        <v>245</v>
+      <c r="A60" s="32"/>
+      <c r="B60" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>78</v>
@@ -6391,69 +6564,81 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="21" t="s">
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="E61" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="4" t="s">
+      <c r="E62" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="49" t="s">
-        <v>426</v>
+      <c r="B64" s="33" t="s">
+        <v>424</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="F64" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="65" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="50"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
@@ -6466,10 +6651,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="50"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>92</v>
@@ -6482,10 +6667,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="50"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>96</v>
@@ -6498,10 +6683,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="51"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>100</v>
@@ -6514,30 +6699,30 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+      <c r="A70" s="37"/>
       <c r="B70" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>9</v>
@@ -6550,114 +6735,116 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
+      <c r="A71" s="37"/>
       <c r="B71" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="37"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="C72" s="4" t="s">
+    </row>
+    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="37"/>
+      <c r="B74" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="37"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="38"/>
+      <c r="B76" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="E76" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="77" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>546</v>
+      </c>
       <c r="C77" s="4"/>
       <c r="D77" s="2" t="s">
         <v>106</v>
@@ -6670,9 +6857,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>547</v>
+      </c>
       <c r="D78" s="2" t="s">
         <v>108</v>
       </c>
@@ -6684,9 +6873,13 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>112</v>
       </c>
@@ -6698,9 +6891,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="4" t="s">
+        <v>549</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>120</v>
       </c>
@@ -6712,9 +6907,11 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>551</v>
+      </c>
       <c r="D81" s="2" t="s">
         <v>123</v>
       </c>
@@ -6726,9 +6923,11 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="D82" s="2" t="s">
         <v>126</v>
       </c>
@@ -6740,9 +6939,11 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="D83" s="2" t="s">
         <v>129</v>
       </c>
@@ -6754,9 +6955,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>554</v>
+      </c>
       <c r="D84" s="2" t="s">
         <v>133</v>
       </c>
@@ -6768,12 +6971,12 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>144</v>
@@ -6786,208 +6989,208 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F86" s="3" t="s">
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="28"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>343</v>
-      </c>
       <c r="E87" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="32"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="32"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E88" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="E92" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="32"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="32"/>
+      <c r="B95" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="32"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="32"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E90" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F90" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E93" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F93" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C95" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E95" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F95" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E96" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F96" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="53" t="s">
+      <c r="F97" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="32"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="53" t="s">
-        <v>190</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>117</v>
@@ -7000,10 +7203,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="53" t="s">
-        <v>191</v>
+      <c r="A99" s="32"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="21" t="s">
+        <v>190</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>114</v>
@@ -7015,215 +7218,215 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="53" t="s">
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="32"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A101" s="32"/>
+      <c r="B101" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="C101" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A102" s="32"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="32"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E100" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F100" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E103" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="32"/>
+      <c r="B104" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="E104" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A105" s="32"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="32"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="32"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C104" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D104" s="8" t="s">
+      <c r="E108" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
+      <c r="B109" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E108" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F108" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C109" s="53" t="s">
+      <c r="E109" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="32"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D109" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E109" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F109" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="53" t="s">
+      <c r="D110" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A111" s="32"/>
+      <c r="B111" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="C111" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E110" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F110" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C111" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E111" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F111" s="3" t="e">
-        <v>#N/A</v>
+      <c r="E111" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B112" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>304</v>
+      <c r="B112" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>302</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>140</v>
@@ -7236,26 +7439,26 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="20" t="s">
-        <v>305</v>
+      <c r="A113" s="25"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>529</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="53" t="s">
-        <v>306</v>
+      <c r="A114" s="25"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>136</v>
@@ -7267,369 +7470,433 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="53" t="s">
+    <row r="115" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A115" s="25"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="25"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D117" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="53" t="s">
+      <c r="E117" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="25"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D118" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-    </row>
-    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="53" t="s">
+      <c r="E118" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="25"/>
+      <c r="B119" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="C119" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="D118" s="9" t="s">
+      <c r="E119" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="25"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
-      <c r="B119" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="C119" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="B120" s="54"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
-      <c r="B121" s="54"/>
-      <c r="C121" s="54"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
       <c r="D121" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="22"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
       <c r="D122" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="22"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="54"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
       <c r="D123" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="22"/>
-      <c r="B124" s="54" t="s">
-        <v>313</v>
-      </c>
-      <c r="C124" s="54" t="s">
-        <v>284</v>
+      <c r="A124" s="25"/>
+      <c r="B124" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="22"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="54"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
       <c r="D125" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="22"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="54" t="s">
-        <v>314</v>
+      <c r="A126" s="25"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24" t="s">
+        <v>312</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E126" s="9"/>
+        <v>330</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="22"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="54"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
       <c r="D127" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="22"/>
-      <c r="B128" s="54"/>
-      <c r="C128" s="54" t="s">
-        <v>315</v>
+      <c r="A128" s="25"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24" t="s">
+        <v>313</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="22"/>
-      <c r="B129" s="54"/>
-      <c r="C129" s="54"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
       <c r="D129" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="22"/>
-      <c r="B130" s="54"/>
-      <c r="C130" s="53" t="s">
-        <v>316</v>
+      <c r="A130" s="25"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="C131" s="53" t="s">
-        <v>318</v>
+      <c r="A131" s="25"/>
+      <c r="B131" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>316</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="53" t="s">
-        <v>319</v>
+      <c r="A132" s="25"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A134" s="25"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="25"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B133" s="54" t="s">
+      <c r="D135" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A136" s="25"/>
+      <c r="B136" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="22"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-    </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="22"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="22"/>
-      <c r="B136" s="54" t="s">
+      <c r="D136" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A137" s="25"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D136" s="9" t="s">
+      <c r="D137" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="25"/>
+      <c r="B138" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="22"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D137" s="9" t="s">
+      <c r="D138" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="25"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="22"/>
-      <c r="B138" s="54" t="s">
+      <c r="D139" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="25"/>
+      <c r="B140" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-    </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="22"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D139" s="9" t="s">
+      <c r="D140" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="22"/>
-      <c r="B140" s="53" t="s">
+      <c r="E140" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="25"/>
+      <c r="B141" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="53" t="s">
-        <v>520</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
+      <c r="E141" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="B142" s="53"/>
-      <c r="C142" s="53" t="s">
+      <c r="D142" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>530</v>
-      </c>
       <c r="F142" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A133:A141"/>
-    <mergeCell ref="E57:E58"/>
+  <mergeCells count="49">
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A47:A63"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B61:B63"/>
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="C128:C129"/>
     <mergeCell ref="B124:B130"/>
@@ -7646,33 +7913,18 @@
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="B104:B108"/>
     <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="E57:E58"/>
     <mergeCell ref="A88:A111"/>
     <mergeCell ref="A77:A84"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A63"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B61:B63"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="A64:A76"/>
     <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B79:B80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -7713,7 +7965,7 @@
     <hyperlink ref="D83" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
     <hyperlink ref="D112" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
     <hyperlink ref="D85" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="D113" r:id="rId39" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D113" r:id="rId39" display="Amazon EMR" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
     <hyperlink ref="D114" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
     <hyperlink ref="D89" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
     <hyperlink ref="D91" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
@@ -7747,10 +7999,37 @@
     <hyperlink ref="D133" r:id="rId65" display="https://aws.amazon.com/sns/" xr:uid="{6AF41E67-CD24-41E2-B9CA-430BFC5C475E}"/>
     <hyperlink ref="D117" r:id="rId66" xr:uid="{58316A02-A9FE-47EF-933C-598BF797D617}"/>
     <hyperlink ref="D142" r:id="rId67" display="https://aws.amazon.com/professional-services/CAF/" xr:uid="{5C52581F-6C72-4E0D-838D-B84D148EA140}"/>
+    <hyperlink ref="E126" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{20773060-4A21-42C3-A16C-013AA8DBD607}"/>
+    <hyperlink ref="D108" r:id="rId68" xr:uid="{D330D226-AAF3-45C5-8AC1-C8D6CABD70BC}"/>
+    <hyperlink ref="D109" r:id="rId69" xr:uid="{E2FBADDE-7F21-452B-AB2F-6C594653F683}"/>
+    <hyperlink ref="D110" r:id="rId70" xr:uid="{6E3DF75E-E92D-4A6C-9E69-8463809A6455}"/>
+    <hyperlink ref="D111" r:id="rId71" xr:uid="{B607C4F7-C4C0-4A3B-A78F-9FFC586648D8}"/>
+    <hyperlink ref="D115" r:id="rId72" xr:uid="{35EA7AC3-83F4-495E-8C64-D99FCFDBD303}"/>
+    <hyperlink ref="D116" r:id="rId73" xr:uid="{E87ADCD0-FA16-4BCF-B7DA-5514BFD480E6}"/>
+    <hyperlink ref="D118" r:id="rId74" xr:uid="{B7BFA75D-88D3-4318-8521-E0DBE2B0095D}"/>
+    <hyperlink ref="D119" r:id="rId75" xr:uid="{1B4B6748-45D5-4647-AB2F-7C056E4D24F6}"/>
+    <hyperlink ref="D88" r:id="rId76" xr:uid="{D9F94259-119C-47E6-9A7A-C42A9110CAD0}"/>
+    <hyperlink ref="D90" r:id="rId77" xr:uid="{AB46BDED-F7AE-45AB-B804-F116170B81C1}"/>
+    <hyperlink ref="D93" r:id="rId78" xr:uid="{5EA0D2CF-98C6-48A8-A584-81506D3327DD}"/>
+    <hyperlink ref="D100" r:id="rId79" xr:uid="{42F97031-3424-45CA-AE0D-C5EF35EA8107}"/>
+    <hyperlink ref="D61" r:id="rId80" xr:uid="{B6341584-622A-4ACC-9049-009707CB9A24}"/>
+    <hyperlink ref="D62" r:id="rId81" xr:uid="{AB542A94-42C6-4813-BEDC-38C5AAE0CAEF}"/>
+    <hyperlink ref="D63" r:id="rId82" xr:uid="{1B0AA61A-1F92-4D00-A418-EC59DFD62505}"/>
+    <hyperlink ref="D95" r:id="rId83" xr:uid="{D285F8CC-896D-4DE4-8986-FA132D610121}"/>
+    <hyperlink ref="D96" r:id="rId84" xr:uid="{6F010FBC-6559-46E8-B008-2689A3CC24E7}"/>
+    <hyperlink ref="D135" r:id="rId85" xr:uid="{2FDBB128-7B97-498F-91A7-3AA0D51A6477}"/>
+    <hyperlink ref="D134" r:id="rId86" xr:uid="{F2C0C066-7EF5-46B8-9AD6-718FAD36A112}"/>
+    <hyperlink ref="D136" r:id="rId87" xr:uid="{402C53D2-F2D2-444B-858A-2C33456854A3}"/>
+    <hyperlink ref="D137" r:id="rId88" xr:uid="{519C3DC5-04F8-485B-A8BE-4D37241E9037}"/>
+    <hyperlink ref="E138" location="Amazon_API_Gateway" display="Ver Api Gatehay" xr:uid="{202B654D-44C2-4042-A7D2-060620DE4C05}"/>
+    <hyperlink ref="D138" location="Amazon_API_Gateway" display="Amazon API Gateway" xr:uid="{C380069F-29C5-4353-8A5D-C2CC8993FCBB}"/>
+    <hyperlink ref="D139" r:id="rId89" xr:uid="{6003225A-CFB1-4BB4-A5AC-F392642FBC69}"/>
+    <hyperlink ref="D140" r:id="rId90" xr:uid="{01E0E593-F530-40AE-A249-8E868F9867AC}"/>
+    <hyperlink ref="D141" r:id="rId91" xr:uid="{BEC2F28F-372E-4EA7-B05C-3919664D327B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId68"/>
-  <drawing r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId92"/>
+  <drawing r:id="rId93"/>
 </worksheet>
 </file>
 
@@ -7770,304 +8049,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="13" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="37" t="s">
-        <v>394</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="13" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="82" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B82" s="18"/>
+      <c r="B82" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8103,7 +8382,7 @@
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="87.28515625" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8118,34 +8397,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>462</v>
+      <c r="A2" s="45" t="s">
+        <v>460</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>467</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>471</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA9175D-4962-42A0-96CF-E675ECF4372B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDC2C04-3FB7-4619-BE74-D79ABDDE3F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,10 @@
     <definedName name="Amazon_Redshift">Servicios!$D$114</definedName>
     <definedName name="Amazon_S3">Servicios!$D$17</definedName>
     <definedName name="AWS_FamiliaSnow">Servicios!$D$43:$D$46</definedName>
+    <definedName name="AWS_Firewall_Manager">Servicios!$D$103</definedName>
     <definedName name="AWS_Shield">Servicios!$D$101</definedName>
+    <definedName name="AWS_Web_Application_Firewall__WAF">Servicios!$D$102</definedName>
+    <definedName name="Familia_Snow">Servicios!$C$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="625">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -204,28 +207,16 @@
     <t>Amazon ElastiCache allows you to seamlessly set up, run, and scale popular open-source compatible in-memory data stores in the cloud. Build data-intensive apps or boost the performance of your existing databases by retrieving data from high throughput and low latency in-memory data stores</t>
   </si>
   <si>
-    <t>Amazon ElastiCache es un servicio web que facilita la tarea de implementar, operar y escalar una caché en memoria en la nube. Este servicio mejora el desempeño de las aplicaciones web al permitirle recuperar
-información de cachés en memoria rápidas y administradas en lugar de emplear únicamente bases de datos basadas en disco, que suelen ser más lentas. Amazon ElastiCache admite dos motores de caché en memoria de código abierto: Redis,Memcached</t>
-  </si>
-  <si>
     <t>Migracion</t>
   </si>
   <si>
     <t>AWS Application Discovery Service</t>
   </si>
   <si>
-    <t>AWS Application Discovery Service ayuda a los integradores de sistemas a planificar de forma rápida y fiable los proyectos de migración de aplicaciones identificando automáticamente las aplicaciones que se ejecutan en los centros de datos en las instalaciones, las dependencias que tienen asociadas y sus perfiles de
-desempeño</t>
-  </si>
-  <si>
     <t>AWS Application Discovery Service helps enterprise customers plan migration projects by gathering information about their on-premises data centers.</t>
   </si>
   <si>
     <t>AWS Database Migration Service helps you migrate databases to AWS quickly and securely. The source database remains fully operational during the migration, minimizing downtime to applications that rely on the database. The AWS Database Migration Service can migrate your data to and from most widely used commercial and open-source databases</t>
-  </si>
-  <si>
-    <t>AWS Database Migration Service lo ayuda a migrar bases de datos a AWS de manera fácil y segura. La base de datos de origen sigue totalmente operativa durante la migración, con lo que se minimiza el tiempo de inactividad de las aplicaciones que dependen de ella.AWS Database Migration Service puede
-migrar datos a y desde las bases de datos de código abierto y comerciales más conocidas</t>
   </si>
   <si>
     <t>AWS Server Migration Service (SMS)</t>
@@ -300,10 +291,6 @@
     <t>Amazon Route 53 is a highly available and scalable cloud Domain Name System (DNS) web service. It is designed to give developers and businesses an extremely reliable and cost effective way to route end users to Internet applications by translating names like www.example.com into the numeric IP addresses like 192.0.2.1 that computers use to connect to each other. Amazon Route 53 is fully compliant with IPv6 as well</t>
   </si>
   <si>
-    <t>Amazon Route 53 es un servicio web de sistema de nombres de dominio (DNS) con una alta disponibilidad y escalabilidad.Se ha diseñado para ofrecer a los desarrolladores y las empresas una forma extremadamente fiable y rentable de dirigir a los usuarios finales a las aplicaciones de Internet convirtiendo nombres legibles para las personas, como www.ejemplo.com, en direcciones IP numéricas, como 192.0.2.1, que utilizan los
-equipos para conectarse entre ellos.</t>
-  </si>
-  <si>
     <t>AWS Direct Connect le facilita la tarea de establecer una conexión de red específica de sus instalaciones a AWS. Con AWS Direct Connect podrá establecer una conectividad privada entre AWS y su centro de datos, oficina o entorno de coubicación, lo cual, en muchos casos, contribuye a reducir los costos de redes, aumenta el rendimiento del ancho de banda y proporciona una experiencia de red más estable que con las
 conexiones basadas en Internet</t>
   </si>
@@ -352,10 +339,6 @@
   </si>
   <si>
     <t>AWS CodeDeploy is a fully managed deployment service that automates software deployments to a variety of compute services such as Amazon EC2, AWS Fargate, AWS Lambda, and your on-premises servers</t>
-  </si>
-  <si>
-    <t>AWS CodePipeline es un servicio de entrega e integración continuas para una actualización rápida y de confianza de las aplicaciones y la infraestructura. CodePipeline crea, prueba e implementa su código cada vez que se produce un cambio en este, y se basa en los modelos de procesamiento de la versión que usted
-defina</t>
   </si>
   <si>
     <t>AWS CodePipeline</t>
@@ -829,9 +812,6 @@
     <t>AWS Cloud Map</t>
   </si>
   <si>
-    <t>Ver Definicion en Seguridad</t>
-  </si>
-  <si>
     <t>Capacidad informática (servidores virtuales) en la nube, segura y de tamaño modificable</t>
   </si>
   <si>
@@ -850,9 +830,6 @@
     <t>Procesamiento por lotes completamente administrado a cualquier escala</t>
   </si>
   <si>
-    <t>WS-Batch_Icon_32_Squid AWS Batch</t>
-  </si>
-  <si>
     <t>Instancias (máquinas virtuales)</t>
   </si>
   <si>
@@ -899,9 +876,6 @@
   </si>
   <si>
     <t>Entregue aplicaciones con una latencia extremadamente baja para los dispositivos 5G</t>
-  </si>
-  <si>
-    <t>WS-Wavelength_Icon_32_Squid AWS Wavelength</t>
   </si>
   <si>
     <t>El servicio preferido para todas las cargas de trabajo de vSphere para extender y migrar rápidamente a la nube.</t>
@@ -2066,6 +2040,138 @@
   </si>
   <si>
     <t>Amazon AppFlow is a fully managed integration service that enables you to securely transfer data between Software-as-a-Service (SaaS) applications like Salesforce, Marketo, Slack, and ServiceNow, and AWS services like Amazon S3 and Amazon Redshift, in just a few clicks</t>
+  </si>
+  <si>
+    <t>Las instancias de spot de Amazon EC2 le permiten aprovechar la capacidad de EC2 sin usar en la nube de AWS.También tiene la opción de hibernar, detener o finalizar sus instancias de spot cuando EC2 reclama recuperar la capacidad con dos minutos de aviso</t>
+  </si>
+  <si>
+    <t>Amazon EC2 Spot Instances let you take advantage of unused EC2 capacity in the AWS cloud.pot Instances can offer the scale and cost savings to run hyper-scale workloads. You also have the option to hibernate, stop or terminate your Spot Instances when EC2 reclaims the capacity back with two-minutes of notice</t>
+  </si>
+  <si>
+    <t>AWS-Batch_Icon_32_Squid AWS Batch</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Kubernetes Service (Amazon EKS) le brinda la flexibilidad de iniciar, ejecutar y escalar aplicaciones de Kubernetes en la nube de AWS o a nivel local. Amazon EKS le ayuda a proporcionar clústeres seguros y de alta disponibilidad y a automatizar tareas clave como los parches, el aprovisionamiento de nodos y las actualizaciones.</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Kubernetes Service (Amazon EKS) gives you the flexibility to start, run, and scale Kubernetes applications in the AWS cloud or on-premises. Amazon EKS helps you provide highly-available and secure clusters and automates key tasks such as patching, node provisioning, and updates</t>
+  </si>
+  <si>
+    <t>AWS Fargate es un motor informático sin servidor que funciona tanto con Amazon Elastic Container Service (ECS) como con Amazon Elastic Kubernetes Service (EKS). Fargate le permite centrarse en la creación de sus aplicaciones. Fargate elimina la necesidad de aprovisionar y administrar servidores, le permite especificar y pagar recursos por aplicación y mejora la seguridad mediante el aislamiento de aplicaciones por diseño</t>
+  </si>
+  <si>
+    <t>AWS Fargate is a serverless compute engine for containers that works with both Amazon Elastic Container Service (ECS) and Amazon Elastic Kubernetes Service (EKS). Fargate makes it easy for you to focus on building your applications. Fargate removes the need to provision and manage servers, lets you specify and pay for resources per application, and improves security through application isolation by design</t>
+  </si>
+  <si>
+    <t>Ver Familia Snow</t>
+  </si>
+  <si>
+    <t>AWS-Wavelength_Icon_32_Squid AWS Wavelength</t>
+  </si>
+  <si>
+    <t>AWS Wavelength es una infraestructura de AWS que ofrece optimización para aplicaciones móviles de informática en el borde.Las zonas de Wavelength son implementaciones de infraestructura de AWS que integran servicios de cómputo y almacenamiento de AWS en los centros de datos de los proveedores de servicios de comunicaciones (CSP) en el borde de la red 5G, de modo que el tráfico de los dispositivos 5G pueda llegar a los servidores de aplicaciones que se ejecutan en las zonas de Wavelength sin salir de la red de telecomunicaciones</t>
+  </si>
+  <si>
+    <t>AWS Wavelength is an AWS Infrastructure offering optimized for mobile edge computing applications. Wavelength Zones are AWS infrastructure deployments that embed AWS compute and storage services within communications service providers’ (CSP) datacenters at the edge of the 5G network, so application traffic from 5G devices can reach application servers running in Wavelength Zones without leaving the telecommunications network</t>
+  </si>
+  <si>
+    <t>AWS es el socio de nube pública preferido de VMware para todas las cargas de trabajo basadas en vSphere (plataforma de virtualización de recursos informáticos)</t>
+  </si>
+  <si>
+    <t>AWS is VMware's preferred public cloud partner for all vSphere-based workloads</t>
+  </si>
+  <si>
+    <t>Las AWS Local Zones (zonas locales) son un tipo de implementación de infraestructura de AWS que acercan los servicios de informática, almacenamiento, bases de datos y otros servicios seleccionados a los centros poblacionales, industriales y de TI.Las AWS Local Zones son una extensión de una región de AWS en donde puede ejecutar sus aplicaciones sensibles a la latencia en las proximidades geográficas de sus usuarios finales</t>
+  </si>
+  <si>
+    <t>AWS Local Zones are a type of AWS infrastructure deployment that places AWS compute, storage, database, and other select services close to large population, industry, and IT centers.AWS Local Zones are an extension of an AWS Region where you can run your latency-sensitive applications using AWS services in geographic proximity to end-users</t>
+  </si>
+  <si>
+    <t>Amazon FSx for Lustre es un servicio completamente administrado que ofrece almacenamiento rentable, escalable y de alto rendimiento para cargas de trabajo informáticas. FSx for Lustre, que ofrece latencias inferiores a milisegundos, hasta cientos de gigabytes por segundo de rendimiento y millones de IOPS</t>
+  </si>
+  <si>
+    <t>Amazon FSx for Lustre is a fully managed service that provides cost-effective, high-performance, scalable storage for compute workloads.FSx for Lustre offers sub-millisecond latencies, up to hundreds of gigabytes per second of throughput, and millions of IOPS</t>
+  </si>
+  <si>
+    <t>Amazon FSx for Windows File Server ofrece almacenamiento de archivos completamente administrado, de alta confiabilidad y almacenamiento de archivo escalable al que se puede acceder a través del protocolo Server Message Block (SMB) estándar del sector.Está creado en Windows Server y ofrece una gran variedad de funciones administrativas, como cuotas de usuario, restauración de archivos de usuario final e integración con Microsoft Active Directory (AD)</t>
+  </si>
+  <si>
+    <t>Amazon FSx for Windows File Server provides fully managed, highly reliable, and scalable file storage that is accessible over the industry-standard Server Message Block (SMB) protocol. It is built on Windows Server, delivering a wide range of administrative features such as user quotas, end-user file restore, and Microsoft Active Directory (AD) integration</t>
+  </si>
+  <si>
+    <t>AWS DataSync es un servicio de transferencia de datos en línea que simplifica, automatiza y acelera la transferencia de datos entre sistemas de almacenamiento en las instalaciones y servicios de almacenamiento de AWS, así como entre estos últimos</t>
+  </si>
+  <si>
+    <t>AWS DataSync is an online data transfer service that simplifies, automates, and accelerates moving data between on-premises storage systems and AWS Storage services, as well as between AWS Storage services</t>
+  </si>
+  <si>
+    <t>AWS Transfer Family ofrece soporte completamente administrado para transferencias de archivos directamente desde y hacia Amazon S3 o Amazon EFS. AWS Transfer Family es compatible con el protocolo seguro de transferencia de archivos (SFTP), el protocolo de transferencia de archivos a través de SSL (FTPS) y el protocolo de transferencia de archivos (FTP)</t>
+  </si>
+  <si>
+    <t>The AWS Transfer Family provides fully managed support for file transfers directly into and out of Amazon S3 or Amazon EFS. With support for Secure File Transfer Protocol (SFTP), File Transfer Protocol over SSL (FTPS), and File Transfer Protocol (FTP)</t>
+  </si>
+  <si>
+    <t>Amazon ElastiCache es un servicio web que facilita la tarea de implementar, operar y escalar una caché en memoria en la nube. Este servicio mejora el desempeño de las aplicaciones web al permitirle recuperar información de cachés en memoria rápidas y administradas en lugar de emplear únicamente bases de datos basadas en disco, que suelen ser más lentas. Amazon ElastiCache admite dos motores de caché en memoria de código abierto: Redis,Memcached</t>
+  </si>
+  <si>
+    <t>Amazon DocumentDB (compatible con MongoDB) es un servicio de base de datos de documentos ágil, escalable, de alta disponibilidad y completamente administrado que admite cargas de trabajo de MongoDB. Gracias a que es una base de datos de documentos, Amazon DocumentDB hace que almacenar, consultar e indexar datos JSON sea fácil</t>
+  </si>
+  <si>
+    <t>Amazon DocumentDB (with MongoDB compatibility) is a fast, scalable, highly available, and fully managed document database service that supports MongoDB workloads. As a document database, Amazon DocumentDB makes it easy to store, query, and index JSON data</t>
+  </si>
+  <si>
+    <t>Amazon Keyspaces (para Apache Cassandra) es un servicio de bases de datos compatible con Apache Cassandra administrado, de alta disponibilidad y escala ajustable. Con Amazon Keyspaces, puede ejecutar las cargas de trabajo de Cassandra en AWS con las mismas herramientas para desarrolladores y el mismo código de aplicación de Cassandra que utiliza en la actualidad</t>
+  </si>
+  <si>
+    <t>Amazon Keyspaces (for Apache Cassandra) is a scalable, highly available, and managed Apache Cassandra–compatible database service. With Amazon Keyspaces, you can run your Cassandra workloads on AWS using the same Cassandra application code and developer tools that you use today</t>
+  </si>
+  <si>
+    <t>Amazon Neptune es un servicio de base de datos de gráficos rápido, de confianza y completamente administrado que permite crear y ejecutar fácilmente aplicaciones que funcionan con conjuntos de datos altamente conectados</t>
+  </si>
+  <si>
+    <t>Amazon Neptune is a fast, reliable, fully managed graph database service that makes it easy to build and run applications that work with highly connected datasets</t>
+  </si>
+  <si>
+    <t>Amazon Timestream es un servicio de bases de datos de series temporales rápidas, escalables y sin servidor para aplicaciones operativas y de IoT que facilita el almacenamiento y el análisis de billones de eventos por día hasta 1000 veces más rápido y por tan solo una décima parte del costo de las bases de datos relacionales.</t>
+  </si>
+  <si>
+    <t>Amazon Timestream is a fast, scalable, and serverless time series database service for IoT and operational applications that makes it easy to store and analyze trillions of events per day up to 1,000 times faster and at as little as 1/10th the cost of relational databases.</t>
+  </si>
+  <si>
+    <t>Amazon QLDB es una base de datos de contabilidad completamente administrada en la que se proporciona un registro de transacciones transparente, inmutable y que se puede verificar mediante criptografía, cuya propiedad denota una autoridad central de confianza. Amazon QLDB puede utilizarse para registrar cada uno de los cambios que se producen en los datos de las aplicaciones y mantener un historial completo y verificable.</t>
+  </si>
+  <si>
+    <t>Amazon QLDB is a fully managed ledger database that provides a transparent, immutable, and cryptographically verifiable transaction log ‎owned by a central trusted authority. Amazon QLDB can be used to track each and every application data change and maintains a complete and verifiable history of changes over time.</t>
+  </si>
+  <si>
+    <t>AWS Application Discovery Service ayuda a los integradores de sistemas a planificar de forma rápida y fiable los proyectos de migración de aplicaciones identificando automáticamente las aplicaciones que se ejecutan en los centros de datos en las instalaciones, las dependencias que tienen asociadas y sus perfiles de desempeño</t>
+  </si>
+  <si>
+    <t>AWS Database Migration Service lo ayuda a migrar bases de datos a AWS de manera fácil y segura. La base de datos de origen sigue totalmente operativa durante la migración, con lo que se minimiza el tiempo de inactividad de las aplicaciones que dependen de ella.AWS Database Migration Service puede migrar datos a y desde las bases de datos de código abierto y comerciales más conocidas</t>
+  </si>
+  <si>
+    <t>With an AWS Snowball Edge device, you can access the storage and compute power of the AWS Cloud locally and cost effectively in places where connecting to the internet might not be an option. You can also transfer hundreds of terabytes or petabytes of data between your on-premises data centers and Amazon Simple Storage Service (Amazon S3)</t>
+  </si>
+  <si>
+    <t>Amazon Route 53 es un servicio web de sistema de nombres de dominio (DNS) con una alta disponibilidad y escalabilidad.Se ha diseñado para ofrecer a los desarrolladores y las empresas una forma extremadamente fiable y rentable de dirigir a los usuarios finales a las aplicaciones de Internet convirtiendo nombres legibles para las personas, como www.ejemplo.com, en direcciones IP numéricas, como 192.0.2.1, que utilizan los equipos para conectarse entre ellos.</t>
+  </si>
+  <si>
+    <t>AWS Global Accelerator es un servicio de redes que envía el tráfico del usuario a través de la infraestructura de red de Amazon Web Services, lo que mejora hasta en un 60 % el rendimiento del usuario de Internet. Cuando Internet se congestiona, las mejoras de enrutamiento automático de Global Accelerator lo ayudarán a mantener un nivel bajo de pérdida de datos, fluctuación y latencia</t>
+  </si>
+  <si>
+    <t>AWS Global Accelerator is a networking service that sends your user’s traffic through Amazon Web Service’s global network infrastructure, improving your internet user performance by up to 60%. When the internet is congested, Global Accelerator’s automatic routing optimizations will help keep your packet loss, jitter, and latency consistently low</t>
+  </si>
+  <si>
+    <t>Ver WAF</t>
+  </si>
+  <si>
+    <t>Ver Shield</t>
+  </si>
+  <si>
+    <t>Ver Firewall Manager</t>
+  </si>
+  <si>
+    <t>AWS CodePipeline es un servicio de entrega e integración continuas para una actualización rápida y de confianza de las aplicaciones y la infraestructura. CodePipeline crea, prueba e implementa su código cada vez que se produce un cambio en este, y se basa en los modelos de procesamiento de la versión que usted defina</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2331,10 +2437,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2343,19 +2464,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2374,18 +2492,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2422,6 +2528,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5633,10 +5745,10 @@
   <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D132" sqref="D132"/>
+      <selection pane="bottomRight" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5644,9 +5756,8 @@
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="65.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -5655,10 +5766,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -5670,41 +5781,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
-      <c r="B2" s="29" t="s">
-        <v>260</v>
+      <c r="B2" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -5718,9 +5833,9 @@
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -5732,14 +5847,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>583</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -5748,13 +5863,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="29" t="s">
-        <v>261</v>
+      <c r="B7" s="24" t="s">
+        <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -5768,9 +5883,9 @@
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -5782,37 +5897,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -5826,77 +5949,91 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="B12" s="29" t="s">
-        <v>270</v>
+      <c r="B12" s="24" t="s">
+        <v>263</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>588</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>589</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>282</v>
+      <c r="B17" s="28" t="s">
+        <v>274</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -5908,9 +6045,9 @@
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="18" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -5925,10 +6062,10 @@
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="19" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -5942,11 +6079,11 @@
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
-      <c r="B20" s="39" t="s">
-        <v>284</v>
+      <c r="B20" s="28" t="s">
+        <v>276</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -5958,37 +6095,45 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
-      <c r="B21" s="39"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="40" t="s">
-        <v>292</v>
+      <c r="B23" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -6000,79 +6145,91 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="18" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="18" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>267</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>588</v>
+      </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="4" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>267</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>588</v>
+      </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>350</v>
+      <c r="B28" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>342</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="2" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -6084,645 +6241,675 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
-      <c r="B31" s="41" t="s">
-        <v>352</v>
+      <c r="B31" s="26" t="s">
+        <v>344</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="42"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="18" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>52</v>
+        <v>604</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="18" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="18" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="18" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="18" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="18" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="18" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="18" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>58</v>
+        <v>616</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="18" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
-      <c r="B43" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>298</v>
+      <c r="B43" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>290</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="29" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="E49" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+    </row>
+    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="B60" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52" s="2" t="s">
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" s="3" t="s">
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-    </row>
-    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+      <c r="E66" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="F66" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="3" t="s">
+    </row>
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E68" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="3" t="s">
+    </row>
+    <row r="69" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>9</v>
@@ -6734,1169 +6921,1160 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
       <c r="B71" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="33" t="s">
+    <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="B76" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>104</v>
+    <row r="77" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A78" s="30"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A79" s="30"/>
+      <c r="B79" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="38"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
-        <v>142</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="34"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="30"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="30" t="s">
+    </row>
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="30"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="30"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="30"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="30"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="30"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="D94" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="30"/>
+      <c r="B95" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="C95" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="30"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="30"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="30"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="30"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="30"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A101" s="30"/>
+      <c r="B101" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A102" s="30"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="E102" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="30"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
+      <c r="B104" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A105" s="30"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="30"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="30"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" s="8" t="s">
+    </row>
+    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="30"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D100" s="8" t="s">
+      <c r="E108" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A109" s="30"/>
+      <c r="B109" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
-      <c r="B101" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
-      <c r="B104" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="21" t="s">
+      <c r="E109" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A110" s="30"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="3" t="s">
+      <c r="D110" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A111" s="30"/>
+      <c r="B111" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="21" t="s">
+      <c r="C111" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C109" s="21" t="s">
+      <c r="D111" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="E111" s="3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>318</v>
+        <v>133</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>310</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
-      <c r="B113" s="29"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="18" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="21" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
-      <c r="B115" s="29"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="21" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
-      <c r="B116" s="29"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="21" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
-      <c r="B117" s="29"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="21" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
-      <c r="B118" s="29"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="21" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
-      <c r="B119" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>310</v>
+      <c r="B119" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
       <c r="D120" s="9" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
       <c r="D121" s="9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
       <c r="D122" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
       <c r="D123" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
-      <c r="B124" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="C124" s="24" t="s">
-        <v>282</v>
+      <c r="B124" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>274</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
       <c r="D125" s="9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24" t="s">
-        <v>312</v>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33" t="s">
+        <v>304</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
       <c r="D127" s="9" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24" t="s">
-        <v>313</v>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33" t="s">
+        <v>305</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
       <c r="D129" s="9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
-      <c r="B130" s="24"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="21" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
-      <c r="B131" s="24" t="s">
-        <v>315</v>
+      <c r="B131" s="33" t="s">
+        <v>307</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
-      <c r="B132" s="24"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="21" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="B133" s="24" t="s">
-        <v>503</v>
+        <v>490</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>495</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
-      <c r="B134" s="24"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="4" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
-      <c r="B135" s="24"/>
+      <c r="B135" s="33"/>
       <c r="C135" s="4" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
-      <c r="B136" s="24" t="s">
-        <v>504</v>
+      <c r="B136" s="33" t="s">
+        <v>496</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
-      <c r="B137" s="24"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="4" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
-      <c r="B138" s="24" t="s">
-        <v>511</v>
+      <c r="B138" s="33" t="s">
+        <v>503</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F138" s="9"/>
     </row>
     <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
-      <c r="B139" s="24"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="4" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="21" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="21" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B142" s="21"/>
       <c r="C142" s="21" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A63"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A88:A111"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A64:A76"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="C128:C129"/>
     <mergeCell ref="B124:B130"/>
@@ -7913,18 +8091,27 @@
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="B104:B108"/>
     <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A133:A141"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A88:A111"/>
-    <mergeCell ref="A77:A84"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A64:A76"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A47:A63"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A39:A46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -7980,7 +8167,7 @@
     <hyperlink ref="D98" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
     <hyperlink ref="D99" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
     <hyperlink ref="E54" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
-    <hyperlink ref="D6" r:id="rId53" xr:uid="{2804486C-FEC1-42AC-AB75-F7030E15D0F4}"/>
+    <hyperlink ref="D6" r:id="rId53" display="WS-Batch_Icon_32_Squid AWS Batch" xr:uid="{2804486C-FEC1-42AC-AB75-F7030E15D0F4}"/>
     <hyperlink ref="D86" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
     <hyperlink ref="D87" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
     <hyperlink ref="D26" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{4746361F-EC10-4BFB-A46D-4B92FDB9897D}"/>
@@ -8026,10 +8213,33 @@
     <hyperlink ref="D139" r:id="rId89" xr:uid="{6003225A-CFB1-4BB4-A5AC-F392642FBC69}"/>
     <hyperlink ref="D140" r:id="rId90" xr:uid="{01E0E593-F530-40AE-A249-8E868F9867AC}"/>
     <hyperlink ref="D141" r:id="rId91" xr:uid="{BEC2F28F-372E-4EA7-B05C-3919664D327B}"/>
+    <hyperlink ref="D3" r:id="rId92" xr:uid="{B90708B7-5E8F-4B91-A87F-E8B39E3BEC2D}"/>
+    <hyperlink ref="D9" r:id="rId93" xr:uid="{43D9EB62-60EB-4111-9907-DCC1D026576D}"/>
+    <hyperlink ref="D10" r:id="rId94" xr:uid="{7E8C0DC5-E89A-476C-9ACF-85AC2E886C8C}"/>
+    <hyperlink ref="E13" location="AWS_FamiliaSnow" display="Ver Familia Snow" xr:uid="{43EC3A39-72B3-4C80-8FDE-2FF2D311A737}"/>
+    <hyperlink ref="D13" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{CF1FE555-8419-4F17-AE14-2F6C48D26CBB}"/>
+    <hyperlink ref="D14" r:id="rId95" xr:uid="{6D05B21B-C114-4B1B-9147-C6002E639D1A}"/>
+    <hyperlink ref="D15" r:id="rId96" xr:uid="{E408B8AF-974C-43CC-9FB9-866BBFEF353D}"/>
+    <hyperlink ref="D16" r:id="rId97" xr:uid="{D070ACAB-8261-43D3-A28B-AE6ABAA365CA}"/>
+    <hyperlink ref="D22" r:id="rId98" xr:uid="{1E29FF59-0A36-46C7-8C4B-C38DE84BD65B}"/>
+    <hyperlink ref="D21" r:id="rId99" xr:uid="{DE6C6B3C-6505-4CA2-AB01-B67674B122D6}"/>
+    <hyperlink ref="D24" r:id="rId100" xr:uid="{1D1DBC8F-418E-494E-8B49-337549B81884}"/>
+    <hyperlink ref="E26" location="AWS_FamiliaSnow" display="Ver Familia Snow" xr:uid="{AB1925C1-5365-453F-8319-90E9FBC2661C}"/>
+    <hyperlink ref="E27" location="AWS_FamiliaSnow" display="Ver Familia Snow" xr:uid="{5C2856E0-800C-4209-8136-8052229DB46E}"/>
+    <hyperlink ref="D34" r:id="rId101" xr:uid="{D1720B3B-26A5-42B5-A0FD-E59FB543168B}"/>
+    <hyperlink ref="D35" r:id="rId102" xr:uid="{B9179643-D164-4E61-A442-7B000203F438}"/>
+    <hyperlink ref="D36" r:id="rId103" xr:uid="{5144917E-2E22-4512-9D00-2A0F103DC769}"/>
+    <hyperlink ref="D37" r:id="rId104" xr:uid="{BA2291C6-B10E-4263-99F9-9935F39C645B}"/>
+    <hyperlink ref="D38" r:id="rId105" xr:uid="{B031E878-4553-40F4-B879-D946F5B068CB}"/>
+    <hyperlink ref="D53" r:id="rId106" xr:uid="{CBEE08DE-64A9-4BF2-90F9-4E1577D37325}"/>
+    <hyperlink ref="E55" location="AWS_Web_Application_Firewall__WAF" display="Ver WAF" xr:uid="{2E2B85F0-CA0E-450F-8558-979889655075}"/>
+    <hyperlink ref="D55" location="AWS_Web_Application_Firewall__WAF" display="AWS WAF" xr:uid="{A0D82989-09F3-491F-8D12-C65E5CCF2E52}"/>
+    <hyperlink ref="E56" location="AWS_Firewall_Manager" display="Ver Firewall Manager" xr:uid="{D4202369-BC9F-4643-BAE4-A6655E9FE95D}"/>
+    <hyperlink ref="D56" location="AWS_Firewall_Manager" display="AWS Firewall Manager" xr:uid="{D14E4BAC-D080-4EE3-A24B-0607FDB252D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId92"/>
-  <drawing r:id="rId93"/>
+  <pageSetup orientation="portrait" r:id="rId107"/>
+  <drawing r:id="rId108"/>
 </worksheet>
 </file>
 
@@ -8050,287 +8260,287 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="11" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="11" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="11" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="11" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="11" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="11" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="11" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="46"/>
       <c r="C18" s="11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="46"/>
       <c r="C19" s="11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="46"/>
       <c r="C20" s="11" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="46"/>
       <c r="C21" s="11" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="48" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="49"/>
       <c r="C23" s="11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="49"/>
       <c r="C24" s="11" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="49"/>
       <c r="C25" s="11" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="49"/>
       <c r="C26" s="11" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="49"/>
       <c r="C27" s="11" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="50"/>
       <c r="C28" s="11" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="48" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="49"/>
       <c r="C30" s="11" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
       <c r="B31" s="49"/>
       <c r="C31" s="11" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
       <c r="B32" s="49"/>
       <c r="C32" s="11" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
       <c r="B33" s="50"/>
       <c r="C33" s="11" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="51" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
       <c r="B35" s="52"/>
       <c r="C35" s="11" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="52"/>
       <c r="C36" s="11" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" s="52"/>
       <c r="C37" s="11" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" s="53"/>
       <c r="C38" s="11" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" s="51" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" s="52"/>
       <c r="C40" s="11" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" s="52"/>
       <c r="C41" s="11" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" s="52"/>
       <c r="C42" s="11" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" s="53"/>
       <c r="C43" s="11" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -8398,33 +8608,33 @@
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="15" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDC2C04-3FB7-4619-BE74-D79ABDDE3F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5A2B1-82C3-4936-90B2-8FE78C888C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicios" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="631">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -2173,12 +2173,30 @@
   <si>
     <t>AWS CodePipeline es un servicio de entrega e integración continuas para una actualización rápida y de confianza de las aplicaciones y la infraestructura. CodePipeline crea, prueba e implementa su código cada vez que se produce un cambio en este, y se basa en los modelos de procesamiento de la versión que usted defina</t>
   </si>
+  <si>
+    <t>The 5 Pillars of the AWS Well-Architected Framework:</t>
+  </si>
+  <si>
+    <t>1- Operational Excellence: The operational excellence pillar includes the ability to run and monitor systems to deliver business value and to continually improve supporting processes and procedures.</t>
+  </si>
+  <si>
+    <t>2- Security: The security pillar includes the ability to protect information, systems, and assets while delivering business value through risk assessments and mitigation strategies.</t>
+  </si>
+  <si>
+    <t>3- Reliability: The reliability pillar includes the ability of a system to recover from infrastructure or service disruptions, dynamically acquire computing resources to meet demand, and mitigate disruptions such as  misconfigurations or transient network issues.</t>
+  </si>
+  <si>
+    <t>4- Performance Efficiency: The performance efficiency pillar includes the ability to use computing resources efficiently to meet system requirements. Key topics include selecting the right resource types and sizes based on workload requirements, monitoring performance, and making informed decisions to maintain efficiency as business needs evolve.</t>
+  </si>
+  <si>
+    <t>5- Cost Optimization: The cost optimization pillar includes the ability to avoid or eliminate unneeded cost or sub-optimal resources.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2259,6 +2277,19 @@
       <sz val="13.5"/>
       <color rgb="FF232F3E"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3C3B37"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C3B37"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2381,7 +2412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2436,26 +2467,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2464,16 +2486,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2492,6 +2505,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2529,11 +2566,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3243,7 +3280,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4347,7 +4384,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>714374</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5440,8 +5477,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>398762</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>713087</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>161187</xdr:rowOff>
     </xdr:to>
@@ -5744,11 +5781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E110" sqref="E110"/>
+      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5782,8 +5819,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="38" t="s">
         <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5800,8 +5837,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>248</v>
       </c>
@@ -5816,8 +5853,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>250</v>
       </c>
@@ -5832,8 +5869,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>251</v>
       </c>
@@ -5848,12 +5885,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="24" t="s">
         <v>583</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -5864,8 +5901,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="38" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5882,8 +5919,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="4" t="s">
         <v>256</v>
       </c>
@@ -5898,8 +5935,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="4" t="s">
         <v>257</v>
       </c>
@@ -5914,8 +5951,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>259</v>
       </c>
@@ -5930,7 +5967,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="18" t="s">
         <v>261</v>
       </c>
@@ -5948,8 +5985,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="38" t="s">
         <v>263</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -5962,26 +5999,26 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="25" t="s">
         <v>588</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="25" t="s">
         <v>589</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -5992,8 +6029,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="4" t="s">
         <v>269</v>
       </c>
@@ -6008,12 +6045,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="25" t="s">
         <v>272</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -6024,10 +6061,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="41" t="s">
         <v>274</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -6044,8 +6081,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="18" t="s">
         <v>292</v>
       </c>
@@ -6059,8 +6096,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
       <c r="B19" s="19" t="s">
         <v>277</v>
       </c>
@@ -6078,8 +6115,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="41" t="s">
         <v>276</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -6096,8 +6133,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="18" t="s">
         <v>281</v>
       </c>
@@ -6112,8 +6149,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="18" t="s">
         <v>283</v>
       </c>
@@ -6127,9 +6164,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="29" t="s">
+    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="42" t="s">
         <v>284</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -6146,8 +6183,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="18" t="s">
         <v>287</v>
       </c>
@@ -6162,8 +6199,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="18" t="s">
         <v>289</v>
       </c>
@@ -6178,21 +6215,21 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="18" t="s">
         <v>290</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="25" t="s">
         <v>588</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="4" t="s">
         <v>291</v>
       </c>
@@ -6200,19 +6237,19 @@
       <c r="D27" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="25" t="s">
         <v>588</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="38" t="s">
         <v>342</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6226,9 +6263,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="10" t="s">
         <v>45</v>
       </c>
@@ -6240,9 +6277,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="8" t="s">
         <v>131</v>
       </c>
@@ -6252,8 +6289,8 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="43" t="s">
         <v>344</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -6270,8 +6307,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
         <v>472</v>
@@ -6284,7 +6321,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="18" t="s">
         <v>345</v>
       </c>
@@ -6302,14 +6339,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="18" t="s">
         <v>349</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="25" t="s">
         <v>348</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -6320,14 +6357,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="18" t="s">
         <v>350</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="25" t="s">
         <v>352</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -6338,7 +6375,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="18" t="s">
         <v>353</v>
       </c>
@@ -6356,7 +6393,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="18" t="s">
         <v>356</v>
       </c>
@@ -6374,7 +6411,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="18" t="s">
         <v>359</v>
       </c>
@@ -6392,7 +6429,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -6412,7 +6449,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="18" t="s">
         <v>471</v>
       </c>
@@ -6430,7 +6467,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="18" t="s">
         <v>341</v>
       </c>
@@ -6448,7 +6485,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="18" t="s">
         <v>340</v>
       </c>
@@ -6466,11 +6503,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="38" t="s">
         <v>290</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -6483,10 +6520,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
+    <row r="44" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="2" t="s">
         <v>60</v>
       </c>
@@ -6498,9 +6535,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="2" t="s">
         <v>62</v>
       </c>
@@ -6511,10 +6548,10 @@
         <v>617</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+    <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="2" t="s">
         <v>65</v>
       </c>
@@ -6529,7 +6566,7 @@
       <c r="A47" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="38" t="s">
         <v>216</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -6547,7 +6584,7 @@
     </row>
     <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
-      <c r="B48" s="24"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="4" t="s">
         <v>218</v>
       </c>
@@ -6563,7 +6600,7 @@
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
-      <c r="B49" s="24"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="4" t="s">
         <v>220</v>
       </c>
@@ -6579,7 +6616,7 @@
     </row>
     <row r="50" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
-      <c r="B50" s="24"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="4" t="s">
         <v>483</v>
       </c>
@@ -6595,7 +6632,7 @@
     </row>
     <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
-      <c r="B51" s="24"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="4" t="s">
         <v>222</v>
       </c>
@@ -6609,9 +6646,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="38" t="s">
         <v>223</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -6629,7 +6666,7 @@
     </row>
     <row r="53" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="30"/>
-      <c r="B53" s="24"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="4" t="s">
         <v>225</v>
       </c>
@@ -6645,7 +6682,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="38" t="s">
         <v>227</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -6661,35 +6698,35 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
-      <c r="B55" s="24"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E55" s="56" t="s">
+      <c r="E55" s="25" t="s">
         <v>621</v>
       </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
-      <c r="B56" s="24"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="4" t="s">
         <v>231</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="25" t="s">
         <v>623</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="38" t="s">
         <v>232</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -6698,28 +6735,28 @@
       <c r="D57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="28" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
-      <c r="B58" s="24"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-    </row>
-    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
-      <c r="B59" s="24"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="4" t="s">
         <v>237</v>
       </c>
@@ -6753,7 +6790,7 @@
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="38" t="s">
         <v>240</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -6771,7 +6808,7 @@
     </row>
     <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
-      <c r="B62" s="24"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="4" t="s">
         <v>243</v>
       </c>
@@ -6785,9 +6822,9 @@
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
-      <c r="B63" s="24"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="4" t="s">
         <v>245</v>
       </c>
@@ -6802,10 +6839,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="31" t="s">
         <v>416</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -6822,8 +6859,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="4" t="s">
         <v>410</v>
       </c>
@@ -6838,8 +6875,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="4" t="s">
         <v>411</v>
       </c>
@@ -6853,9 +6890,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="38"/>
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="4" t="s">
         <v>412</v>
       </c>
@@ -6870,8 +6907,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="39"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="4" t="s">
         <v>413</v>
       </c>
@@ -6886,7 +6923,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="4" t="s">
         <v>133</v>
       </c>
@@ -6903,8 +6940,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="35"/>
       <c r="B70" s="4" t="s">
         <v>417</v>
       </c>
@@ -6922,7 +6959,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="4" t="s">
         <v>421</v>
       </c>
@@ -6940,8 +6977,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="37" t="s">
+      <c r="A72" s="35"/>
+      <c r="B72" s="31" t="s">
         <v>430</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -6958,8 +6995,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="39"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="4" t="s">
         <v>435</v>
       </c>
@@ -6974,8 +7011,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="37" t="s">
+      <c r="A74" s="35"/>
+      <c r="B74" s="31" t="s">
         <v>445</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -6992,8 +7029,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="39"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="4" t="s">
         <v>449</v>
       </c>
@@ -7008,7 +7045,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="20" t="s">
         <v>440</v>
       </c>
@@ -7061,7 +7098,7 @@
     </row>
     <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="34" t="s">
         <v>542</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -7077,9 +7114,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
-      <c r="B80" s="42"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="4" t="s">
         <v>541</v>
       </c>
@@ -7093,7 +7130,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
@@ -7141,7 +7178,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
@@ -7158,7 +7195,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="37" t="s">
         <v>137</v>
       </c>
       <c r="B85" s="4"/>
@@ -7176,7 +7213,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
+      <c r="A86" s="37"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
         <v>329</v>
@@ -7192,7 +7229,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21" t="s">
         <v>335</v>
@@ -7211,7 +7248,7 @@
       <c r="A88" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="39" t="s">
         <v>174</v>
       </c>
       <c r="C88" s="21" t="s">
@@ -7227,9 +7264,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
-      <c r="B89" s="35"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="21" t="s">
         <v>215</v>
       </c>
@@ -7245,7 +7282,7 @@
     </row>
     <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
-      <c r="B90" s="35"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="21" t="s">
         <v>176</v>
       </c>
@@ -7259,9 +7296,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
-      <c r="B91" s="35"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="21" t="s">
         <v>177</v>
       </c>
@@ -7275,9 +7312,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
-      <c r="B92" s="35"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="21" t="s">
         <v>214</v>
       </c>
@@ -7293,7 +7330,7 @@
     </row>
     <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
-      <c r="B93" s="35"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="21" t="s">
         <v>178</v>
       </c>
@@ -7307,9 +7344,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
-      <c r="B94" s="35"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="21" t="s">
         <v>179</v>
       </c>
@@ -7323,9 +7360,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="39" t="s">
         <v>180</v>
       </c>
       <c r="C95" s="21" t="s">
@@ -7343,7 +7380,7 @@
     </row>
     <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="30"/>
-      <c r="B96" s="35"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="21" t="s">
         <v>182</v>
       </c>
@@ -7357,9 +7394,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="30"/>
-      <c r="B97" s="35"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="21" t="s">
         <v>183</v>
       </c>
@@ -7373,9 +7410,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
-      <c r="B98" s="35"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="21" t="s">
         <v>184</v>
       </c>
@@ -7391,7 +7428,7 @@
     </row>
     <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
-      <c r="B99" s="35"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="21" t="s">
         <v>185</v>
       </c>
@@ -7405,9 +7442,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
-      <c r="B100" s="35"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="21" t="s">
         <v>186</v>
       </c>
@@ -7423,7 +7460,7 @@
     </row>
     <row r="101" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="40" t="s">
         <v>187</v>
       </c>
       <c r="C101" s="21" t="s">
@@ -7439,9 +7476,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
-      <c r="B102" s="36"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="21" t="s">
         <v>189</v>
       </c>
@@ -7457,7 +7494,7 @@
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
-      <c r="B103" s="36"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="21" t="s">
         <v>190</v>
       </c>
@@ -7473,7 +7510,7 @@
     </row>
     <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="40" t="s">
         <v>191</v>
       </c>
       <c r="C104" s="21" t="s">
@@ -7489,9 +7526,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
-      <c r="B105" s="36"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="21" t="s">
         <v>193</v>
       </c>
@@ -7505,9 +7542,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="30"/>
-      <c r="B106" s="36"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="21" t="s">
         <v>194</v>
       </c>
@@ -7521,9 +7558,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="30"/>
-      <c r="B107" s="36"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="3" t="s">
         <v>195</v>
       </c>
@@ -7537,9 +7574,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
-      <c r="B108" s="36"/>
+      <c r="B108" s="40"/>
       <c r="C108" s="21" t="s">
         <v>196</v>
       </c>
@@ -7555,7 +7592,7 @@
     </row>
     <row r="109" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="39" t="s">
         <v>197</v>
       </c>
       <c r="C109" s="21" t="s">
@@ -7573,7 +7610,7 @@
     </row>
     <row r="110" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
-      <c r="B110" s="35"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="21" t="s">
         <v>199</v>
       </c>
@@ -7605,11 +7642,11 @@
         <v>529</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="25" t="s">
+    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="38" t="s">
         <v>310</v>
       </c>
       <c r="C112" s="18" t="s">
@@ -7626,8 +7663,8 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="18" t="s">
         <v>295</v>
       </c>
@@ -7641,9 +7678,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
-      <c r="B114" s="24"/>
+    <row r="114" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A114" s="27"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="21" t="s">
         <v>296</v>
       </c>
@@ -7657,9 +7694,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
-      <c r="B115" s="24"/>
+    <row r="115" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A115" s="27"/>
+      <c r="B115" s="38"/>
       <c r="C115" s="21" t="s">
         <v>297</v>
       </c>
@@ -7673,9 +7710,9 @@
         <v>531</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
-      <c r="B116" s="24"/>
+    <row r="116" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="27"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="21" t="s">
         <v>298</v>
       </c>
@@ -7690,8 +7727,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="25"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="21" t="s">
         <v>299</v>
       </c>
@@ -7705,9 +7742,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
-      <c r="B118" s="24"/>
+    <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="27"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="21" t="s">
         <v>300</v>
       </c>
@@ -7721,12 +7758,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
-      <c r="B119" s="33" t="s">
+    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="27"/>
+      <c r="B119" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C119" s="26" t="s">
         <v>302</v>
       </c>
       <c r="D119" s="8" t="s">
@@ -7740,9 +7777,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
       <c r="D120" s="9" t="s">
         <v>316</v>
       </c>
@@ -7750,9 +7787,9 @@
       <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
+      <c r="A121" s="27"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
       <c r="D121" s="9" t="s">
         <v>317</v>
       </c>
@@ -7760,9 +7797,9 @@
       <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="25"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
       <c r="D122" s="9" t="s">
         <v>318</v>
       </c>
@@ -7770,9 +7807,9 @@
       <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="25"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
+      <c r="A123" s="27"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
       <c r="D123" s="9" t="s">
         <v>319</v>
       </c>
@@ -7780,11 +7817,11 @@
       <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="25"/>
-      <c r="B124" s="33" t="s">
+      <c r="A124" s="27"/>
+      <c r="B124" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C124" s="33" t="s">
+      <c r="C124" s="26" t="s">
         <v>274</v>
       </c>
       <c r="D124" s="9" t="s">
@@ -7796,9 +7833,9 @@
       <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
+      <c r="A125" s="27"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
       <c r="D125" s="9" t="s">
         <v>321</v>
       </c>
@@ -7806,9 +7843,9 @@
       <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="25"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33" t="s">
+      <c r="A126" s="27"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26" t="s">
         <v>304</v>
       </c>
       <c r="D126" s="9" t="s">
@@ -7820,9 +7857,9 @@
       <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="25"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
       <c r="D127" s="9" t="s">
         <v>323</v>
       </c>
@@ -7830,9 +7867,9 @@
       <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="25"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33" t="s">
+      <c r="A128" s="27"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26" t="s">
         <v>305</v>
       </c>
       <c r="D128" s="9" t="s">
@@ -7842,9 +7879,9 @@
       <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
+      <c r="A129" s="27"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
       <c r="D129" s="9" t="s">
         <v>321</v>
       </c>
@@ -7852,8 +7889,8 @@
       <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
-      <c r="B130" s="33"/>
+      <c r="A130" s="27"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="21" t="s">
         <v>306</v>
       </c>
@@ -7864,8 +7901,8 @@
       <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="33" t="s">
+      <c r="A131" s="27"/>
+      <c r="B131" s="26" t="s">
         <v>307</v>
       </c>
       <c r="C131" s="21" t="s">
@@ -7878,8 +7915,8 @@
       <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
-      <c r="B132" s="33"/>
+      <c r="A132" s="27"/>
+      <c r="B132" s="26"/>
       <c r="C132" s="21" t="s">
         <v>309</v>
       </c>
@@ -7890,10 +7927,10 @@
       <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="26" t="s">
         <v>495</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -7910,8 +7947,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A134" s="25"/>
-      <c r="B134" s="33"/>
+      <c r="A134" s="27"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="4" t="s">
         <v>491</v>
       </c>
@@ -7926,8 +7963,8 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="25"/>
-      <c r="B135" s="33"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="4" t="s">
         <v>492</v>
       </c>
@@ -7941,9 +7978,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A136" s="25"/>
-      <c r="B136" s="33" t="s">
+    <row r="136" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A136" s="27"/>
+      <c r="B136" s="26" t="s">
         <v>496</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -7959,9 +7996,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A137" s="25"/>
-      <c r="B137" s="33"/>
+    <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A137" s="27"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="4" t="s">
         <v>498</v>
       </c>
@@ -7976,8 +8013,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="25"/>
-      <c r="B138" s="33" t="s">
+      <c r="A138" s="27"/>
+      <c r="B138" s="26" t="s">
         <v>503</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -7991,9 +8028,9 @@
       </c>
       <c r="F138" s="9"/>
     </row>
-    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="25"/>
-      <c r="B139" s="33"/>
+    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="27"/>
+      <c r="B139" s="26"/>
       <c r="C139" s="4" t="s">
         <v>502</v>
       </c>
@@ -8007,8 +8044,8 @@
         <v>576</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
+    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="27"/>
       <c r="B140" s="21" t="s">
         <v>507</v>
       </c>
@@ -8025,8 +8062,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A141" s="25"/>
+    <row r="141" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141" s="27"/>
       <c r="B141" s="21" t="s">
         <v>510</v>
       </c>
@@ -8043,7 +8080,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>516</v>
       </c>
@@ -8063,18 +8100,23 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A133:A141"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A88:A111"/>
-    <mergeCell ref="A77:A84"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A64:A76"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="C128:C129"/>
     <mergeCell ref="B124:B130"/>
@@ -8091,27 +8133,22 @@
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="B104:B108"/>
     <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A88:A111"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A64:A76"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="A47:A63"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A39:A46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -8245,10 +8282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8256,6 +8293,7 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8267,7 +8305,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>362</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -8275,37 +8313,37 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="11" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="11" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>363</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -8313,160 +8351,179 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="11" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>383</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="46"/>
+      <c r="E17" s="57"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="11" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
+      <c r="E18" s="58" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="11" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
+      <c r="E19" s="58" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="11" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
+      <c r="E20" s="58" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="11" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="48" t="s">
+      <c r="E21" s="58" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="50" t="s">
         <v>384</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="49"/>
+      <c r="E22" s="58" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="11" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="49"/>
+      <c r="E23" s="58" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="11" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="49"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="11" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="49"/>
+    <row r="26" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="11" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="49"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="11" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="50"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="48" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="50" t="s">
         <v>385</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="49"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="11" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="49"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="49"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="11" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="11" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="51" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="53" t="s">
         <v>386</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -8474,36 +8531,36 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="11" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="53"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="11" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="53" t="s">
         <v>392</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -8511,39 +8568,39 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="11" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="11" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="53"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="11" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -8607,7 +8664,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>452</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8618,7 +8675,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="15" t="s">
         <v>458</v>
       </c>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5A2B1-82C3-4936-90B2-8FE78C888C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4B7AD-3BD0-4D81-BC1B-164D9F491645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicios" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Informacion Adicional" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$115</definedName>
     <definedName name="Amazon_API_Gateway">Servicios!$D$62</definedName>
-    <definedName name="Amazon_Redshift">Servicios!$D$114</definedName>
+    <definedName name="Amazon_Redshift">Servicios!$D$115</definedName>
     <definedName name="Amazon_S3">Servicios!$D$17</definedName>
     <definedName name="AWS_FamiliaSnow">Servicios!$D$43:$D$46</definedName>
-    <definedName name="AWS_Firewall_Manager">Servicios!$D$103</definedName>
-    <definedName name="AWS_Shield">Servicios!$D$101</definedName>
-    <definedName name="AWS_Web_Application_Firewall__WAF">Servicios!$D$102</definedName>
+    <definedName name="AWS_Firewall_Manager">Servicios!$D$104</definedName>
+    <definedName name="AWS_Shield">Servicios!$D$102</definedName>
+    <definedName name="AWS_Web_Application_Firewall__WAF">Servicios!$D$103</definedName>
     <definedName name="Familia_Snow">Servicios!$C$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="636">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -2190,6 +2190,21 @@
   </si>
   <si>
     <t>5- Cost Optimization: The cost optimization pillar includes the ability to avoid or eliminate unneeded cost or sub-optimal resources.</t>
+  </si>
+  <si>
+    <t>Es un servicio completamente administrado que ofrece la misma infraestructura de AWS, los servicios de AWS, las API y las herramientas a prácticamente cualquier centro de datos, espacio de coubicación o instalación local para lograr una experiencia híbrida estable</t>
+  </si>
+  <si>
+    <t>Is a fully managed service that offers the same AWS infrastructure, AWS services, APIs, and tools to virtually any datacenter, co-location space, or on-premises facility for a truly consistent hybrid experience</t>
+  </si>
+  <si>
+    <t>AWS Identity Federation</t>
+  </si>
+  <si>
+    <t>Identity federation is a system of trust between two parties for the purpose of authenticating users and conveying information needed to authorize their access to resources.Federation is a common approach to building access control systems which manage users centrally within a central IdP and govern their access to multiple applications and services acting as SPs.  Federation is an AWS feature that enables users to access and use AWS resources using their existing corporate credentials.</t>
+  </si>
+  <si>
+    <t>La federación de identidades es un sistema de confianza entre dos partes con el fin de autenticar a los usuarios y transmitir la información necesaria para autorizar su acceso a los recursos. La federación es un enfoque común para construir sistemas de control de acceso que administran a los usuarios de manera centralizada dentro de un IdP central y gobiernan su acceso a múltiples aplicaciones y servicios que actúan como SP. La federación es una función de AWS que permite a los usuarios acceder y utilizar los recursos de AWS utilizando sus credenciales corporativas existentes.</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2476,14 +2491,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2505,30 +2553,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2566,12 +2590,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2596,13 +2614,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2644,13 +2662,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2692,13 +2710,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2740,13 +2758,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2788,13 +2806,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2836,13 +2854,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2884,13 +2902,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2932,13 +2950,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2980,13 +2998,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3028,13 +3046,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3076,13 +3094,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3124,13 +3142,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5779,13 +5797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5819,8 +5837,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="29" t="s">
         <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5837,8 +5855,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>248</v>
       </c>
@@ -5853,8 +5871,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
         <v>250</v>
       </c>
@@ -5869,8 +5887,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4" t="s">
         <v>251</v>
       </c>
@@ -5885,8 +5903,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="4" t="s">
         <v>252</v>
       </c>
@@ -5901,8 +5919,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="29" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5919,8 +5937,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="4" t="s">
         <v>256</v>
       </c>
@@ -5935,8 +5953,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="4" t="s">
         <v>257</v>
       </c>
@@ -5951,8 +5969,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="4" t="s">
         <v>259</v>
       </c>
@@ -5967,7 +5985,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="18" t="s">
         <v>261</v>
       </c>
@@ -5984,23 +6002,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="38" t="s">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="29" t="s">
         <v>263</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="4" t="s">
         <v>266</v>
       </c>
@@ -6013,8 +6035,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="4" t="s">
         <v>268</v>
       </c>
@@ -6029,8 +6051,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="4" t="s">
         <v>269</v>
       </c>
@@ -6045,8 +6067,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="4" t="s">
         <v>271</v>
       </c>
@@ -6061,10 +6083,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="33" t="s">
         <v>274</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -6081,8 +6103,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="18" t="s">
         <v>292</v>
       </c>
@@ -6097,7 +6119,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="19" t="s">
         <v>277</v>
       </c>
@@ -6115,8 +6137,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="33" t="s">
         <v>276</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -6133,8 +6155,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="18" t="s">
         <v>281</v>
       </c>
@@ -6149,8 +6171,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="18" t="s">
         <v>283</v>
       </c>
@@ -6165,8 +6187,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="34" t="s">
         <v>284</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -6183,8 +6205,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="18" t="s">
         <v>287</v>
       </c>
@@ -6199,8 +6221,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="18" t="s">
         <v>289</v>
       </c>
@@ -6215,8 +6237,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="18" t="s">
         <v>290</v>
       </c>
@@ -6229,7 +6251,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="4" t="s">
         <v>291</v>
       </c>
@@ -6243,13 +6265,13 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="29" t="s">
         <v>342</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6263,9 +6285,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="10" t="s">
         <v>45</v>
       </c>
@@ -6277,9 +6299,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="8" t="s">
         <v>131</v>
       </c>
@@ -6289,8 +6311,8 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="43" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31" t="s">
         <v>344</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -6307,8 +6329,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
         <v>472</v>
@@ -6321,7 +6343,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="18" t="s">
         <v>345</v>
       </c>
@@ -6339,7 +6361,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="18" t="s">
         <v>349</v>
       </c>
@@ -6357,7 +6379,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="18" t="s">
         <v>350</v>
       </c>
@@ -6375,7 +6397,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="18" t="s">
         <v>353</v>
       </c>
@@ -6393,7 +6415,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="18" t="s">
         <v>356</v>
       </c>
@@ -6411,7 +6433,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="18" t="s">
         <v>359</v>
       </c>
@@ -6429,7 +6451,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -6449,7 +6471,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="18" t="s">
         <v>471</v>
       </c>
@@ -6467,7 +6489,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="18" t="s">
         <v>341</v>
       </c>
@@ -6485,7 +6507,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="18" t="s">
         <v>340</v>
       </c>
@@ -6503,11 +6525,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="38" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="29" t="s">
         <v>290</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -6521,9 +6543,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="2" t="s">
         <v>60</v>
       </c>
@@ -6535,9 +6557,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="2" t="s">
         <v>62</v>
       </c>
@@ -6549,9 +6571,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="2" t="s">
         <v>65</v>
       </c>
@@ -6563,10 +6585,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="29" t="s">
         <v>216</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -6583,8 +6605,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="4" t="s">
         <v>218</v>
       </c>
@@ -6599,8 +6621,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="38"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="4" t="s">
         <v>220</v>
       </c>
@@ -6615,8 +6637,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="4" t="s">
         <v>483</v>
       </c>
@@ -6631,8 +6653,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="4" t="s">
         <v>222</v>
       </c>
@@ -6647,8 +6669,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="38" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="29" t="s">
         <v>223</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -6665,8 +6687,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="38"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="4" t="s">
         <v>225</v>
       </c>
@@ -6681,8 +6703,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="38" t="s">
+      <c r="A54" s="41"/>
+      <c r="B54" s="29" t="s">
         <v>227</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -6697,8 +6719,8 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="38"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="4" t="s">
         <v>229</v>
       </c>
@@ -6711,8 +6733,8 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="4" t="s">
         <v>231</v>
       </c>
@@ -6725,8 +6747,8 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="38" t="s">
+      <c r="A57" s="41"/>
+      <c r="B57" s="29" t="s">
         <v>232</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -6735,28 +6757,28 @@
       <c r="D57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
     </row>
     <row r="59" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="4" t="s">
         <v>237</v>
       </c>
@@ -6771,7 +6793,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="18" t="s">
         <v>238</v>
       </c>
@@ -6789,8 +6811,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="38" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="29" t="s">
         <v>240</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -6807,8 +6829,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="4" t="s">
         <v>243</v>
       </c>
@@ -6823,8 +6845,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="4" t="s">
         <v>245</v>
       </c>
@@ -6839,10 +6861,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="42" t="s">
         <v>416</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -6859,8 +6881,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="4" t="s">
         <v>410</v>
       </c>
@@ -6875,8 +6897,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="32"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="4" t="s">
         <v>411</v>
       </c>
@@ -6891,8 +6913,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="4" t="s">
         <v>412</v>
       </c>
@@ -6907,8 +6929,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="33"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="4" t="s">
         <v>413</v>
       </c>
@@ -6923,7 +6945,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="4" t="s">
         <v>133</v>
       </c>
@@ -6941,7 +6963,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="4" t="s">
         <v>417</v>
       </c>
@@ -6959,7 +6981,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="4" t="s">
         <v>421</v>
       </c>
@@ -6977,8 +6999,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="31" t="s">
+      <c r="A72" s="46"/>
+      <c r="B72" s="42" t="s">
         <v>430</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -6995,8 +7017,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="4" t="s">
         <v>435</v>
       </c>
@@ -7011,8 +7033,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="31" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="42" t="s">
         <v>445</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -7029,8 +7051,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="4" t="s">
         <v>449</v>
       </c>
@@ -7045,7 +7067,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="20" t="s">
         <v>440</v>
       </c>
@@ -7063,7 +7085,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="41" t="s">
         <v>99</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -7081,7 +7103,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
         <v>539</v>
@@ -7097,8 +7119,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="34" t="s">
+      <c r="A79" s="41"/>
+      <c r="B79" s="45" t="s">
         <v>542</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -7115,8 +7137,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="4" t="s">
         <v>541</v>
       </c>
@@ -7131,7 +7153,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
         <v>543</v>
@@ -7147,7 +7169,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
         <v>544</v>
@@ -7163,7 +7185,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
         <v>545</v>
@@ -7179,7 +7201,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
         <v>546</v>
@@ -7195,7 +7217,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="38" t="s">
         <v>137</v>
       </c>
       <c r="B85" s="4"/>
@@ -7213,7 +7235,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
         <v>329</v>
@@ -7229,7 +7251,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21" t="s">
         <v>335</v>
@@ -7245,7 +7267,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="41" t="s">
         <v>143</v>
       </c>
       <c r="B88" s="39" t="s">
@@ -7265,7 +7287,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="39"/>
       <c r="C89" s="21" t="s">
         <v>215</v>
@@ -7281,7 +7303,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="39"/>
       <c r="C90" s="21" t="s">
         <v>176</v>
@@ -7297,7 +7319,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="39"/>
       <c r="C91" s="21" t="s">
         <v>177</v>
@@ -7312,833 +7334,814 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
+    <row r="92" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
       <c r="B92" s="39"/>
-      <c r="C92" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>144</v>
+      <c r="C92" s="26"/>
+      <c r="D92" s="8" t="s">
+        <v>633</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>145</v>
+        <v>635</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A93" s="41"/>
       <c r="B93" s="39"/>
       <c r="C93" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>551</v>
+        <v>214</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>553</v>
+        <v>145</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="41"/>
       <c r="B94" s="39"/>
       <c r="C94" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A95" s="41"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="39" t="s">
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="41"/>
+      <c r="B96" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C96" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
       <c r="B97" s="39"/>
       <c r="C97" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>152</v>
+        <v>182</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>150</v>
+        <v>564</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>151</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="39"/>
       <c r="C98" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="41"/>
       <c r="B99" s="39"/>
       <c r="C99" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="41"/>
       <c r="B100" s="39"/>
       <c r="C100" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="41"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D101" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="40" t="s">
+    <row r="102" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A102" s="41"/>
+      <c r="B102" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C102" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
+    <row r="103" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" s="41"/>
       <c r="B103" s="40"/>
       <c r="C103" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="41"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D104" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="40" t="s">
+    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="41"/>
+      <c r="B105" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C105" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D105" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A105" s="30"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
+    <row r="106" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A106" s="41"/>
       <c r="B106" s="40"/>
       <c r="C106" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="3" t="s">
+    <row r="108" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="41"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="21" t="s">
+    <row r="109" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D109" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="39" t="s">
+    <row r="110" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A110" s="41"/>
+      <c r="B110" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C110" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="21" t="s">
+    <row r="111" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A111" s="41"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D111" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A111" s="30"/>
-      <c r="B111" s="17" t="s">
+    <row r="112" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A112" s="41"/>
+      <c r="B112" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D112" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="27" t="s">
+    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B113" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C113" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="27"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="18" t="s">
+    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="30"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A114" s="27"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="21" t="s">
+    <row r="115" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A115" s="30"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="21" t="s">
+    <row r="116" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A116" s="30"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D116" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="21" t="s">
+    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="30"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F117" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="21" t="s">
+    <row r="118" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118" s="30"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F118" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="27"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="21" t="s">
+    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="30"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E119" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F119" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
-      <c r="B119" s="26" t="s">
+    <row r="120" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A120" s="30"/>
+      <c r="B120" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C120" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F120" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="27"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="9" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="30"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="27"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="27"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
+      <c r="A122" s="30"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
       <c r="D122" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
       <c r="D123" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="27"/>
-      <c r="B124" s="26" t="s">
+      <c r="A124" s="30"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="30"/>
+      <c r="B125" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C125" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D125" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="F124" s="9"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="27"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="9" t="s">
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="30"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="27"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26" t="s">
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="30"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D127" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E127" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="9" t="s">
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="30"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="27"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="37" t="s">
+        <v>305</v>
+      </c>
       <c r="D129" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="27"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="21" t="s">
-        <v>306</v>
-      </c>
+      <c r="A130" s="30"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
       <c r="D130" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="27"/>
-      <c r="B131" s="26" t="s">
-        <v>307</v>
-      </c>
+      <c r="A131" s="30"/>
+      <c r="B131" s="37"/>
       <c r="C131" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="27"/>
-      <c r="B132" s="26"/>
+      <c r="A132" s="30"/>
+      <c r="B132" s="37" t="s">
+        <v>307</v>
+      </c>
       <c r="C132" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
-    <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A133" s="27" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="30"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A134" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="B133" s="26" t="s">
+      <c r="B134" s="37" t="s">
         <v>495</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D134" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E134" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A134" s="27"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="4" t="s">
+    <row r="135" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A135" s="30"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="4" t="s">
+    <row r="136" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="30"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E136" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
-      <c r="B136" s="26" t="s">
+    <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A137" s="30"/>
+      <c r="B137" s="37" t="s">
         <v>496</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D137" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E137" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F137" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="27"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="4" t="s">
+    <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A138" s="30"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D138" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E138" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="27"/>
-      <c r="B138" s="26" t="s">
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="30"/>
+      <c r="B139" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E139" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="F138" s="9"/>
-    </row>
-    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="4" t="s">
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="30"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D140" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="27"/>
-      <c r="B140" s="21" t="s">
+    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="30"/>
+      <c r="B141" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E141" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A141" s="27"/>
-      <c r="B141" s="21" t="s">
+    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" s="30"/>
+      <c r="B142" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E142" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+    <row r="143" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21" t="s">
+      <c r="B143" s="21"/>
+      <c r="C143" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E143" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>517</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="B124:B130"/>
-    <mergeCell ref="A112:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A134:A142"/>
     <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A88:A111"/>
+    <mergeCell ref="A88:A112"/>
     <mergeCell ref="A77:A84"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="B72:B73"/>
@@ -8149,6 +8152,39 @@
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="B125:B131"/>
+    <mergeCell ref="A113:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A39:A46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -8187,22 +8223,22 @@
     <hyperlink ref="D80" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
     <hyperlink ref="D81" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
     <hyperlink ref="D83" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="D112" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="D113" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
     <hyperlink ref="D85" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="D113" r:id="rId39" display="Amazon EMR" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
-    <hyperlink ref="D114" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D114" r:id="rId39" display="Amazon EMR" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D115" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
     <hyperlink ref="D89" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
     <hyperlink ref="D91" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
-    <hyperlink ref="D92" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
-    <hyperlink ref="D94" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
-    <hyperlink ref="D97" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
-    <hyperlink ref="D101" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
-    <hyperlink ref="D102" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
-    <hyperlink ref="D105" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
-    <hyperlink ref="D106" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
-    <hyperlink ref="D107" r:id="rId50" display="AWS Certificate Manager" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
-    <hyperlink ref="D98" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
-    <hyperlink ref="D99" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
+    <hyperlink ref="D93" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
+    <hyperlink ref="D95" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
+    <hyperlink ref="D98" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
+    <hyperlink ref="D102" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
+    <hyperlink ref="D103" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
+    <hyperlink ref="D106" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
+    <hyperlink ref="D107" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
+    <hyperlink ref="D108" r:id="rId50" display="AWS Certificate Manager" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
+    <hyperlink ref="D99" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
+    <hyperlink ref="D100" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
     <hyperlink ref="E54" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
     <hyperlink ref="D6" r:id="rId53" display="WS-Batch_Icon_32_Squid AWS Batch" xr:uid="{2804486C-FEC1-42AC-AB75-F7030E15D0F4}"/>
     <hyperlink ref="D86" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
@@ -8216,40 +8252,40 @@
     <hyperlink ref="D72" r:id="rId59" xr:uid="{0214839F-6AA7-44C9-9B64-D4150403EA2C}"/>
     <hyperlink ref="D76" r:id="rId60" xr:uid="{169E646D-B5A4-473E-A6AF-C33E9687D7F6}"/>
     <hyperlink ref="D74" r:id="rId61" xr:uid="{83EF94BC-B020-45C4-BD97-34175F575C58}"/>
-    <hyperlink ref="E124" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{DD100AC8-6BDE-4F4E-84A7-09629C91214A}"/>
+    <hyperlink ref="E125" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{DD100AC8-6BDE-4F4E-84A7-09629C91214A}"/>
     <hyperlink ref="D32" r:id="rId62" xr:uid="{B20AD222-C821-4CBF-B094-CEAA7B8A3200}"/>
-    <hyperlink ref="D104" r:id="rId63" xr:uid="{0119CB9D-577C-47F4-88AC-6107CC489E5F}"/>
-    <hyperlink ref="D103" r:id="rId64" xr:uid="{B775A593-2D06-4F95-84DB-E5713A371954}"/>
-    <hyperlink ref="D133" r:id="rId65" display="https://aws.amazon.com/sns/" xr:uid="{6AF41E67-CD24-41E2-B9CA-430BFC5C475E}"/>
-    <hyperlink ref="D117" r:id="rId66" xr:uid="{58316A02-A9FE-47EF-933C-598BF797D617}"/>
-    <hyperlink ref="D142" r:id="rId67" display="https://aws.amazon.com/professional-services/CAF/" xr:uid="{5C52581F-6C72-4E0D-838D-B84D148EA140}"/>
-    <hyperlink ref="E126" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{20773060-4A21-42C3-A16C-013AA8DBD607}"/>
-    <hyperlink ref="D108" r:id="rId68" xr:uid="{D330D226-AAF3-45C5-8AC1-C8D6CABD70BC}"/>
-    <hyperlink ref="D109" r:id="rId69" xr:uid="{E2FBADDE-7F21-452B-AB2F-6C594653F683}"/>
-    <hyperlink ref="D110" r:id="rId70" xr:uid="{6E3DF75E-E92D-4A6C-9E69-8463809A6455}"/>
-    <hyperlink ref="D111" r:id="rId71" xr:uid="{B607C4F7-C4C0-4A3B-A78F-9FFC586648D8}"/>
-    <hyperlink ref="D115" r:id="rId72" xr:uid="{35EA7AC3-83F4-495E-8C64-D99FCFDBD303}"/>
-    <hyperlink ref="D116" r:id="rId73" xr:uid="{E87ADCD0-FA16-4BCF-B7DA-5514BFD480E6}"/>
-    <hyperlink ref="D118" r:id="rId74" xr:uid="{B7BFA75D-88D3-4318-8521-E0DBE2B0095D}"/>
-    <hyperlink ref="D119" r:id="rId75" xr:uid="{1B4B6748-45D5-4647-AB2F-7C056E4D24F6}"/>
+    <hyperlink ref="D105" r:id="rId63" xr:uid="{0119CB9D-577C-47F4-88AC-6107CC489E5F}"/>
+    <hyperlink ref="D104" r:id="rId64" xr:uid="{B775A593-2D06-4F95-84DB-E5713A371954}"/>
+    <hyperlink ref="D134" r:id="rId65" display="https://aws.amazon.com/sns/" xr:uid="{6AF41E67-CD24-41E2-B9CA-430BFC5C475E}"/>
+    <hyperlink ref="D118" r:id="rId66" xr:uid="{58316A02-A9FE-47EF-933C-598BF797D617}"/>
+    <hyperlink ref="D143" r:id="rId67" display="https://aws.amazon.com/professional-services/CAF/" xr:uid="{5C52581F-6C72-4E0D-838D-B84D148EA140}"/>
+    <hyperlink ref="E127" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{20773060-4A21-42C3-A16C-013AA8DBD607}"/>
+    <hyperlink ref="D109" r:id="rId68" xr:uid="{D330D226-AAF3-45C5-8AC1-C8D6CABD70BC}"/>
+    <hyperlink ref="D110" r:id="rId69" xr:uid="{E2FBADDE-7F21-452B-AB2F-6C594653F683}"/>
+    <hyperlink ref="D111" r:id="rId70" xr:uid="{6E3DF75E-E92D-4A6C-9E69-8463809A6455}"/>
+    <hyperlink ref="D112" r:id="rId71" xr:uid="{B607C4F7-C4C0-4A3B-A78F-9FFC586648D8}"/>
+    <hyperlink ref="D116" r:id="rId72" xr:uid="{35EA7AC3-83F4-495E-8C64-D99FCFDBD303}"/>
+    <hyperlink ref="D117" r:id="rId73" xr:uid="{E87ADCD0-FA16-4BCF-B7DA-5514BFD480E6}"/>
+    <hyperlink ref="D119" r:id="rId74" xr:uid="{B7BFA75D-88D3-4318-8521-E0DBE2B0095D}"/>
+    <hyperlink ref="D120" r:id="rId75" xr:uid="{1B4B6748-45D5-4647-AB2F-7C056E4D24F6}"/>
     <hyperlink ref="D88" r:id="rId76" xr:uid="{D9F94259-119C-47E6-9A7A-C42A9110CAD0}"/>
     <hyperlink ref="D90" r:id="rId77" xr:uid="{AB46BDED-F7AE-45AB-B804-F116170B81C1}"/>
-    <hyperlink ref="D93" r:id="rId78" xr:uid="{5EA0D2CF-98C6-48A8-A584-81506D3327DD}"/>
-    <hyperlink ref="D100" r:id="rId79" xr:uid="{42F97031-3424-45CA-AE0D-C5EF35EA8107}"/>
+    <hyperlink ref="D94" r:id="rId78" xr:uid="{5EA0D2CF-98C6-48A8-A584-81506D3327DD}"/>
+    <hyperlink ref="D101" r:id="rId79" xr:uid="{42F97031-3424-45CA-AE0D-C5EF35EA8107}"/>
     <hyperlink ref="D61" r:id="rId80" xr:uid="{B6341584-622A-4ACC-9049-009707CB9A24}"/>
     <hyperlink ref="D62" r:id="rId81" xr:uid="{AB542A94-42C6-4813-BEDC-38C5AAE0CAEF}"/>
     <hyperlink ref="D63" r:id="rId82" xr:uid="{1B0AA61A-1F92-4D00-A418-EC59DFD62505}"/>
-    <hyperlink ref="D95" r:id="rId83" xr:uid="{D285F8CC-896D-4DE4-8986-FA132D610121}"/>
-    <hyperlink ref="D96" r:id="rId84" xr:uid="{6F010FBC-6559-46E8-B008-2689A3CC24E7}"/>
-    <hyperlink ref="D135" r:id="rId85" xr:uid="{2FDBB128-7B97-498F-91A7-3AA0D51A6477}"/>
-    <hyperlink ref="D134" r:id="rId86" xr:uid="{F2C0C066-7EF5-46B8-9AD6-718FAD36A112}"/>
-    <hyperlink ref="D136" r:id="rId87" xr:uid="{402C53D2-F2D2-444B-858A-2C33456854A3}"/>
-    <hyperlink ref="D137" r:id="rId88" xr:uid="{519C3DC5-04F8-485B-A8BE-4D37241E9037}"/>
-    <hyperlink ref="E138" location="Amazon_API_Gateway" display="Ver Api Gatehay" xr:uid="{202B654D-44C2-4042-A7D2-060620DE4C05}"/>
-    <hyperlink ref="D138" location="Amazon_API_Gateway" display="Amazon API Gateway" xr:uid="{C380069F-29C5-4353-8A5D-C2CC8993FCBB}"/>
-    <hyperlink ref="D139" r:id="rId89" xr:uid="{6003225A-CFB1-4BB4-A5AC-F392642FBC69}"/>
-    <hyperlink ref="D140" r:id="rId90" xr:uid="{01E0E593-F530-40AE-A249-8E868F9867AC}"/>
-    <hyperlink ref="D141" r:id="rId91" xr:uid="{BEC2F28F-372E-4EA7-B05C-3919664D327B}"/>
+    <hyperlink ref="D96" r:id="rId83" xr:uid="{D285F8CC-896D-4DE4-8986-FA132D610121}"/>
+    <hyperlink ref="D97" r:id="rId84" xr:uid="{6F010FBC-6559-46E8-B008-2689A3CC24E7}"/>
+    <hyperlink ref="D136" r:id="rId85" xr:uid="{2FDBB128-7B97-498F-91A7-3AA0D51A6477}"/>
+    <hyperlink ref="D135" r:id="rId86" xr:uid="{F2C0C066-7EF5-46B8-9AD6-718FAD36A112}"/>
+    <hyperlink ref="D137" r:id="rId87" xr:uid="{402C53D2-F2D2-444B-858A-2C33456854A3}"/>
+    <hyperlink ref="D138" r:id="rId88" xr:uid="{519C3DC5-04F8-485B-A8BE-4D37241E9037}"/>
+    <hyperlink ref="E139" location="Amazon_API_Gateway" display="Ver Api Gatehay" xr:uid="{202B654D-44C2-4042-A7D2-060620DE4C05}"/>
+    <hyperlink ref="D139" location="Amazon_API_Gateway" display="Amazon API Gateway" xr:uid="{C380069F-29C5-4353-8A5D-C2CC8993FCBB}"/>
+    <hyperlink ref="D140" r:id="rId89" xr:uid="{6003225A-CFB1-4BB4-A5AC-F392642FBC69}"/>
+    <hyperlink ref="D141" r:id="rId90" xr:uid="{01E0E593-F530-40AE-A249-8E868F9867AC}"/>
+    <hyperlink ref="D142" r:id="rId91" xr:uid="{BEC2F28F-372E-4EA7-B05C-3919664D327B}"/>
     <hyperlink ref="D3" r:id="rId92" xr:uid="{B90708B7-5E8F-4B91-A87F-E8B39E3BEC2D}"/>
     <hyperlink ref="D9" r:id="rId93" xr:uid="{43D9EB62-60EB-4111-9907-DCC1D026576D}"/>
     <hyperlink ref="D10" r:id="rId94" xr:uid="{7E8C0DC5-E89A-476C-9ACF-85AC2E886C8C}"/>
@@ -8273,10 +8309,12 @@
     <hyperlink ref="D55" location="AWS_Web_Application_Firewall__WAF" display="AWS WAF" xr:uid="{A0D82989-09F3-491F-8D12-C65E5CCF2E52}"/>
     <hyperlink ref="E56" location="AWS_Firewall_Manager" display="Ver Firewall Manager" xr:uid="{D4202369-BC9F-4643-BAE4-A6655E9FE95D}"/>
     <hyperlink ref="D56" location="AWS_Firewall_Manager" display="AWS Firewall Manager" xr:uid="{D14E4BAC-D080-4EE3-A24B-0607FDB252D7}"/>
+    <hyperlink ref="D12" r:id="rId107" xr:uid="{03B919A9-1B66-4481-8AFB-2090D3541B17}"/>
+    <hyperlink ref="D92" r:id="rId108" xr:uid="{85427BBB-C40E-4104-B2DB-9CA013CE608D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId107"/>
-  <drawing r:id="rId108"/>
+  <pageSetup orientation="portrait" r:id="rId109"/>
+  <drawing r:id="rId110"/>
 </worksheet>
 </file>
 
@@ -8284,8 +8322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8305,7 +8343,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="49" t="s">
         <v>362</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -8313,37 +8351,37 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="11" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="11" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="49" t="s">
         <v>363</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -8351,142 +8389,142 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="11" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="50" t="s">
         <v>383</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="28" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="28" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="28" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="28" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="53" t="s">
         <v>384</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="28" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="28" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="11" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="11" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="11" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="11" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="11" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="53" t="s">
         <v>385</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -8494,36 +8532,36 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="11" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="11" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="11" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="11" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="56" t="s">
         <v>386</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -8531,36 +8569,36 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="11" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="54"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="11" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="56" t="s">
         <v>392</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -8568,39 +8606,39 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="11" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="11" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="55"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="11" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -8664,7 +8702,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>452</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8675,7 +8713,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="15" t="s">
         <v>458</v>
       </c>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4B7AD-3BD0-4D81-BC1B-164D9F491645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B773AB-7222-4219-BB97-CF6A8CCE29F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,15 @@
     <sheet name="Informacion Adicional" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$115</definedName>
-    <definedName name="Amazon_API_Gateway">Servicios!$D$62</definedName>
-    <definedName name="Amazon_Redshift">Servicios!$D$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$116</definedName>
+    <definedName name="Amazon_API_Gateway">Servicios!$D$63</definedName>
+    <definedName name="Amazon_Redshift">Servicios!$D$116</definedName>
     <definedName name="Amazon_S3">Servicios!$D$17</definedName>
-    <definedName name="AWS_FamiliaSnow">Servicios!$D$43:$D$46</definedName>
-    <definedName name="AWS_Firewall_Manager">Servicios!$D$104</definedName>
-    <definedName name="AWS_Shield">Servicios!$D$102</definedName>
-    <definedName name="AWS_Web_Application_Firewall__WAF">Servicios!$D$103</definedName>
-    <definedName name="Familia_Snow">Servicios!$C$43</definedName>
+    <definedName name="AWS_FamiliaSnow">Servicios!$D$44:$D$47</definedName>
+    <definedName name="AWS_Firewall_Manager">Servicios!$D$105</definedName>
+    <definedName name="AWS_Shield">Servicios!$D$103</definedName>
+    <definedName name="AWS_Web_Application_Firewall__WAF">Servicios!$D$104</definedName>
+    <definedName name="Familia_Snow">Servicios!$C$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="641">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -2205,6 +2205,21 @@
   </si>
   <si>
     <t>La federación de identidades es un sistema de confianza entre dos partes con el fin de autenticar a los usuarios y transmitir la información necesaria para autorizar su acceso a los recursos. La federación es un enfoque común para construir sistemas de control de acceso que administran a los usuarios de manera centralizada dentro de un IdP central y gobiernan su acceso a múltiples aplicaciones y servicios que actúan como SP. La federación es una función de AWS que permite a los usuarios acceder y utilizar los recursos de AWS utilizando sus credenciales corporativas existentes.</t>
+  </si>
+  <si>
+    <t>CloudEndure Migration</t>
+  </si>
+  <si>
+    <t>La migración a la nube no tiene por qué ser una tarea compleja, lenta ni costosa. CloudEndure Migration es una solución “lift-and-shift” (realojamiento) altamente automatizada que simplifica, acelera y reduce el costo de la migración de aplicaciones a AWS Cloud, incluidas las regiones públicas, AWS GovCloud (EE. UU.) y AWS Outposts</t>
+  </si>
+  <si>
+    <t>Cloud migration does not need to be a complex, time consuming, or costly endeavor. CloudEndure Migration is a highly automated lift-and-shift (rehost) solution that simplifies, expedites, and reduces the cost of migrating applications to AWS Cloud – including public Regions, AWS GovCloud (US), and AWS Outposts.</t>
+  </si>
+  <si>
+    <t>Aplicaciones</t>
+  </si>
+  <si>
+    <t>Solución de migración “lift-and-shift” de aplicaciones altamente automatizada</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2501,37 +2516,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2553,6 +2547,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2614,13 +2632,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2662,13 +2680,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2710,13 +2728,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2758,13 +2776,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2806,13 +2824,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2854,13 +2872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2902,13 +2920,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2950,13 +2968,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2998,13 +3016,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3046,13 +3064,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3094,13 +3112,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3142,13 +3160,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5797,13 +5815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5837,8 +5855,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="41" t="s">
         <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5855,8 +5873,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="4" t="s">
         <v>248</v>
       </c>
@@ -5871,8 +5889,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="4" t="s">
         <v>250</v>
       </c>
@@ -5887,8 +5905,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
         <v>251</v>
       </c>
@@ -5903,8 +5921,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="4" t="s">
         <v>252</v>
       </c>
@@ -5919,8 +5937,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="41" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5937,8 +5955,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="4" t="s">
         <v>256</v>
       </c>
@@ -5953,8 +5971,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
         <v>257</v>
       </c>
@@ -5969,8 +5987,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="4" t="s">
         <v>259</v>
       </c>
@@ -5985,7 +6003,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="18" t="s">
         <v>261</v>
       </c>
@@ -6003,8 +6021,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="41" t="s">
         <v>263</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6021,8 +6039,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="4" t="s">
         <v>266</v>
       </c>
@@ -6035,8 +6053,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="4" t="s">
         <v>268</v>
       </c>
@@ -6051,8 +6069,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="4" t="s">
         <v>269</v>
       </c>
@@ -6067,8 +6085,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="4" t="s">
         <v>271</v>
       </c>
@@ -6083,10 +6101,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="45" t="s">
         <v>274</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -6103,8 +6121,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="18" t="s">
         <v>292</v>
       </c>
@@ -6119,7 +6137,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="19" t="s">
         <v>277</v>
       </c>
@@ -6137,8 +6155,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="45" t="s">
         <v>276</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -6155,8 +6173,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="18" t="s">
         <v>281</v>
       </c>
@@ -6171,8 +6189,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="18" t="s">
         <v>283</v>
       </c>
@@ -6187,8 +6205,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="46" t="s">
         <v>284</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -6205,8 +6223,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="18" t="s">
         <v>287</v>
       </c>
@@ -6221,8 +6239,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="18" t="s">
         <v>289</v>
       </c>
@@ -6237,8 +6255,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="18" t="s">
         <v>290</v>
       </c>
@@ -6251,7 +6269,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="4" t="s">
         <v>291</v>
       </c>
@@ -6265,13 +6283,13 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="41" t="s">
         <v>342</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6285,9 +6303,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="10" t="s">
         <v>45</v>
       </c>
@@ -6299,9 +6317,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="8" t="s">
         <v>131</v>
       </c>
@@ -6311,8 +6329,8 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="47" t="s">
         <v>344</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -6329,8 +6347,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
         <v>472</v>
@@ -6343,7 +6361,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="18" t="s">
         <v>345</v>
       </c>
@@ -6361,7 +6379,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="18" t="s">
         <v>349</v>
       </c>
@@ -6379,7 +6397,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="18" t="s">
         <v>350</v>
       </c>
@@ -6397,7 +6415,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="18" t="s">
         <v>353</v>
       </c>
@@ -6415,7 +6433,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="18" t="s">
         <v>356</v>
       </c>
@@ -6433,7 +6451,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="18" t="s">
         <v>359</v>
       </c>
@@ -6451,7 +6469,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -6471,7 +6489,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="18" t="s">
         <v>471</v>
       </c>
@@ -6488,1710 +6506,1728 @@
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="18" t="s">
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="18" t="s">
+    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="29" t="s">
+    <row r="44" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C44" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="2" t="s">
+    <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="2" t="s">
+    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="2" t="s">
+    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+    <row r="48" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B48" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="4" t="s">
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="4" t="s">
+    <row r="50" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="4" t="s">
+    <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="4" t="s">
+    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="29" t="s">
+    <row r="53" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
+      <c r="B53" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="4" t="s">
+    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="29" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="34"/>
+      <c r="B55" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="4" t="s">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E56" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="4" t="s">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E57" s="25" t="s">
         <v>623</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="29" t="s">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34"/>
+      <c r="B58" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E58" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F58" s="32" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="4" t="s">
+    <row r="59" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-    </row>
-    <row r="59" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+    </row>
+    <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="34"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="18" t="s">
+    <row r="61" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A61" s="34"/>
+      <c r="B61" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="29" t="s">
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="4" t="s">
+    <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="34"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="4" t="s">
+    <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="34"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="45" t="s">
+    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B65" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="4" t="s">
+    <row r="66" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="4" t="s">
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="4" t="s">
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="4" t="s">
+    <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="4" t="s">
+    <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="B70" s="4" t="s">
+    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
+      <c r="B71" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="4" t="s">
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
+      <c r="B72" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="42" t="s">
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="4" t="s">
+    <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="42" t="s">
+    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="4" t="s">
+    <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="20" t="s">
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="2" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4" t="s">
+    <row r="79" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A79" s="34"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="45" t="s">
+    <row r="80" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" s="34"/>
+      <c r="B80" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="4" t="s">
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="34"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
+    <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="34"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="34"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="34"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="38" t="s">
-        <v>137</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A85" s="34"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
+        <v>137</v>
+      </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="42"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21" t="s">
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="42"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D88" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
+    <row r="89" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B89" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C89" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D89" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="21" t="s">
+    <row r="90" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="34"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="21" t="s">
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="34"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="21" t="s">
+    <row r="92" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A92" s="34"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="8" t="s">
+    <row r="93" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A93" s="34"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="21" t="s">
+    <row r="94" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A94" s="34"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="21" t="s">
+    <row r="95" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="34"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D95" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="21" t="s">
+    <row r="96" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A96" s="34"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
-      <c r="B96" s="39" t="s">
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="34"/>
+      <c r="B97" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C97" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="21" t="s">
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="34"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="21" t="s">
+    <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="34"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="21" t="s">
+    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" s="34"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="41"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="21" t="s">
+    <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="34"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="21" t="s">
+    <row r="102" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="34"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D102" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="40" t="s">
+    <row r="103" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A103" s="34"/>
+      <c r="B103" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C103" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F103" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="21" t="s">
+    <row r="104" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A104" s="34"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="21" t="s">
+    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="34"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D105" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
-      <c r="B105" s="40" t="s">
+    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="34"/>
+      <c r="B106" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C106" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D106" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A106" s="41"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="21" t="s">
+    <row r="107" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A107" s="34"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="21" t="s">
+    <row r="108" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A108" s="34"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="3" t="s">
+    <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="34"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="21" t="s">
+    <row r="110" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="34"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="39" t="s">
+    <row r="111" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A111" s="34"/>
+      <c r="B111" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C111" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D111" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="21" t="s">
+    <row r="112" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A112" s="34"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D112" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
-      <c r="B112" s="17" t="s">
+    <row r="113" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A113" s="34"/>
+      <c r="B113" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
+    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B114" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C114" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="18" t="s">
+    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="31"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A115" s="30"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="21" t="s">
+    <row r="116" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A116" s="31"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A116" s="30"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="21" t="s">
+    <row r="117" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A117" s="31"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F117" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="21" t="s">
+    <row r="118" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118" s="31"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F118" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="21" t="s">
+    <row r="119" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="31"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E119" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F119" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="21" t="s">
+    <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="31"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F120" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="37" t="s">
+    <row r="121" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A121" s="31"/>
+      <c r="B121" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="37" t="s">
+      <c r="C121" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E121" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="9" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="31"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="37"/>
+      <c r="A123" s="31"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
       <c r="D123" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="37"/>
+      <c r="A124" s="31"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
       <c r="D124" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="37" t="s">
+      <c r="A125" s="31"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="31"/>
+      <c r="B126" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="C125" s="37" t="s">
+      <c r="C126" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D126" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="F125" s="9"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="9" t="s">
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="31"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37" t="s">
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="31"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D128" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="F127" s="9"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="30"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="9" t="s">
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="31"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="30"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="37"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30" t="s">
+        <v>305</v>
+      </c>
       <c r="D130" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="30"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="21" t="s">
-        <v>306</v>
-      </c>
+      <c r="A131" s="31"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
       <c r="D131" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="30"/>
-      <c r="B132" s="37" t="s">
-        <v>307</v>
-      </c>
+      <c r="A132" s="31"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="30"/>
-      <c r="B133" s="37"/>
+      <c r="A133" s="31"/>
+      <c r="B133" s="30" t="s">
+        <v>307</v>
+      </c>
       <c r="C133" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A134" s="30" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="31"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A135" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="B134" s="37" t="s">
+      <c r="B135" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="37"/>
-      <c r="C135" s="4" t="s">
+    <row r="136" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A136" s="31"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E136" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="37"/>
-      <c r="C136" s="4" t="s">
+    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="31"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D137" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E137" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F137" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="30"/>
-      <c r="B137" s="37" t="s">
+    <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A138" s="31"/>
+      <c r="B138" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D138" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E138" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A138" s="30"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="4" t="s">
+    <row r="139" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A139" s="31"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E139" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="30"/>
-      <c r="B139" s="37" t="s">
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="31"/>
+      <c r="B140" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D140" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E140" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="30"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="4" t="s">
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="31"/>
+      <c r="B141" s="30"/>
+      <c r="C141" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E141" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A141" s="30"/>
-      <c r="B141" s="21" t="s">
+    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="31"/>
+      <c r="B142" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E142" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A142" s="30"/>
-      <c r="B142" s="21" t="s">
+    <row r="143" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A143" s="31"/>
+      <c r="B143" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E143" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
+    <row r="144" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21" t="s">
+      <c r="B144" s="21"/>
+      <c r="C144" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D144" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E144" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>517</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="A134:A142"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A88:A112"/>
-    <mergeCell ref="A77:A84"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A64:A76"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A47:A63"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="B125:B131"/>
-    <mergeCell ref="A113:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A39:A47"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A27"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="A114:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A135:A143"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A89:A113"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{9B5F3B7B-A5CA-47C6-8A2C-5DC8E43357C6}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{0452C04E-AA7D-4E4C-BE8B-CDC9FBBAEAF9}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{A04EF8C0-43A1-49B3-B444-7D9171735EA7}"/>
-    <hyperlink ref="D70" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
+    <hyperlink ref="D71" r:id="rId5" xr:uid="{C1A81D39-476E-4293-9744-7078BE92A9A6}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{9B82B932-2E31-48CB-9386-4A39DAA93DB7}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{47ED8E4E-C06F-48CE-B798-57C18F66BA34}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{12FF32E3-8D5A-4731-A795-B31E4904B6A3}"/>
@@ -8204,88 +8240,88 @@
     <hyperlink ref="D31" r:id="rId15" xr:uid="{754C0BF7-C960-4CE2-A36A-D3E0B7DD9924}"/>
     <hyperlink ref="D33" r:id="rId16" xr:uid="{92FDB584-7359-4DD3-AA7F-69DDC5DE0BB5}"/>
     <hyperlink ref="D39" r:id="rId17" xr:uid="{223F8CC6-E14B-4FEF-8604-4EEE8BD0662B}"/>
-    <hyperlink ref="D41" r:id="rId18" display="AWS Database Migration Service" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
-    <hyperlink ref="D42" r:id="rId19" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
-    <hyperlink ref="D44" r:id="rId20" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
-    <hyperlink ref="D43" r:id="rId21" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
-    <hyperlink ref="D47" r:id="rId22" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
-    <hyperlink ref="D60" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
-    <hyperlink ref="D59" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
-    <hyperlink ref="D52" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
-    <hyperlink ref="D65" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
-    <hyperlink ref="D66" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
-    <hyperlink ref="D68" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
-    <hyperlink ref="D69" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
-    <hyperlink ref="D77" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
-    <hyperlink ref="D78" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
-    <hyperlink ref="D79" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
-    <hyperlink ref="D82" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
-    <hyperlink ref="D80" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
-    <hyperlink ref="D81" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
-    <hyperlink ref="D83" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
-    <hyperlink ref="D113" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
-    <hyperlink ref="D85" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
-    <hyperlink ref="D114" r:id="rId39" display="Amazon EMR" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
-    <hyperlink ref="D115" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
-    <hyperlink ref="D89" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
-    <hyperlink ref="D91" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
-    <hyperlink ref="D93" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
-    <hyperlink ref="D95" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
-    <hyperlink ref="D98" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
-    <hyperlink ref="D102" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
-    <hyperlink ref="D103" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
-    <hyperlink ref="D106" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
-    <hyperlink ref="D107" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
-    <hyperlink ref="D108" r:id="rId50" display="AWS Certificate Manager" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
-    <hyperlink ref="D99" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
-    <hyperlink ref="D100" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
-    <hyperlink ref="E54" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
+    <hyperlink ref="D42" r:id="rId18" display="AWS Database Migration Service" xr:uid="{E6DF3906-307F-4648-98A7-79A580374A0B}"/>
+    <hyperlink ref="D43" r:id="rId19" xr:uid="{DDA08884-31C2-4653-98BA-F827529DF254}"/>
+    <hyperlink ref="D45" r:id="rId20" xr:uid="{0D557B9D-D249-4103-B9E2-236D6498FAD1}"/>
+    <hyperlink ref="D44" r:id="rId21" xr:uid="{81444B67-13BE-49BE-AAC1-903BFC504425}"/>
+    <hyperlink ref="D48" r:id="rId22" xr:uid="{66FF31B4-2736-4F28-B8B5-470C88557185}"/>
+    <hyperlink ref="D61" r:id="rId23" xr:uid="{90144E80-A7A2-44AC-8F36-500FFBF0F17B}"/>
+    <hyperlink ref="D60" r:id="rId24" xr:uid="{AF3E432B-9B73-4CA8-A005-2E37E8AE123F}"/>
+    <hyperlink ref="D53" r:id="rId25" xr:uid="{35DE9A77-9C55-4D96-BF9D-ABAB92DE1E7D}"/>
+    <hyperlink ref="D66" r:id="rId26" xr:uid="{606BE519-5665-4C2E-903B-9F7E4C1B7F04}"/>
+    <hyperlink ref="D67" r:id="rId27" xr:uid="{C324A987-E550-4274-8108-28BD3060D9AE}"/>
+    <hyperlink ref="D69" r:id="rId28" xr:uid="{8C2A1604-5B0E-4B77-BF63-F9264C38635E}"/>
+    <hyperlink ref="D70" r:id="rId29" xr:uid="{86A06D0D-3503-469F-90A6-59FC728DBFCC}"/>
+    <hyperlink ref="D78" r:id="rId30" xr:uid="{9D59D7DB-E2ED-4DD7-A46B-B6129EF7777E}"/>
+    <hyperlink ref="D79" r:id="rId31" xr:uid="{35134FB2-1687-4DE8-94E3-581222FC5F97}"/>
+    <hyperlink ref="D80" r:id="rId32" xr:uid="{08F006CB-9882-490E-8DC4-97892B59378A}"/>
+    <hyperlink ref="D83" r:id="rId33" xr:uid="{E4A3C0BA-1000-4741-99BC-62D8FD55BD11}"/>
+    <hyperlink ref="D81" r:id="rId34" xr:uid="{86941073-44D2-4204-9646-54E9C82D5DC9}"/>
+    <hyperlink ref="D82" r:id="rId35" xr:uid="{339E3802-B36D-4AF5-B428-2FC3725C7FEA}"/>
+    <hyperlink ref="D84" r:id="rId36" xr:uid="{F5820D15-6864-4315-A55A-7F61D17B66F6}"/>
+    <hyperlink ref="D114" r:id="rId37" xr:uid="{281CCB90-122F-47FC-949B-6554DA99DB7A}"/>
+    <hyperlink ref="D86" r:id="rId38" xr:uid="{57DD58E5-8362-437E-8B52-39F0445EC7D8}"/>
+    <hyperlink ref="D115" r:id="rId39" display="Amazon EMR" xr:uid="{57E6D0A6-7815-432E-ADB2-C9C42E01A62A}"/>
+    <hyperlink ref="D116" r:id="rId40" xr:uid="{11DC2A8B-6EB9-42AD-B3F5-D23A9908D00F}"/>
+    <hyperlink ref="D90" r:id="rId41" xr:uid="{5D58D667-42A5-4C3C-866A-87CC11F9D124}"/>
+    <hyperlink ref="D92" r:id="rId42" xr:uid="{FCAB745C-3B59-4DCB-A070-DA62259F780A}"/>
+    <hyperlink ref="D94" r:id="rId43" xr:uid="{4E5C9710-CD8D-4DF7-B920-70F9025C8E07}"/>
+    <hyperlink ref="D96" r:id="rId44" xr:uid="{057A9B12-F96C-4539-AEC6-36059C425946}"/>
+    <hyperlink ref="D99" r:id="rId45" xr:uid="{F01C46D4-5AA2-4223-939B-83D770A0BFA5}"/>
+    <hyperlink ref="D103" r:id="rId46" xr:uid="{A740AC54-5EAB-4F6F-A967-7C54E2D726DC}"/>
+    <hyperlink ref="D104" r:id="rId47" xr:uid="{FFC771BD-B5F0-40AA-97B8-E054E83ACDD2}"/>
+    <hyperlink ref="D107" r:id="rId48" xr:uid="{136BCBC4-6B1E-4C98-9D63-EE8B1D248B36}"/>
+    <hyperlink ref="D108" r:id="rId49" xr:uid="{248A287C-6186-4A8E-91CA-9CFEDF1BB72B}"/>
+    <hyperlink ref="D109" r:id="rId50" display="AWS Certificate Manager" xr:uid="{4D8A9301-1778-4B19-A786-A3D1BACB9FF8}"/>
+    <hyperlink ref="D100" r:id="rId51" xr:uid="{BA80B6B2-8734-4E19-A571-3AED22A1AED1}"/>
+    <hyperlink ref="D101" r:id="rId52" xr:uid="{78749994-6D6A-4AD4-BC61-1146415B098A}"/>
+    <hyperlink ref="E55" location="AWS_Shield" display="Ver Definicion en Seguridad" xr:uid="{8EB371FB-11D3-425B-9025-E47F6C90D0D8}"/>
     <hyperlink ref="D6" r:id="rId53" display="WS-Batch_Icon_32_Squid AWS Batch" xr:uid="{2804486C-FEC1-42AC-AB75-F7030E15D0F4}"/>
-    <hyperlink ref="D86" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
-    <hyperlink ref="D87" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
+    <hyperlink ref="D87" r:id="rId54" xr:uid="{E511531A-9185-465D-9B84-3B5D1623A375}"/>
+    <hyperlink ref="D88" r:id="rId55" xr:uid="{4BFE2314-F0AB-4B16-809F-78CC1E84187D}"/>
     <hyperlink ref="D26" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{4746361F-EC10-4BFB-A46D-4B92FDB9897D}"/>
     <hyperlink ref="D27" location="AWS_FamiliaSnow" display="Familia de productos AWS Snow" xr:uid="{154EC12F-1FC2-4537-BDB7-9683A6CB9FB8}"/>
     <hyperlink ref="D30" location="Amazon_Redshift" display="Amazon Redshift" xr:uid="{7AE7E9A3-53BC-4B15-A8C4-56294B3E5E35}"/>
-    <hyperlink ref="D71" r:id="rId56" xr:uid="{F7F20B19-F42C-4946-8595-6B7DAE268AD3}"/>
-    <hyperlink ref="D64" r:id="rId57" xr:uid="{C722DBA6-1EBB-48B6-911E-5A34565CC3B7}"/>
-    <hyperlink ref="D73" r:id="rId58" display="https://aws.amazon.com/cli/" xr:uid="{226E5FFD-1B22-48A9-937F-820E657F97C9}"/>
-    <hyperlink ref="D72" r:id="rId59" xr:uid="{0214839F-6AA7-44C9-9B64-D4150403EA2C}"/>
-    <hyperlink ref="D76" r:id="rId60" xr:uid="{169E646D-B5A4-473E-A6AF-C33E9687D7F6}"/>
-    <hyperlink ref="D74" r:id="rId61" xr:uid="{83EF94BC-B020-45C4-BD97-34175F575C58}"/>
-    <hyperlink ref="E125" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{DD100AC8-6BDE-4F4E-84A7-09629C91214A}"/>
+    <hyperlink ref="D72" r:id="rId56" xr:uid="{F7F20B19-F42C-4946-8595-6B7DAE268AD3}"/>
+    <hyperlink ref="D65" r:id="rId57" xr:uid="{C722DBA6-1EBB-48B6-911E-5A34565CC3B7}"/>
+    <hyperlink ref="D74" r:id="rId58" display="https://aws.amazon.com/cli/" xr:uid="{226E5FFD-1B22-48A9-937F-820E657F97C9}"/>
+    <hyperlink ref="D73" r:id="rId59" xr:uid="{0214839F-6AA7-44C9-9B64-D4150403EA2C}"/>
+    <hyperlink ref="D77" r:id="rId60" xr:uid="{169E646D-B5A4-473E-A6AF-C33E9687D7F6}"/>
+    <hyperlink ref="D75" r:id="rId61" xr:uid="{83EF94BC-B020-45C4-BD97-34175F575C58}"/>
+    <hyperlink ref="E126" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{DD100AC8-6BDE-4F4E-84A7-09629C91214A}"/>
     <hyperlink ref="D32" r:id="rId62" xr:uid="{B20AD222-C821-4CBF-B094-CEAA7B8A3200}"/>
-    <hyperlink ref="D105" r:id="rId63" xr:uid="{0119CB9D-577C-47F4-88AC-6107CC489E5F}"/>
-    <hyperlink ref="D104" r:id="rId64" xr:uid="{B775A593-2D06-4F95-84DB-E5713A371954}"/>
-    <hyperlink ref="D134" r:id="rId65" display="https://aws.amazon.com/sns/" xr:uid="{6AF41E67-CD24-41E2-B9CA-430BFC5C475E}"/>
-    <hyperlink ref="D118" r:id="rId66" xr:uid="{58316A02-A9FE-47EF-933C-598BF797D617}"/>
-    <hyperlink ref="D143" r:id="rId67" display="https://aws.amazon.com/professional-services/CAF/" xr:uid="{5C52581F-6C72-4E0D-838D-B84D148EA140}"/>
-    <hyperlink ref="E127" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{20773060-4A21-42C3-A16C-013AA8DBD607}"/>
-    <hyperlink ref="D109" r:id="rId68" xr:uid="{D330D226-AAF3-45C5-8AC1-C8D6CABD70BC}"/>
-    <hyperlink ref="D110" r:id="rId69" xr:uid="{E2FBADDE-7F21-452B-AB2F-6C594653F683}"/>
-    <hyperlink ref="D111" r:id="rId70" xr:uid="{6E3DF75E-E92D-4A6C-9E69-8463809A6455}"/>
-    <hyperlink ref="D112" r:id="rId71" xr:uid="{B607C4F7-C4C0-4A3B-A78F-9FFC586648D8}"/>
-    <hyperlink ref="D116" r:id="rId72" xr:uid="{35EA7AC3-83F4-495E-8C64-D99FCFDBD303}"/>
-    <hyperlink ref="D117" r:id="rId73" xr:uid="{E87ADCD0-FA16-4BCF-B7DA-5514BFD480E6}"/>
-    <hyperlink ref="D119" r:id="rId74" xr:uid="{B7BFA75D-88D3-4318-8521-E0DBE2B0095D}"/>
-    <hyperlink ref="D120" r:id="rId75" xr:uid="{1B4B6748-45D5-4647-AB2F-7C056E4D24F6}"/>
-    <hyperlink ref="D88" r:id="rId76" xr:uid="{D9F94259-119C-47E6-9A7A-C42A9110CAD0}"/>
-    <hyperlink ref="D90" r:id="rId77" xr:uid="{AB46BDED-F7AE-45AB-B804-F116170B81C1}"/>
-    <hyperlink ref="D94" r:id="rId78" xr:uid="{5EA0D2CF-98C6-48A8-A584-81506D3327DD}"/>
-    <hyperlink ref="D101" r:id="rId79" xr:uid="{42F97031-3424-45CA-AE0D-C5EF35EA8107}"/>
-    <hyperlink ref="D61" r:id="rId80" xr:uid="{B6341584-622A-4ACC-9049-009707CB9A24}"/>
-    <hyperlink ref="D62" r:id="rId81" xr:uid="{AB542A94-42C6-4813-BEDC-38C5AAE0CAEF}"/>
-    <hyperlink ref="D63" r:id="rId82" xr:uid="{1B0AA61A-1F92-4D00-A418-EC59DFD62505}"/>
-    <hyperlink ref="D96" r:id="rId83" xr:uid="{D285F8CC-896D-4DE4-8986-FA132D610121}"/>
-    <hyperlink ref="D97" r:id="rId84" xr:uid="{6F010FBC-6559-46E8-B008-2689A3CC24E7}"/>
-    <hyperlink ref="D136" r:id="rId85" xr:uid="{2FDBB128-7B97-498F-91A7-3AA0D51A6477}"/>
-    <hyperlink ref="D135" r:id="rId86" xr:uid="{F2C0C066-7EF5-46B8-9AD6-718FAD36A112}"/>
-    <hyperlink ref="D137" r:id="rId87" xr:uid="{402C53D2-F2D2-444B-858A-2C33456854A3}"/>
-    <hyperlink ref="D138" r:id="rId88" xr:uid="{519C3DC5-04F8-485B-A8BE-4D37241E9037}"/>
-    <hyperlink ref="E139" location="Amazon_API_Gateway" display="Ver Api Gatehay" xr:uid="{202B654D-44C2-4042-A7D2-060620DE4C05}"/>
-    <hyperlink ref="D139" location="Amazon_API_Gateway" display="Amazon API Gateway" xr:uid="{C380069F-29C5-4353-8A5D-C2CC8993FCBB}"/>
-    <hyperlink ref="D140" r:id="rId89" xr:uid="{6003225A-CFB1-4BB4-A5AC-F392642FBC69}"/>
-    <hyperlink ref="D141" r:id="rId90" xr:uid="{01E0E593-F530-40AE-A249-8E868F9867AC}"/>
-    <hyperlink ref="D142" r:id="rId91" xr:uid="{BEC2F28F-372E-4EA7-B05C-3919664D327B}"/>
+    <hyperlink ref="D106" r:id="rId63" xr:uid="{0119CB9D-577C-47F4-88AC-6107CC489E5F}"/>
+    <hyperlink ref="D105" r:id="rId64" xr:uid="{B775A593-2D06-4F95-84DB-E5713A371954}"/>
+    <hyperlink ref="D135" r:id="rId65" display="https://aws.amazon.com/sns/" xr:uid="{6AF41E67-CD24-41E2-B9CA-430BFC5C475E}"/>
+    <hyperlink ref="D119" r:id="rId66" xr:uid="{58316A02-A9FE-47EF-933C-598BF797D617}"/>
+    <hyperlink ref="D144" r:id="rId67" display="https://aws.amazon.com/professional-services/CAF/" xr:uid="{5C52581F-6C72-4E0D-838D-B84D148EA140}"/>
+    <hyperlink ref="E128" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{20773060-4A21-42C3-A16C-013AA8DBD607}"/>
+    <hyperlink ref="D110" r:id="rId68" xr:uid="{D330D226-AAF3-45C5-8AC1-C8D6CABD70BC}"/>
+    <hyperlink ref="D111" r:id="rId69" xr:uid="{E2FBADDE-7F21-452B-AB2F-6C594653F683}"/>
+    <hyperlink ref="D112" r:id="rId70" xr:uid="{6E3DF75E-E92D-4A6C-9E69-8463809A6455}"/>
+    <hyperlink ref="D113" r:id="rId71" xr:uid="{B607C4F7-C4C0-4A3B-A78F-9FFC586648D8}"/>
+    <hyperlink ref="D117" r:id="rId72" xr:uid="{35EA7AC3-83F4-495E-8C64-D99FCFDBD303}"/>
+    <hyperlink ref="D118" r:id="rId73" xr:uid="{E87ADCD0-FA16-4BCF-B7DA-5514BFD480E6}"/>
+    <hyperlink ref="D120" r:id="rId74" xr:uid="{B7BFA75D-88D3-4318-8521-E0DBE2B0095D}"/>
+    <hyperlink ref="D121" r:id="rId75" xr:uid="{1B4B6748-45D5-4647-AB2F-7C056E4D24F6}"/>
+    <hyperlink ref="D89" r:id="rId76" xr:uid="{D9F94259-119C-47E6-9A7A-C42A9110CAD0}"/>
+    <hyperlink ref="D91" r:id="rId77" xr:uid="{AB46BDED-F7AE-45AB-B804-F116170B81C1}"/>
+    <hyperlink ref="D95" r:id="rId78" xr:uid="{5EA0D2CF-98C6-48A8-A584-81506D3327DD}"/>
+    <hyperlink ref="D102" r:id="rId79" xr:uid="{42F97031-3424-45CA-AE0D-C5EF35EA8107}"/>
+    <hyperlink ref="D62" r:id="rId80" xr:uid="{B6341584-622A-4ACC-9049-009707CB9A24}"/>
+    <hyperlink ref="D63" r:id="rId81" xr:uid="{AB542A94-42C6-4813-BEDC-38C5AAE0CAEF}"/>
+    <hyperlink ref="D64" r:id="rId82" xr:uid="{1B0AA61A-1F92-4D00-A418-EC59DFD62505}"/>
+    <hyperlink ref="D97" r:id="rId83" xr:uid="{D285F8CC-896D-4DE4-8986-FA132D610121}"/>
+    <hyperlink ref="D98" r:id="rId84" xr:uid="{6F010FBC-6559-46E8-B008-2689A3CC24E7}"/>
+    <hyperlink ref="D137" r:id="rId85" xr:uid="{2FDBB128-7B97-498F-91A7-3AA0D51A6477}"/>
+    <hyperlink ref="D136" r:id="rId86" xr:uid="{F2C0C066-7EF5-46B8-9AD6-718FAD36A112}"/>
+    <hyperlink ref="D138" r:id="rId87" xr:uid="{402C53D2-F2D2-444B-858A-2C33456854A3}"/>
+    <hyperlink ref="D139" r:id="rId88" xr:uid="{519C3DC5-04F8-485B-A8BE-4D37241E9037}"/>
+    <hyperlink ref="E140" location="Amazon_API_Gateway" display="Ver Api Gatehay" xr:uid="{202B654D-44C2-4042-A7D2-060620DE4C05}"/>
+    <hyperlink ref="D140" location="Amazon_API_Gateway" display="Amazon API Gateway" xr:uid="{C380069F-29C5-4353-8A5D-C2CC8993FCBB}"/>
+    <hyperlink ref="D141" r:id="rId89" xr:uid="{6003225A-CFB1-4BB4-A5AC-F392642FBC69}"/>
+    <hyperlink ref="D142" r:id="rId90" xr:uid="{01E0E593-F530-40AE-A249-8E868F9867AC}"/>
+    <hyperlink ref="D143" r:id="rId91" xr:uid="{BEC2F28F-372E-4EA7-B05C-3919664D327B}"/>
     <hyperlink ref="D3" r:id="rId92" xr:uid="{B90708B7-5E8F-4B91-A87F-E8B39E3BEC2D}"/>
     <hyperlink ref="D9" r:id="rId93" xr:uid="{43D9EB62-60EB-4111-9907-DCC1D026576D}"/>
     <hyperlink ref="D10" r:id="rId94" xr:uid="{7E8C0DC5-E89A-476C-9ACF-85AC2E886C8C}"/>
@@ -8304,17 +8340,18 @@
     <hyperlink ref="D36" r:id="rId103" xr:uid="{5144917E-2E22-4512-9D00-2A0F103DC769}"/>
     <hyperlink ref="D37" r:id="rId104" xr:uid="{BA2291C6-B10E-4263-99F9-9935F39C645B}"/>
     <hyperlink ref="D38" r:id="rId105" xr:uid="{B031E878-4553-40F4-B879-D946F5B068CB}"/>
-    <hyperlink ref="D53" r:id="rId106" xr:uid="{CBEE08DE-64A9-4BF2-90F9-4E1577D37325}"/>
-    <hyperlink ref="E55" location="AWS_Web_Application_Firewall__WAF" display="Ver WAF" xr:uid="{2E2B85F0-CA0E-450F-8558-979889655075}"/>
-    <hyperlink ref="D55" location="AWS_Web_Application_Firewall__WAF" display="AWS WAF" xr:uid="{A0D82989-09F3-491F-8D12-C65E5CCF2E52}"/>
-    <hyperlink ref="E56" location="AWS_Firewall_Manager" display="Ver Firewall Manager" xr:uid="{D4202369-BC9F-4643-BAE4-A6655E9FE95D}"/>
-    <hyperlink ref="D56" location="AWS_Firewall_Manager" display="AWS Firewall Manager" xr:uid="{D14E4BAC-D080-4EE3-A24B-0607FDB252D7}"/>
+    <hyperlink ref="D54" r:id="rId106" xr:uid="{CBEE08DE-64A9-4BF2-90F9-4E1577D37325}"/>
+    <hyperlink ref="E56" location="AWS_Web_Application_Firewall__WAF" display="Ver WAF" xr:uid="{2E2B85F0-CA0E-450F-8558-979889655075}"/>
+    <hyperlink ref="D56" location="AWS_Web_Application_Firewall__WAF" display="AWS WAF" xr:uid="{A0D82989-09F3-491F-8D12-C65E5CCF2E52}"/>
+    <hyperlink ref="E57" location="AWS_Firewall_Manager" display="Ver Firewall Manager" xr:uid="{D4202369-BC9F-4643-BAE4-A6655E9FE95D}"/>
+    <hyperlink ref="D57" location="AWS_Firewall_Manager" display="AWS Firewall Manager" xr:uid="{D14E4BAC-D080-4EE3-A24B-0607FDB252D7}"/>
     <hyperlink ref="D12" r:id="rId107" xr:uid="{03B919A9-1B66-4481-8AFB-2090D3541B17}"/>
-    <hyperlink ref="D92" r:id="rId108" xr:uid="{85427BBB-C40E-4104-B2DB-9CA013CE608D}"/>
+    <hyperlink ref="D93" r:id="rId108" xr:uid="{85427BBB-C40E-4104-B2DB-9CA013CE608D}"/>
+    <hyperlink ref="D41" r:id="rId109" xr:uid="{EA561BD6-5B14-4F82-A384-D125F8D45984}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId109"/>
-  <drawing r:id="rId110"/>
+  <pageSetup orientation="portrait" r:id="rId110"/>
+  <drawing r:id="rId111"/>
 </worksheet>
 </file>
 
@@ -8343,7 +8380,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>362</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -8351,37 +8388,37 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="11" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="11" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>363</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -8389,35 +8426,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="11" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>383</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -8426,8 +8463,8 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="11" t="s">
         <v>367</v>
       </c>
@@ -8436,8 +8473,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="11" t="s">
         <v>368</v>
       </c>
@@ -8446,8 +8483,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="11" t="s">
         <v>369</v>
       </c>
@@ -8456,8 +8493,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="11" t="s">
         <v>370</v>
       </c>
@@ -8466,8 +8503,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="54" t="s">
         <v>384</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -8478,8 +8515,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="11" t="s">
         <v>372</v>
       </c>
@@ -8488,43 +8525,43 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="11" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="11" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="11" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="11" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="11" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="54" t="s">
         <v>385</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -8532,36 +8569,36 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="11" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="11" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="11" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="11" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="57" t="s">
         <v>386</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -8569,36 +8606,36 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="57"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="11" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="57"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="11" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="57" t="s">
         <v>392</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -8606,39 +8643,39 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="57"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="11" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="57"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="11" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="57"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="11" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -8702,7 +8739,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>452</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8713,7 +8750,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="15" t="s">
         <v>458</v>
       </c>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B773AB-7222-4219-BB97-CF6A8CCE29F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7597C8BD-C063-4A6E-8254-F9AEB7596626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2021,9 +2021,6 @@
     <t>Amazon Managed Workflows for Apache Airflow (MWAA) is a managed orchestration service for Apache Airflow1 that makes it easier to set up and operate end-to-end data pipelines in the cloud at scale. Apache Airflow is an open-source tool used to programmatically author, schedule, and monitor sequences of processes and tasks referred to as “workflows.</t>
   </si>
   <si>
-    <t>Ver Api Gatehay</t>
-  </si>
-  <si>
     <t>AWS AppSync es un servicio completamente administrado que facilita el desarrollo de API de GraphQL ya que se encarga de la ardua tarea de conectar de manera segura los orígenes de datos como AWS DynamoDB, Lambda y más</t>
   </si>
   <si>
@@ -2220,6 +2217,9 @@
   </si>
   <si>
     <t>Solución de migración “lift-and-shift” de aplicaciones altamente automatizada</t>
+  </si>
+  <si>
+    <t>Ver Api Gateway</t>
   </si>
 </sst>
 </file>
@@ -2516,16 +2516,40 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2547,30 +2571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5818,10 +5818,10 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="30" t="s">
         <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5874,7 +5874,7 @@
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
-      <c r="B3" s="41"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="4" t="s">
         <v>248</v>
       </c>
@@ -5882,15 +5882,15 @@
         <v>249</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
-      <c r="B4" s="41"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="4" t="s">
         <v>250</v>
       </c>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="4" t="s">
         <v>251</v>
       </c>
@@ -5922,12 +5922,12 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
-      <c r="B6" s="41"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="30" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5956,7 +5956,7 @@
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
-      <c r="B8" s="41"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="4" t="s">
         <v>256</v>
       </c>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
-      <c r="B9" s="41"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>257</v>
       </c>
@@ -5980,15 +5980,15 @@
         <v>258</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="B10" s="41"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="4" t="s">
         <v>259</v>
       </c>
@@ -5996,10 +5996,10 @@
         <v>260</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6022,7 +6022,7 @@
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="30" t="s">
         <v>263</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6032,15 +6032,15 @@
         <v>265</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="41"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4" t="s">
         <v>266</v>
       </c>
@@ -6048,29 +6048,29 @@
         <v>267</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
-      <c r="B14" s="41"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D14" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
-      <c r="B15" s="41"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="4" t="s">
         <v>269</v>
       </c>
@@ -6078,15 +6078,15 @@
         <v>270</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
-      <c r="B16" s="41"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="4" t="s">
         <v>271</v>
       </c>
@@ -6094,17 +6094,17 @@
         <v>272</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="34" t="s">
         <v>274</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -6122,7 +6122,7 @@
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="18" t="s">
         <v>292</v>
       </c>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="34" t="s">
         <v>276</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -6174,7 +6174,7 @@
     </row>
     <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
-      <c r="B21" s="45"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="18" t="s">
         <v>281</v>
       </c>
@@ -6182,15 +6182,15 @@
         <v>280</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
-      <c r="B22" s="45"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="18" t="s">
         <v>283</v>
       </c>
@@ -6198,15 +6198,15 @@
         <v>282</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="35" t="s">
         <v>284</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -6224,7 +6224,7 @@
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="18" t="s">
         <v>287</v>
       </c>
@@ -6232,15 +6232,15 @@
         <v>286</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
-      <c r="B25" s="46"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="18" t="s">
         <v>289</v>
       </c>
@@ -6248,15 +6248,15 @@
         <v>288</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
-      <c r="B26" s="46"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="18" t="s">
         <v>290</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>267</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -6278,7 +6278,7 @@
         <v>267</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -6286,10 +6286,10 @@
       <c r="A28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="30" t="s">
         <v>342</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6304,8 +6304,8 @@
     </row>
     <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="10" t="s">
         <v>45</v>
       </c>
@@ -6318,8 +6318,8 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="8" t="s">
         <v>131</v>
       </c>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="32" t="s">
         <v>344</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -6348,7 +6348,7 @@
     </row>
     <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
-      <c r="B32" s="48"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
         <v>472</v>
@@ -6372,7 +6372,7 @@
         <v>50</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>51</v>
@@ -6390,10 +6390,10 @@
         <v>348</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -6408,10 +6408,10 @@
         <v>352</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6426,10 +6426,10 @@
         <v>355</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -6444,10 +6444,10 @@
         <v>358</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -6462,10 +6462,10 @@
         <v>361</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -6482,7 +6482,7 @@
         <v>53</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>54</v>
@@ -6509,19 +6509,19 @@
     <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>639</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>640</v>
-      </c>
       <c r="D41" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>637</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -6536,7 +6536,7 @@
         <v>465</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>55</v>
@@ -6562,10 +6562,10 @@
     </row>
     <row r="44" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="30" t="s">
         <v>290</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -6580,8 +6580,8 @@
     </row>
     <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="2" t="s">
         <v>60</v>
       </c>
@@ -6594,8 +6594,8 @@
     </row>
     <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="2" t="s">
         <v>62</v>
       </c>
@@ -6603,13 +6603,13 @@
         <v>63</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="2" t="s">
         <v>65</v>
       </c>
@@ -6621,10 +6621,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="30" t="s">
         <v>216</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -6641,8 +6641,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="4" t="s">
         <v>218</v>
       </c>
@@ -6657,8 +6657,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="4" t="s">
         <v>220</v>
       </c>
@@ -6673,8 +6673,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="4" t="s">
         <v>483</v>
       </c>
@@ -6689,8 +6689,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="4" t="s">
         <v>222</v>
       </c>
@@ -6698,15 +6698,15 @@
         <v>77</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="41" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="30" t="s">
         <v>223</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -6723,8 +6723,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="4" t="s">
         <v>225</v>
       </c>
@@ -6732,15 +6732,15 @@
         <v>226</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>620</v>
-      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="41" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="30" t="s">
         <v>227</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -6750,13 +6750,13 @@
         <v>167</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="4" t="s">
         <v>229</v>
       </c>
@@ -6764,13 +6764,13 @@
         <v>230</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="4" t="s">
         <v>231</v>
       </c>
@@ -6778,13 +6778,13 @@
         <v>210</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="41" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="30" t="s">
         <v>232</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -6793,28 +6793,28 @@
       <c r="D58" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="36" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
     </row>
     <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="4" t="s">
         <v>237</v>
       </c>
@@ -6829,7 +6829,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="18" t="s">
         <v>238</v>
       </c>
@@ -6847,8 +6847,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="41" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="30" t="s">
         <v>240</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -6865,8 +6865,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="4" t="s">
         <v>243</v>
       </c>
@@ -6881,8 +6881,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="41"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="4" t="s">
         <v>245</v>
       </c>
@@ -6897,10 +6897,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="43" t="s">
         <v>416</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -6917,8 +6917,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="4" t="s">
         <v>410</v>
       </c>
@@ -6933,8 +6933,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="4" t="s">
         <v>411</v>
       </c>
@@ -6949,8 +6949,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="36"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="4" t="s">
         <v>412</v>
       </c>
@@ -6965,8 +6965,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="4" t="s">
         <v>413</v>
       </c>
@@ -6974,14 +6974,14 @@
         <v>95</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="4" t="s">
         <v>133</v>
       </c>
@@ -6999,7 +6999,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="4" t="s">
         <v>417</v>
       </c>
@@ -7017,7 +7017,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="4" t="s">
         <v>421</v>
       </c>
@@ -7035,8 +7035,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="35" t="s">
+      <c r="A73" s="47"/>
+      <c r="B73" s="43" t="s">
         <v>430</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -7053,8 +7053,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="4" t="s">
         <v>435</v>
       </c>
@@ -7069,8 +7069,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
-      <c r="B75" s="35" t="s">
+      <c r="A75" s="47"/>
+      <c r="B75" s="43" t="s">
         <v>445</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -7087,8 +7087,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="4" t="s">
         <v>449</v>
       </c>
@@ -7103,7 +7103,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="20" t="s">
         <v>440</v>
       </c>
@@ -7121,7 +7121,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -7139,7 +7139,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="A79" s="42"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
         <v>539</v>
@@ -7155,8 +7155,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="38" t="s">
+      <c r="A80" s="42"/>
+      <c r="B80" s="46" t="s">
         <v>542</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -7173,8 +7173,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="40"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="4" t="s">
         <v>541</v>
       </c>
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+      <c r="A82" s="42"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
         <v>543</v>
@@ -7205,7 +7205,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
+      <c r="A83" s="42"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
         <v>544</v>
@@ -7221,7 +7221,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+      <c r="A84" s="42"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
         <v>545</v>
@@ -7237,7 +7237,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
+      <c r="A85" s="42"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
         <v>546</v>
@@ -7253,7 +7253,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="39" t="s">
         <v>137</v>
       </c>
       <c r="B86" s="4"/>
@@ -7271,7 +7271,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
         <v>329</v>
@@ -7287,7 +7287,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21" t="s">
         <v>335</v>
@@ -7303,10 +7303,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="40" t="s">
         <v>174</v>
       </c>
       <c r="C89" s="21" t="s">
@@ -7323,8 +7323,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="43"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="21" t="s">
         <v>215</v>
       </c>
@@ -7339,8 +7339,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="21" t="s">
         <v>176</v>
       </c>
@@ -7355,8 +7355,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="21" t="s">
         <v>177</v>
       </c>
@@ -7371,22 +7371,22 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="26"/>
       <c r="D93" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>634</v>
-      </c>
     </row>
     <row r="94" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="43"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="21" t="s">
         <v>214</v>
       </c>
@@ -7401,8 +7401,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="21" t="s">
         <v>178</v>
       </c>
@@ -7417,8 +7417,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
-      <c r="B96" s="43"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="21" t="s">
         <v>179</v>
       </c>
@@ -7433,8 +7433,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
-      <c r="B97" s="43" t="s">
+      <c r="A97" s="42"/>
+      <c r="B97" s="40" t="s">
         <v>180</v>
       </c>
       <c r="C97" s="21" t="s">
@@ -7451,8 +7451,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="21" t="s">
         <v>182</v>
       </c>
@@ -7467,8 +7467,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="21" t="s">
         <v>183</v>
       </c>
@@ -7483,8 +7483,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="21" t="s">
         <v>184</v>
       </c>
@@ -7499,8 +7499,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="21" t="s">
         <v>185</v>
       </c>
@@ -7515,8 +7515,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="43"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="21" t="s">
         <v>186</v>
       </c>
@@ -7531,8 +7531,8 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="44" t="s">
+      <c r="A103" s="42"/>
+      <c r="B103" s="41" t="s">
         <v>187</v>
       </c>
       <c r="C103" s="21" t="s">
@@ -7549,8 +7549,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="41"/>
       <c r="C104" s="21" t="s">
         <v>189</v>
       </c>
@@ -7565,8 +7565,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="44"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="41"/>
       <c r="C105" s="21" t="s">
         <v>190</v>
       </c>
@@ -7581,8 +7581,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
-      <c r="B106" s="44" t="s">
+      <c r="A106" s="42"/>
+      <c r="B106" s="41" t="s">
         <v>191</v>
       </c>
       <c r="C106" s="21" t="s">
@@ -7599,8 +7599,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="41"/>
       <c r="C107" s="21" t="s">
         <v>193</v>
       </c>
@@ -7615,8 +7615,8 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="44"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="41"/>
       <c r="C108" s="21" t="s">
         <v>194</v>
       </c>
@@ -7631,8 +7631,8 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="44"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="41"/>
       <c r="C109" s="3" t="s">
         <v>195</v>
       </c>
@@ -7647,8 +7647,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="44"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="21" t="s">
         <v>196</v>
       </c>
@@ -7663,8 +7663,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="43" t="s">
+      <c r="A111" s="42"/>
+      <c r="B111" s="40" t="s">
         <v>197</v>
       </c>
       <c r="C111" s="21" t="s">
@@ -7681,8 +7681,8 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="43"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="40"/>
       <c r="C112" s="21" t="s">
         <v>199</v>
       </c>
@@ -7697,7 +7697,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
+      <c r="A113" s="42"/>
       <c r="B113" s="17" t="s">
         <v>200</v>
       </c>
@@ -7718,7 +7718,7 @@
       <c r="A114" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="30" t="s">
         <v>310</v>
       </c>
       <c r="C114" s="18" t="s">
@@ -7736,7 +7736,7 @@
     </row>
     <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="31"/>
-      <c r="B115" s="41"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="18" t="s">
         <v>295</v>
       </c>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="116" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A116" s="31"/>
-      <c r="B116" s="41"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="21" t="s">
         <v>296</v>
       </c>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="117" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A117" s="31"/>
-      <c r="B117" s="41"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="21" t="s">
         <v>297</v>
       </c>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="118" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" s="31"/>
-      <c r="B118" s="41"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="21" t="s">
         <v>298</v>
       </c>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="119" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="31"/>
-      <c r="B119" s="41"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="21" t="s">
         <v>299</v>
       </c>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="31"/>
-      <c r="B120" s="41"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="21" t="s">
         <v>300</v>
       </c>
@@ -7832,10 +7832,10 @@
     </row>
     <row r="121" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A121" s="31"/>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="38" t="s">
         <v>302</v>
       </c>
       <c r="D121" s="8" t="s">
@@ -7850,8 +7850,8 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="31"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="38"/>
       <c r="D122" s="9" t="s">
         <v>316</v>
       </c>
@@ -7860,8 +7860,8 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="31"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
       <c r="D123" s="9" t="s">
         <v>317</v>
       </c>
@@ -7870,8 +7870,8 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
       <c r="D124" s="9" t="s">
         <v>318</v>
       </c>
@@ -7880,8 +7880,8 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="31"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
       <c r="D125" s="9" t="s">
         <v>319</v>
       </c>
@@ -7890,10 +7890,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="C126" s="38" t="s">
         <v>274</v>
       </c>
       <c r="D126" s="9" t="s">
@@ -7906,8 +7906,8 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="31"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
       <c r="D127" s="9" t="s">
         <v>321</v>
       </c>
@@ -7916,8 +7916,8 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="31"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30" t="s">
+      <c r="B128" s="38"/>
+      <c r="C128" s="38" t="s">
         <v>304</v>
       </c>
       <c r="D128" s="9" t="s">
@@ -7930,8 +7930,8 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="31"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
       <c r="D129" s="9" t="s">
         <v>323</v>
       </c>
@@ -7940,8 +7940,8 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="31"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="30" t="s">
+      <c r="B130" s="38"/>
+      <c r="C130" s="38" t="s">
         <v>305</v>
       </c>
       <c r="D130" s="9" t="s">
@@ -7952,8 +7952,8 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="31"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="38"/>
       <c r="D131" s="9" t="s">
         <v>321</v>
       </c>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="31"/>
-      <c r="B132" s="30"/>
+      <c r="B132" s="38"/>
       <c r="C132" s="21" t="s">
         <v>306</v>
       </c>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="31"/>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="38" t="s">
         <v>307</v>
       </c>
       <c r="C133" s="21" t="s">
@@ -7988,7 +7988,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="31"/>
-      <c r="B134" s="30"/>
+      <c r="B134" s="38"/>
       <c r="C134" s="21" t="s">
         <v>309</v>
       </c>
@@ -8002,7 +8002,7 @@
       <c r="A135" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="38" t="s">
         <v>495</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -8020,7 +8020,7 @@
     </row>
     <row r="136" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="31"/>
-      <c r="B136" s="30"/>
+      <c r="B136" s="38"/>
       <c r="C136" s="4" t="s">
         <v>491</v>
       </c>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="31"/>
-      <c r="B137" s="30"/>
+      <c r="B137" s="38"/>
       <c r="C137" s="4" t="s">
         <v>492</v>
       </c>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="31"/>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="38" t="s">
         <v>496</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -8070,7 +8070,7 @@
     </row>
     <row r="139" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A139" s="31"/>
-      <c r="B139" s="30"/>
+      <c r="B139" s="38"/>
       <c r="C139" s="4" t="s">
         <v>498</v>
       </c>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="38" t="s">
         <v>503</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -8096,13 +8096,13 @@
         <v>244</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="F140" s="9"/>
     </row>
     <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="31"/>
-      <c r="B141" s="30"/>
+      <c r="B141" s="38"/>
       <c r="C141" s="4" t="s">
         <v>502</v>
       </c>
@@ -8110,10 +8110,10 @@
         <v>504</v>
       </c>
       <c r="E141" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -8128,10 +8128,10 @@
         <v>506</v>
       </c>
       <c r="E142" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -8146,10 +8146,10 @@
         <v>509</v>
       </c>
       <c r="E143" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -8172,23 +8172,22 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A135:A143"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A89:A113"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="C130:C131"/>
     <mergeCell ref="B126:B132"/>
@@ -8205,22 +8204,23 @@
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="B106:B110"/>
     <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="A135:A143"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A89:A113"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A48:A64"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A39:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -8469,7 +8469,7 @@
         <v>367</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
@@ -8479,7 +8479,7 @@
         <v>368</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8489,7 +8489,7 @@
         <v>369</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
@@ -8499,7 +8499,7 @@
         <v>370</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.25">
@@ -8511,7 +8511,7 @@
         <v>371</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
@@ -8521,7 +8521,7 @@
         <v>372</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7597C8BD-C063-4A6E-8254-F9AEB7596626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82E823A-7747-4EA4-BF48-257BB4B46371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="653">
   <si>
     <t>Descripcion Ingles</t>
   </si>
@@ -2220,6 +2220,45 @@
   </si>
   <si>
     <t>Ver Api Gateway</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>Administración de costos de AWS</t>
+  </si>
+  <si>
+    <t>Examine</t>
+  </si>
+  <si>
+    <t>Manténgase actualizado con la implementación de recursos y las oportunidades de optimización de costos</t>
+  </si>
+  <si>
+    <t>AWS Cost Explorer</t>
+  </si>
+  <si>
+    <t>AWS Cost Explorer tiene una interfaz sencilla que permite visualizar, comprender y administrar sus costos y uso de AWS a lo largo del tiempo.
+Comience rápidamente creando informes personalizados que analizan los datos de costos y uso. Analice los datos a un nivel alto (por ejemplo, los costos y uso total en todas las cuentas) o analícelos más en profundidad para identificar tendencias, determinar los factores de costo y detectar anomalías.</t>
+  </si>
+  <si>
+    <t>AWS Cost Explorer has an easy-to-use interface that lets you visualize, understand, and manage your AWS costs and usage over time.
+Get started quickly by creating custom reports that analyze cost and usage data. Analyze your data at a high level (for example, total costs and usage across all accounts) or dive deeper into your cost and usage data to identify trends, pinpoint cost drivers, and detect anomalies.</t>
+  </si>
+  <si>
+    <t>Presupuesto</t>
+  </si>
+  <si>
+    <t>Controle sus gastos con el límite de presupuesto personalizado y la notificación de alerta automática</t>
+  </si>
+  <si>
+    <t>AWS Budgets</t>
+  </si>
+  <si>
+    <t>Presupuestos de AWS ofrece la posibilidad de definir presupuestos personalizados que le envíen una alerta cuando los costos o el uso superan el importe presupuestado o si se prevé que lo superen.
+También puede utilizar el servicio de Presupuestos de AWS para definir los objetivos de uso o cobertura de reservas y recibir alertas cuando el uso disminuya por debajo del umbral definido. Es posible utilizar las alertas sobre reservas en los servicios Amazon EC2, Amazon RDS, Amazon Redshift, Amazon ElastiCache y Amazon Elasticsearch.</t>
+  </si>
+  <si>
+    <t>AWS Budgets allows you to set custom budgets to track your cost and usage from the simplest to the most complex use cases. With AWS Budgets, you can choose to be alerted by email or SNS notification when actual or forecasted cost and usage exceed your budget threshold, or when your actual RI and Savings Plans' utilization or coverage drops below your desired threshold. With AWS Budget Actions, you can also configure specific actions to respond to cost and usage status in your accounts, so that if your cost or usage exceeds or is forecasted to exceed your threshold, actions can be executed automatically or with your approval to reduce unintentional over-spending</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2516,40 +2555,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2571,6 +2592,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2607,6 +2652,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5815,13 +5869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E141" sqref="E141"/>
+      <selection pane="bottomRight" activeCell="A144" sqref="A144:A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5855,8 +5909,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5873,8 +5929,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="4" t="s">
         <v>248</v>
       </c>
@@ -5889,8 +5945,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
         <v>250</v>
       </c>
@@ -5905,8 +5961,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="4" t="s">
         <v>251</v>
       </c>
@@ -5921,8 +5977,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="4" t="s">
         <v>252</v>
       </c>
@@ -5937,8 +5993,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="43" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5955,8 +6011,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="4" t="s">
         <v>256</v>
       </c>
@@ -5971,8 +6027,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="4" t="s">
         <v>257</v>
       </c>
@@ -5987,8 +6043,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>259</v>
       </c>
@@ -6003,7 +6059,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="18" t="s">
         <v>261</v>
       </c>
@@ -6021,8 +6077,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="43" t="s">
         <v>263</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6039,8 +6095,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="4" t="s">
         <v>266</v>
       </c>
@@ -6053,8 +6109,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="4" t="s">
         <v>268</v>
       </c>
@@ -6069,8 +6125,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="4" t="s">
         <v>269</v>
       </c>
@@ -6085,8 +6141,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>271</v>
       </c>
@@ -6101,10 +6157,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="47" t="s">
         <v>274</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -6121,8 +6177,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="18" t="s">
         <v>292</v>
       </c>
@@ -6137,7 +6193,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="19" t="s">
         <v>277</v>
       </c>
@@ -6155,8 +6211,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="47" t="s">
         <v>276</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -6173,8 +6229,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="18" t="s">
         <v>281</v>
       </c>
@@ -6189,8 +6245,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="18" t="s">
         <v>283</v>
       </c>
@@ -6205,8 +6261,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="48" t="s">
         <v>284</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -6223,8 +6279,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="18" t="s">
         <v>287</v>
       </c>
@@ -6239,8 +6295,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="18" t="s">
         <v>289</v>
       </c>
@@ -6255,8 +6311,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="18" t="s">
         <v>290</v>
       </c>
@@ -6269,7 +6325,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="4" t="s">
         <v>291</v>
       </c>
@@ -6283,13 +6339,13 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="43" t="s">
         <v>342</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6303,9 +6359,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="10" t="s">
         <v>45</v>
       </c>
@@ -6317,9 +6373,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="8" t="s">
         <v>131</v>
       </c>
@@ -6329,8 +6385,8 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="49" t="s">
         <v>344</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -6347,8 +6403,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
         <v>472</v>
@@ -6361,7 +6417,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="18" t="s">
         <v>345</v>
       </c>
@@ -6379,7 +6435,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="18" t="s">
         <v>349</v>
       </c>
@@ -6397,7 +6453,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="18" t="s">
         <v>350</v>
       </c>
@@ -6415,7 +6471,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="18" t="s">
         <v>353</v>
       </c>
@@ -6433,7 +6489,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="18" t="s">
         <v>356</v>
       </c>
@@ -6451,7 +6507,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="18" t="s">
         <v>359</v>
       </c>
@@ -6469,7 +6525,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -6489,7 +6545,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="18" t="s">
         <v>471</v>
       </c>
@@ -6507,7 +6563,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="29" t="s">
         <v>638</v>
       </c>
@@ -6525,7 +6581,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="18" t="s">
         <v>341</v>
       </c>
@@ -6543,7 +6599,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="18" t="s">
         <v>340</v>
       </c>
@@ -6561,11 +6617,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30" t="s">
+      <c r="A44" s="33"/>
+      <c r="B44" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="43" t="s">
         <v>290</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -6579,9 +6635,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="2" t="s">
         <v>60</v>
       </c>
@@ -6593,9 +6649,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="2" t="s">
         <v>62</v>
       </c>
@@ -6607,9 +6663,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="2" t="s">
         <v>65</v>
       </c>
@@ -6621,10 +6677,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="43" t="s">
         <v>216</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -6641,8 +6697,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="4" t="s">
         <v>218</v>
       </c>
@@ -6657,8 +6713,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="4" t="s">
         <v>220</v>
       </c>
@@ -6673,8 +6729,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="4" t="s">
         <v>483</v>
       </c>
@@ -6689,8 +6745,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="4" t="s">
         <v>222</v>
       </c>
@@ -6705,8 +6761,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="43" t="s">
         <v>223</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -6723,8 +6779,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="4" t="s">
         <v>225</v>
       </c>
@@ -6739,8 +6795,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="30" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="43" t="s">
         <v>227</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -6755,8 +6811,8 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="4" t="s">
         <v>229</v>
       </c>
@@ -6769,8 +6825,8 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="4" t="s">
         <v>231</v>
       </c>
@@ -6783,8 +6839,8 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="43" t="s">
         <v>232</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -6793,28 +6849,28 @@
       <c r="D58" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="34" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
     </row>
     <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="4" t="s">
         <v>237</v>
       </c>
@@ -6829,7 +6885,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="18" t="s">
         <v>238</v>
       </c>
@@ -6847,8 +6903,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="30" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="43" t="s">
         <v>240</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -6865,8 +6921,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="4" t="s">
         <v>243</v>
       </c>
@@ -6881,8 +6937,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="4" t="s">
         <v>245</v>
       </c>
@@ -6897,10 +6953,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="37" t="s">
         <v>416</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -6917,8 +6973,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="4" t="s">
         <v>410</v>
       </c>
@@ -6933,8 +6989,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="44"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="4" t="s">
         <v>411</v>
       </c>
@@ -6949,8 +7005,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="44"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="4" t="s">
         <v>412</v>
       </c>
@@ -6965,8 +7021,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="4" t="s">
         <v>413</v>
       </c>
@@ -6981,7 +7037,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="4" t="s">
         <v>133</v>
       </c>
@@ -6999,7 +7055,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="4" t="s">
         <v>417</v>
       </c>
@@ -7017,7 +7073,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="4" t="s">
         <v>421</v>
       </c>
@@ -7035,8 +7091,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="43" t="s">
+      <c r="A73" s="41"/>
+      <c r="B73" s="37" t="s">
         <v>430</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -7053,8 +7109,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="45"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="4" t="s">
         <v>435</v>
       </c>
@@ -7069,8 +7125,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="43" t="s">
+      <c r="A75" s="41"/>
+      <c r="B75" s="37" t="s">
         <v>445</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -7087,8 +7143,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="45"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="4" t="s">
         <v>449</v>
       </c>
@@ -7103,7 +7159,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
+      <c r="A77" s="42"/>
       <c r="B77" s="20" t="s">
         <v>440</v>
       </c>
@@ -7121,7 +7177,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="36" t="s">
         <v>99</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -7139,7 +7195,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
         <v>539</v>
@@ -7155,8 +7211,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="46" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="40" t="s">
         <v>542</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -7173,8 +7229,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="48"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="4" t="s">
         <v>541</v>
       </c>
@@ -7189,7 +7245,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
         <v>543</v>
@@ -7205,7 +7261,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
         <v>544</v>
@@ -7221,7 +7277,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
         <v>545</v>
@@ -7237,7 +7293,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
         <v>546</v>
@@ -7253,7 +7309,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="44" t="s">
         <v>137</v>
       </c>
       <c r="B86" s="4"/>
@@ -7271,7 +7327,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
+      <c r="A87" s="44"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
         <v>329</v>
@@ -7287,7 +7343,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
+      <c r="A88" s="44"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21" t="s">
         <v>335</v>
@@ -7303,10 +7359,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A89" s="42" t="s">
+      <c r="A89" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="45" t="s">
         <v>174</v>
       </c>
       <c r="C89" s="21" t="s">
@@ -7323,8 +7379,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="40"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="21" t="s">
         <v>215</v>
       </c>
@@ -7339,8 +7395,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
-      <c r="B91" s="40"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="21" t="s">
         <v>176</v>
       </c>
@@ -7355,8 +7411,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
-      <c r="B92" s="40"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="21" t="s">
         <v>177</v>
       </c>
@@ -7371,8 +7427,8 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="40"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="26"/>
       <c r="D93" s="8" t="s">
         <v>632</v>
@@ -7385,8 +7441,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
-      <c r="B94" s="40"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="21" t="s">
         <v>214</v>
       </c>
@@ -7401,8 +7457,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="21" t="s">
         <v>178</v>
       </c>
@@ -7417,8 +7473,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="21" t="s">
         <v>179</v>
       </c>
@@ -7433,8 +7489,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="40" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="45" t="s">
         <v>180</v>
       </c>
       <c r="C97" s="21" t="s">
@@ -7451,8 +7507,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
-      <c r="B98" s="40"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="21" t="s">
         <v>182</v>
       </c>
@@ -7467,8 +7523,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="40"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="21" t="s">
         <v>183</v>
       </c>
@@ -7483,8 +7539,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
-      <c r="B100" s="40"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="21" t="s">
         <v>184</v>
       </c>
@@ -7499,8 +7555,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="40"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="21" t="s">
         <v>185</v>
       </c>
@@ -7515,8 +7571,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
-      <c r="B102" s="40"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="21" t="s">
         <v>186</v>
       </c>
@@ -7531,8 +7587,8 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
-      <c r="B103" s="41" t="s">
+      <c r="A103" s="36"/>
+      <c r="B103" s="46" t="s">
         <v>187</v>
       </c>
       <c r="C103" s="21" t="s">
@@ -7549,8 +7605,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
-      <c r="B104" s="41"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="46"/>
       <c r="C104" s="21" t="s">
         <v>189</v>
       </c>
@@ -7565,8 +7621,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
-      <c r="B105" s="41"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="46"/>
       <c r="C105" s="21" t="s">
         <v>190</v>
       </c>
@@ -7581,8 +7637,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
-      <c r="B106" s="41" t="s">
+      <c r="A106" s="36"/>
+      <c r="B106" s="46" t="s">
         <v>191</v>
       </c>
       <c r="C106" s="21" t="s">
@@ -7599,8 +7655,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
-      <c r="B107" s="41"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="21" t="s">
         <v>193</v>
       </c>
@@ -7615,8 +7671,8 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
-      <c r="B108" s="41"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="46"/>
       <c r="C108" s="21" t="s">
         <v>194</v>
       </c>
@@ -7631,8 +7687,8 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
-      <c r="B109" s="41"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="46"/>
       <c r="C109" s="3" t="s">
         <v>195</v>
       </c>
@@ -7647,8 +7703,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
-      <c r="B110" s="41"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="21" t="s">
         <v>196</v>
       </c>
@@ -7663,8 +7719,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
-      <c r="B111" s="40" t="s">
+      <c r="A111" s="36"/>
+      <c r="B111" s="45" t="s">
         <v>197</v>
       </c>
       <c r="C111" s="21" t="s">
@@ -7681,8 +7737,8 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
-      <c r="B112" s="40"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="45"/>
       <c r="C112" s="21" t="s">
         <v>199</v>
       </c>
@@ -7697,7 +7753,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
+      <c r="A113" s="36"/>
       <c r="B113" s="17" t="s">
         <v>200</v>
       </c>
@@ -7715,10 +7771,10 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="43" t="s">
         <v>310</v>
       </c>
       <c r="C114" s="18" t="s">
@@ -7735,8 +7791,8 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="30"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="18" t="s">
         <v>295</v>
       </c>
@@ -7751,8 +7807,8 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="30"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="21" t="s">
         <v>296</v>
       </c>
@@ -7767,8 +7823,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
-      <c r="B117" s="30"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="21" t="s">
         <v>297</v>
       </c>
@@ -7783,8 +7839,8 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
-      <c r="B118" s="30"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="21" t="s">
         <v>298</v>
       </c>
@@ -7799,8 +7855,8 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="30"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="21" t="s">
         <v>299</v>
       </c>
@@ -7815,8 +7871,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
-      <c r="B120" s="30"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="43"/>
       <c r="C120" s="21" t="s">
         <v>300</v>
       </c>
@@ -7831,11 +7887,11 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
-      <c r="B121" s="38" t="s">
+      <c r="A121" s="33"/>
+      <c r="B121" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="C121" s="32" t="s">
         <v>302</v>
       </c>
       <c r="D121" s="8" t="s">
@@ -7849,9 +7905,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="38"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
       <c r="D122" s="9" t="s">
         <v>316</v>
       </c>
@@ -7859,9 +7915,9 @@
       <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="38"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
       <c r="D123" s="9" t="s">
         <v>317</v>
       </c>
@@ -7869,9 +7925,9 @@
       <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="38"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
       <c r="D124" s="9" t="s">
         <v>318</v>
       </c>
@@ -7879,9 +7935,9 @@
       <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="31"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
       <c r="D125" s="9" t="s">
         <v>319</v>
       </c>
@@ -7889,11 +7945,11 @@
       <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="31"/>
-      <c r="B126" s="38" t="s">
+      <c r="A126" s="33"/>
+      <c r="B126" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="C126" s="38" t="s">
+      <c r="C126" s="32" t="s">
         <v>274</v>
       </c>
       <c r="D126" s="9" t="s">
@@ -7905,9 +7961,9 @@
       <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
       <c r="D127" s="9" t="s">
         <v>321</v>
       </c>
@@ -7915,9 +7971,9 @@
       <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38" t="s">
+      <c r="A128" s="33"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32" t="s">
         <v>304</v>
       </c>
       <c r="D128" s="9" t="s">
@@ -7929,9 +7985,9 @@
       <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="31"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
       <c r="D129" s="9" t="s">
         <v>323</v>
       </c>
@@ -7939,9 +7995,9 @@
       <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38" t="s">
+      <c r="A130" s="33"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32" t="s">
         <v>305</v>
       </c>
       <c r="D130" s="9" t="s">
@@ -7951,9 +8007,9 @@
       <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="31"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="38"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
       <c r="D131" s="9" t="s">
         <v>321</v>
       </c>
@@ -7961,8 +8017,8 @@
       <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
-      <c r="B132" s="38"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="21" t="s">
         <v>306</v>
       </c>
@@ -7973,8 +8029,8 @@
       <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
-      <c r="B133" s="38" t="s">
+      <c r="A133" s="33"/>
+      <c r="B133" s="32" t="s">
         <v>307</v>
       </c>
       <c r="C133" s="21" t="s">
@@ -7987,8 +8043,8 @@
       <c r="F133" s="9"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
-      <c r="B134" s="38"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="21" t="s">
         <v>309</v>
       </c>
@@ -7999,10 +8055,10 @@
       <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="32" t="s">
         <v>495</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -8019,8 +8075,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
-      <c r="B136" s="38"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="4" t="s">
         <v>491</v>
       </c>
@@ -8035,8 +8091,8 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="31"/>
-      <c r="B137" s="38"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="4" t="s">
         <v>492</v>
       </c>
@@ -8051,8 +8107,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="38" t="s">
+      <c r="A138" s="33"/>
+      <c r="B138" s="32" t="s">
         <v>496</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -8069,8 +8125,8 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
-      <c r="B139" s="38"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="4" t="s">
         <v>498</v>
       </c>
@@ -8085,8 +8141,8 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="38" t="s">
+      <c r="A140" s="33"/>
+      <c r="B140" s="32" t="s">
         <v>503</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -8101,8 +8157,8 @@
       <c r="F140" s="9"/>
     </row>
     <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
-      <c r="B141" s="38"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="4" t="s">
         <v>502</v>
       </c>
@@ -8117,7 +8173,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="21" t="s">
         <v>507</v>
       </c>
@@ -8135,7 +8191,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
+      <c r="A143" s="33"/>
       <c r="B143" s="21" t="s">
         <v>510</v>
       </c>
@@ -8152,26 +8208,106 @@
         <v>579</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
+    <row r="144" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A144" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A145" s="64"/>
+      <c r="B145" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="65"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21" t="s">
+      <c r="B147" s="21"/>
+      <c r="C147" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E147" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>517</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="A114:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B89:B96"/>
     <mergeCell ref="B135:B137"/>
     <mergeCell ref="B138:B139"/>
     <mergeCell ref="B140:B141"/>
@@ -8188,39 +8324,6 @@
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="B126:B132"/>
-    <mergeCell ref="A114:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A39:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -8294,7 +8397,7 @@
     <hyperlink ref="D105" r:id="rId64" xr:uid="{B775A593-2D06-4F95-84DB-E5713A371954}"/>
     <hyperlink ref="D135" r:id="rId65" display="https://aws.amazon.com/sns/" xr:uid="{6AF41E67-CD24-41E2-B9CA-430BFC5C475E}"/>
     <hyperlink ref="D119" r:id="rId66" xr:uid="{58316A02-A9FE-47EF-933C-598BF797D617}"/>
-    <hyperlink ref="D144" r:id="rId67" display="https://aws.amazon.com/professional-services/CAF/" xr:uid="{5C52581F-6C72-4E0D-838D-B84D148EA140}"/>
+    <hyperlink ref="D147" r:id="rId67" display="https://aws.amazon.com/professional-services/CAF/" xr:uid="{5C52581F-6C72-4E0D-838D-B84D148EA140}"/>
     <hyperlink ref="E128" location="Amazon_S3" display="Ver Amazon S3" xr:uid="{20773060-4A21-42C3-A16C-013AA8DBD607}"/>
     <hyperlink ref="D110" r:id="rId68" xr:uid="{D330D226-AAF3-45C5-8AC1-C8D6CABD70BC}"/>
     <hyperlink ref="D111" r:id="rId69" xr:uid="{E2FBADDE-7F21-452B-AB2F-6C594653F683}"/>
@@ -8348,10 +8451,12 @@
     <hyperlink ref="D12" r:id="rId107" xr:uid="{03B919A9-1B66-4481-8AFB-2090D3541B17}"/>
     <hyperlink ref="D93" r:id="rId108" xr:uid="{85427BBB-C40E-4104-B2DB-9CA013CE608D}"/>
     <hyperlink ref="D41" r:id="rId109" xr:uid="{EA561BD6-5B14-4F82-A384-D125F8D45984}"/>
+    <hyperlink ref="D144" r:id="rId110" xr:uid="{5E65584B-3476-4EB0-BCC6-2EDE2C81B798}"/>
+    <hyperlink ref="D145" r:id="rId111" xr:uid="{8EA7B3A5-7A6C-4100-957D-BF8E2CDF55E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId110"/>
-  <drawing r:id="rId111"/>
+  <pageSetup orientation="portrait" r:id="rId112"/>
+  <drawing r:id="rId113"/>
 </worksheet>
 </file>
 
@@ -8359,8 +8464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B21"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8380,7 +8485,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="52" t="s">
         <v>362</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -8388,37 +8493,37 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="11" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="11" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>363</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -8426,35 +8531,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="11" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>383</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -8463,8 +8568,8 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="11" t="s">
         <v>367</v>
       </c>
@@ -8473,8 +8578,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="11" t="s">
         <v>368</v>
       </c>
@@ -8483,8 +8588,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="11" t="s">
         <v>369</v>
       </c>
@@ -8493,8 +8598,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="11" t="s">
         <v>370</v>
       </c>
@@ -8503,8 +8608,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="59" t="s">
         <v>384</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -8515,8 +8620,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="11" t="s">
         <v>372</v>
       </c>
@@ -8524,44 +8629,44 @@
         <v>629</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="55"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="11" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="11" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="55"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="11" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="11" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="56"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="11" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="56" t="s">
         <v>385</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -8569,36 +8674,36 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="11" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="11" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="11" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="11" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="57" t="s">
+      <c r="A34" s="52"/>
+      <c r="B34" s="59" t="s">
         <v>386</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -8606,36 +8711,36 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="58"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="11" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="58"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="11" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="57" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="59" t="s">
         <v>392</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -8643,39 +8748,39 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="58"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="11" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="11" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="11" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -8739,7 +8844,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>452</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8750,7 +8855,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="15" t="s">
         <v>458</v>
       </c>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82E823A-7747-4EA4-BF48-257BB4B46371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7AEB19-D11F-47DB-B80E-F1DCCF2DA88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicios" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Informacion Adicional" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$147</definedName>
     <definedName name="Amazon_API_Gateway">Servicios!$D$63</definedName>
     <definedName name="Amazon_Redshift">Servicios!$D$116</definedName>
     <definedName name="Amazon_S3">Servicios!$D$17</definedName>
@@ -422,12 +422,6 @@
   </si>
   <si>
     <t>AWS Trusted Advisor</t>
-  </si>
-  <si>
-    <t>AWS Trusted Advisor es un recurso online que contribuye a reducir los costos, aumentar el desempeño y mejorar la seguridad mediante la optimización de su entorno de AWS. Trusted Advisor le ofrece ayuda en tiempo real para que pueda aprovisionar sus recursos de acuerdo con las prácticas recomendadas de AWS.</t>
-  </si>
-  <si>
-    <t>AWS Trusted Advisor is an online tool that provides you real time guidance to help you provision your resources following AWS best practices. Trusted Advisor checks help optimize your AWS infrastructure, increase security and performance, reduce your overall costs, and monitor service limits.</t>
   </si>
   <si>
     <t>AWS Personal Health Dashboard</t>
@@ -2259,6 +2253,12 @@
   </si>
   <si>
     <t>AWS Budgets allows you to set custom budgets to track your cost and usage from the simplest to the most complex use cases. With AWS Budgets, you can choose to be alerted by email or SNS notification when actual or forecasted cost and usage exceed your budget threshold, or when your actual RI and Savings Plans' utilization or coverage drops below your desired threshold. With AWS Budget Actions, you can also configure specific actions to respond to cost and usage status in your accounts, so that if your cost or usage exceeds or is forecasted to exceed your threshold, actions can be executed automatically or with your approval to reduce unintentional over-spending</t>
+  </si>
+  <si>
+    <t>AWS Trusted Advisor es un recurso online que contribuye a reducir los costos, aumentar el desempeño y mejorar la seguridad mediante la optimización de su entorno de AWS. Trusted Advisor le ofrece ayuda en tiempo real para que pueda aprovisionar sus recursos de acuerdo con las prácticas recomendadas de AWS en Optimización de costos, Rendimiento, Seguridad, Tolerancia a errores, Service Quotas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Trusted Advisor is an online tool that provides you real time guidance to help you provision your resources following AWS best practices. Trusted Advisor checks help optimize your AWS infrastructure, increase security and performance, reduce your overall costs, and monitor service limits </t>
   </si>
 </sst>
 </file>
@@ -2560,12 +2560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2597,6 +2591,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2610,6 +2610,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2633,6 +2642,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2641,26 +2659,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2692,8 +2692,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2740,8 +2740,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2788,8 +2788,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2836,8 +2836,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2884,8 +2884,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2932,8 +2932,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2980,8 +2980,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3028,8 +3028,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3076,8 +3076,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3124,8 +3124,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3172,8 +3172,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3220,8 +3220,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5869,13 +5869,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A144" sqref="A144:A146"/>
+      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5893,10 +5894,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -5908,47 +5909,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>253</v>
+    <row r="2" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>251</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="43"/>
+    <row r="3" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -5960,11 +5961,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -5976,14 +5977,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="43"/>
+    <row r="6" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -5992,13 +5993,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="43" t="s">
-        <v>254</v>
+    <row r="7" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="41" t="s">
+        <v>252</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -6010,11 +6011,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="43"/>
+    <row r="8" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -6026,45 +6027,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="43"/>
+    <row r="9" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="4" t="s">
+    <row r="11" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -6076,95 +6077,95 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="4" t="s">
+    <row r="16" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="25" t="s">
+    <row r="17" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>274</v>
-      </c>
       <c r="C17" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>17</v>
@@ -6176,11 +6177,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
       <c r="B18" s="47"/>
       <c r="C18" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -6192,13 +6193,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
       <c r="B19" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -6210,13 +6211,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
       <c r="B20" s="47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -6228,45 +6229,45 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
       <c r="B21" s="47"/>
       <c r="C21" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
       <c r="B22" s="47"/>
       <c r="C22" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>283</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>285</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -6278,90 +6279,90 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
       <c r="B24" s="48"/>
       <c r="C24" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
       <c r="B25" s="48"/>
       <c r="C25" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
       <c r="B26" s="48"/>
       <c r="C26" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
       <c r="B27" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+    <row r="28" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>342</v>
+      <c r="B28" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>340</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
+    <row r="29" spans="1:6" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="10" t="s">
         <v>45</v>
       </c>
@@ -6372,239 +6373,239 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="49" t="s">
-        <v>344</v>
+    <row r="31" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="52" t="s">
+        <v>342</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="50"/>
+    <row r="32" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
       <c r="B33" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+    <row r="34" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
       <c r="B34" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D35" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="C35" s="18" t="s">
+    <row r="36" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="C36" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="D36" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="C36" s="18" t="s">
+    <row r="37" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="C37" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="D37" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C37" s="18" t="s">
+    <row r="38" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="C38" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="D38" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+    <row r="39" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
       <c r="B40" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C40" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+    </row>
+    <row r="41" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
       <c r="B41" s="29" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+    </row>
+    <row r="42" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
       <c r="B42" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+    <row r="43" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
       <c r="B43" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>56</v>
@@ -6616,13 +6617,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>290</v>
+    <row r="44" spans="1:6" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>288</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>68</v>
@@ -6634,10 +6635,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+    <row r="45" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="2" t="s">
         <v>60</v>
       </c>
@@ -6648,10 +6649,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+    <row r="46" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="2" t="s">
         <v>62</v>
       </c>
@@ -6659,13 +6660,13 @@
         <v>63</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="2" t="s">
         <v>65</v>
       </c>
@@ -6676,15 +6677,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+    <row r="48" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="43" t="s">
-        <v>216</v>
+      <c r="B48" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>72</v>
@@ -6696,77 +6697,77 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="43"/>
+    <row r="49" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E50" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="4" t="s">
+    </row>
+    <row r="51" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="43" t="s">
-        <v>223</v>
+    <row r="53" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
+      <c r="B53" s="41" t="s">
+        <v>221</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>83</v>
@@ -6778,101 +6779,101 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="43"/>
+    <row r="54" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34"/>
+      <c r="B55" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="C55" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="D55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="4" t="s">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D57" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34"/>
+      <c r="B58" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="43" t="s">
+      <c r="D58" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="E58" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+    </row>
+    <row r="60" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="34"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-    </row>
-    <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>81</v>
@@ -6884,13 +6885,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
+    <row r="61" spans="1:6" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="34"/>
       <c r="B61" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>75</v>
@@ -6902,81 +6903,81 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="43" t="s">
+    <row r="62" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="E62" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="34"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="4" t="s">
+    </row>
+    <row r="64" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="34"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+    <row r="65" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="37" t="s">
-        <v>416</v>
+      <c r="B65" s="35" t="s">
+        <v>414</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="F65" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="38"/>
+    </row>
+    <row r="66" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>86</v>
@@ -6988,11 +6989,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="38"/>
+    <row r="67" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>88</v>
@@ -7004,11 +7005,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="38"/>
+    <row r="68" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>92</v>
@@ -7020,47 +7021,47 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="39"/>
+    <row r="69" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+    <row r="70" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
       <c r="B70" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
+    <row r="71" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
       <c r="B71" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>9</v>
@@ -7072,116 +7073,116 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
+    <row r="72" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
       <c r="B72" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="C73" s="4" t="s">
+    </row>
+    <row r="75" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="C77" s="4" t="s">
+      <c r="E77" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+    </row>
+    <row r="78" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
         <v>99</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="2" t="s">
@@ -7194,11 +7195,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
+    <row r="79" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="34"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>103</v>
@@ -7210,13 +7211,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="40" t="s">
-        <v>542</v>
+    <row r="80" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="34"/>
+      <c r="B80" s="38" t="s">
+        <v>540</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>107</v>
@@ -7228,11 +7229,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="42"/>
+    <row r="81" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="34"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>115</v>
@@ -7244,11 +7245,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
+    <row r="82" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="34"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>118</v>
@@ -7260,289 +7261,289 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
+    <row r="83" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="34"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>122</v>
+        <v>651</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="34"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
+    </row>
+    <row r="85" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="34"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="44"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="44"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A89" s="36" t="s">
-        <v>143</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="34"/>
       <c r="B90" s="45"/>
       <c r="C90" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="34"/>
       <c r="B91" s="45"/>
       <c r="C91" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="34"/>
       <c r="B92" s="45"/>
       <c r="C92" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E92" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
+    </row>
+    <row r="93" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="34"/>
       <c r="B93" s="45"/>
       <c r="C93" s="26"/>
       <c r="D93" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>634</v>
-      </c>
       <c r="F93" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="34"/>
       <c r="B94" s="45"/>
       <c r="C94" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
+    </row>
+    <row r="95" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="34"/>
       <c r="B95" s="45"/>
       <c r="C95" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D95" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>553</v>
-      </c>
       <c r="F95" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="34"/>
       <c r="B96" s="45"/>
       <c r="C96" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="34"/>
+      <c r="B97" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>181</v>
-      </c>
       <c r="D97" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="34"/>
       <c r="B98" s="45"/>
       <c r="C98" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="34"/>
       <c r="B99" s="45"/>
       <c r="C99" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="34"/>
       <c r="B100" s="45"/>
       <c r="C100" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>112</v>
@@ -7554,11 +7555,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
+    <row r="101" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="34"/>
       <c r="B101" s="45"/>
       <c r="C101" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>109</v>
@@ -7570,709 +7571,716 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
+    <row r="102" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="34"/>
       <c r="B102" s="45"/>
       <c r="C102" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="225" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="34"/>
+      <c r="B103" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>188</v>
-      </c>
       <c r="D103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="F103" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="34"/>
       <c r="B104" s="46"/>
       <c r="C104" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="34"/>
       <c r="B105" s="46"/>
       <c r="C105" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="34"/>
+      <c r="B106" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>192</v>
-      </c>
       <c r="D106" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="34"/>
       <c r="B107" s="46"/>
       <c r="C107" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="34"/>
       <c r="B108" s="46"/>
       <c r="C108" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E108" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
+    </row>
+    <row r="109" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="34"/>
       <c r="B109" s="46"/>
       <c r="C109" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="34"/>
       <c r="B110" s="46"/>
       <c r="C110" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="34"/>
+      <c r="B111" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E110" s="3" t="s">
+      <c r="D111" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
+    </row>
+    <row r="112" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="34"/>
       <c r="B112" s="45"/>
       <c r="C112" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="34"/>
+      <c r="B113" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E112" s="3" t="s">
+      <c r="D113" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E113" s="3" t="s">
+    <row r="114" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="43"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="43"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="43"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E117" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F117" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B114" s="43" t="s">
+    <row r="118" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="43"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C114" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="21" t="s">
+      <c r="E118" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="43"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="21" t="s">
+      <c r="E119" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="43"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E120" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
-      <c r="B119" s="43"/>
-      <c r="C119" s="21" t="s">
+    </row>
+    <row r="121" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="43"/>
+      <c r="B121" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="C121" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
-      <c r="B120" s="43"/>
-      <c r="C120" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D120" s="8" t="s">
+      <c r="E121" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="43"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
-      <c r="B121" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="33"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="33"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="43"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="42"/>
       <c r="D123" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="33"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="43"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="42"/>
       <c r="D124" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="43"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="42"/>
       <c r="D125" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
-      <c r="B126" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>274</v>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="43"/>
+      <c r="B126" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" s="42" t="s">
+        <v>272</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="33"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="43"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
       <c r="D127" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="33"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32" t="s">
-        <v>304</v>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="43"/>
+      <c r="B128" s="42"/>
+      <c r="C128" s="42" t="s">
+        <v>302</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="43"/>
+      <c r="B129" s="42"/>
+      <c r="C129" s="42"/>
       <c r="D129" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32" t="s">
-        <v>305</v>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="43"/>
+      <c r="B130" s="42"/>
+      <c r="C130" s="42" t="s">
+        <v>303</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="33"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="43"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
       <c r="D131" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="33"/>
-      <c r="B132" s="32"/>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="43"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
-      <c r="B133" s="32" t="s">
-        <v>307</v>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="43"/>
+      <c r="B133" s="42" t="s">
+        <v>305</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
-      <c r="B134" s="32"/>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="43"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
     </row>
-    <row r="135" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
+    <row r="135" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="B135" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="43"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="43"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B135" s="32" t="s">
+      <c r="D137" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="43"/>
+      <c r="B138" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A136" s="33"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="33"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E137" s="3" t="s">
+      <c r="D138" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A138" s="33"/>
-      <c r="B138" s="32" t="s">
+    <row r="139" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="43"/>
+      <c r="B139" s="42"/>
+      <c r="C139" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D138" s="8" t="s">
+      <c r="D139" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="43"/>
+      <c r="B140" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A139" s="33"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D139" s="8" t="s">
+      <c r="D140" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="43"/>
+      <c r="B141" s="42"/>
+      <c r="C141" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="D141" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="33"/>
-      <c r="B140" s="32" t="s">
+    <row r="142" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="43"/>
+      <c r="B142" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E140" s="8" t="s">
+      <c r="D142" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="43"/>
+      <c r="B143" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142" s="33"/>
-      <c r="B142" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A143" s="33"/>
-      <c r="B143" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A144" s="63" t="s">
+      <c r="B144" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="C144" s="30" t="s">
         <v>642</v>
       </c>
-      <c r="B144" s="31" t="s">
+      <c r="D144" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="C144" s="30" t="s">
+      <c r="E144" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="F144" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="E144" s="3" t="s">
+    </row>
+    <row r="145" spans="1:6" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="50"/>
+      <c r="B145" s="31" t="s">
         <v>646</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="C145" s="30" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A145" s="64"/>
-      <c r="B145" s="31" t="s">
+      <c r="D145" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="C145" s="30" t="s">
+      <c r="E145" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="F145" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="65"/>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="51"/>
       <c r="B146" s="31"/>
       <c r="C146" s="30"/>
       <c r="D146" s="8"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B147" s="21"/>
       <c r="C147" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E147" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D147" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>520</v>
-      </c>
       <c r="F147" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F147" xr:uid="{331A1102-3C74-4A47-9A3F-28ABFF47BF14}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="AWS Trusted Advisor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="50">
     <mergeCell ref="A144:A146"/>
     <mergeCell ref="C44:C47"/>
@@ -8282,13 +8290,17 @@
     <mergeCell ref="A28:A38"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A39:A47"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A135:A143"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A27"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B62:B64"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B16"/>
@@ -8308,10 +8320,6 @@
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="B106:B110"/>
     <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="A135:A143"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="A89:A113"/>
     <mergeCell ref="A78:A85"/>
@@ -8464,8 +8472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8478,309 +8486,309 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+      <c r="B8" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>451</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>383</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="11" t="s">
+      <c r="E19" s="28" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E20" s="28" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="11" t="s">
+    <row r="21" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E21" s="28" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="11" t="s">
+    <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E22" s="28" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>628</v>
-      </c>
-    </row>
     <row r="23" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="60"/>
       <c r="C23" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="60"/>
       <c r="C24" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="60"/>
       <c r="C25" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="60"/>
       <c r="C26" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="60"/>
       <c r="C27" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="61"/>
       <c r="C28" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="56" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="59" t="s">
-        <v>386</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="60"/>
       <c r="C35" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="60"/>
       <c r="C36" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="60"/>
       <c r="C37" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="61"/>
       <c r="C38" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
+      <c r="B39" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="59" t="s">
-        <v>392</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="60"/>
       <c r="C40" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="60"/>
       <c r="C41" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="60"/>
       <c r="C42" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="61"/>
       <c r="C43" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
+      <c r="A46" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -8844,34 +8852,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>452</v>
+      <c r="A2" s="56" t="s">
+        <v>450</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>455</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7AEB19-D11F-47DB-B80E-F1DCCF2DA88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5F9BD-FBEF-4B55-B83D-2794BD6C8372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicios" sheetId="1" r:id="rId1"/>
     <sheet name="OtrosConceptos" sheetId="2" r:id="rId2"/>
     <sheet name="Informacion Adicional" sheetId="3" r:id="rId3"/>
+    <sheet name="Preguntas" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Servicios!$A$1:$F$147</definedName>
@@ -2561,10 +2562,49 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2586,45 +2626,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5606,6 +5607,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>122767</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>645795</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4820863-191B-4B7C-A3A5-36A36FA45BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="122767" y="0"/>
+          <a:ext cx="11191028" cy="6294953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>189427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366BA33A-5242-4751-AD1A-523989E6BEFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98425" y="6448424"/>
+          <a:ext cx="11224895" cy="6314003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5910,10 +6004,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="36" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>251</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5930,8 +6024,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>246</v>
       </c>
@@ -5946,8 +6040,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4" t="s">
         <v>248</v>
       </c>
@@ -5962,8 +6056,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4" t="s">
         <v>249</v>
       </c>
@@ -5978,8 +6072,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="4" t="s">
         <v>250</v>
       </c>
@@ -5994,8 +6088,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="35" t="s">
         <v>252</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -6012,8 +6106,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4" t="s">
         <v>254</v>
       </c>
@@ -6028,8 +6122,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>255</v>
       </c>
@@ -6044,8 +6138,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
         <v>257</v>
       </c>
@@ -6060,7 +6154,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="18" t="s">
         <v>259</v>
       </c>
@@ -6078,8 +6172,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="35" t="s">
         <v>261</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6096,8 +6190,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4" t="s">
         <v>264</v>
       </c>
@@ -6110,8 +6204,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4" t="s">
         <v>266</v>
       </c>
@@ -6126,8 +6220,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4" t="s">
         <v>267</v>
       </c>
@@ -6142,8 +6236,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="4" t="s">
         <v>269</v>
       </c>
@@ -6158,10 +6252,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="40" t="s">
         <v>272</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -6178,8 +6272,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="18" t="s">
         <v>290</v>
       </c>
@@ -6194,7 +6288,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="19" t="s">
         <v>275</v>
       </c>
@@ -6212,8 +6306,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="40" t="s">
         <v>274</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -6230,8 +6324,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="18" t="s">
         <v>279</v>
       </c>
@@ -6246,8 +6340,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="18" t="s">
         <v>281</v>
       </c>
@@ -6262,8 +6356,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="41" t="s">
         <v>282</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -6280,8 +6374,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="18" t="s">
         <v>285</v>
       </c>
@@ -6296,8 +6390,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="18" t="s">
         <v>287</v>
       </c>
@@ -6312,8 +6406,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="18" t="s">
         <v>288</v>
       </c>
@@ -6326,7 +6420,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="4" t="s">
         <v>289</v>
       </c>
@@ -6340,13 +6434,13 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="35" t="s">
         <v>340</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6360,9 +6454,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="10" t="s">
         <v>45</v>
       </c>
@@ -6374,9 +6468,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="8" t="s">
         <v>129</v>
       </c>
@@ -6386,8 +6480,8 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37" t="s">
         <v>342</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -6404,8 +6498,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
         <v>470</v>
@@ -6418,7 +6512,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="18" t="s">
         <v>343</v>
       </c>
@@ -6436,7 +6530,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="18" t="s">
         <v>347</v>
       </c>
@@ -6454,7 +6548,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="18" t="s">
         <v>348</v>
       </c>
@@ -6472,7 +6566,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="18" t="s">
         <v>351</v>
       </c>
@@ -6490,7 +6584,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="18" t="s">
         <v>354</v>
       </c>
@@ -6508,7 +6602,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="18" t="s">
         <v>357</v>
       </c>
@@ -6526,7 +6620,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -6546,7 +6640,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18" t="s">
         <v>469</v>
       </c>
@@ -6564,7 +6658,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="29" t="s">
         <v>636</v>
       </c>
@@ -6582,7 +6676,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="18" t="s">
         <v>339</v>
       </c>
@@ -6600,7 +6694,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="18" t="s">
         <v>338</v>
       </c>
@@ -6618,11 +6712,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="180" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="41" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="35" t="s">
         <v>288</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -6636,9 +6730,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="2" t="s">
         <v>60</v>
       </c>
@@ -6650,9 +6744,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="2" t="s">
         <v>62</v>
       </c>
@@ -6664,9 +6758,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="2" t="s">
         <v>65</v>
       </c>
@@ -6678,10 +6772,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="35" t="s">
         <v>214</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -6698,8 +6792,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="4" t="s">
         <v>216</v>
       </c>
@@ -6714,8 +6808,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="4" t="s">
         <v>218</v>
       </c>
@@ -6730,8 +6824,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="4" t="s">
         <v>481</v>
       </c>
@@ -6746,8 +6840,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="4" t="s">
         <v>220</v>
       </c>
@@ -6762,8 +6856,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="41" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="35" t="s">
         <v>221</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -6780,8 +6874,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="4" t="s">
         <v>223</v>
       </c>
@@ -6796,8 +6890,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="41" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="35" t="s">
         <v>225</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -6812,8 +6906,8 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="4" t="s">
         <v>227</v>
       </c>
@@ -6826,8 +6920,8 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="4" t="s">
         <v>229</v>
       </c>
@@ -6840,8 +6934,8 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="41" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="35" t="s">
         <v>230</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -6850,28 +6944,28 @@
       <c r="D58" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="42" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="4" t="s">
         <v>235</v>
       </c>
@@ -6886,7 +6980,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="18" t="s">
         <v>236</v>
       </c>
@@ -6904,8 +6998,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="41" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="35" t="s">
         <v>238</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -6922,8 +7016,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="4" t="s">
         <v>241</v>
       </c>
@@ -6938,8 +7032,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="41"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="4" t="s">
         <v>243</v>
       </c>
@@ -6954,10 +7048,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="48" t="s">
         <v>414</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -6974,8 +7068,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="4" t="s">
         <v>408</v>
       </c>
@@ -6990,8 +7084,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="4" t="s">
         <v>409</v>
       </c>
@@ -7006,8 +7100,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="36"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="4" t="s">
         <v>410</v>
       </c>
@@ -7022,8 +7116,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="4" t="s">
         <v>411</v>
       </c>
@@ -7038,7 +7132,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="4" t="s">
         <v>131</v>
       </c>
@@ -7056,7 +7150,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="4" t="s">
         <v>415</v>
       </c>
@@ -7074,7 +7168,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="4" t="s">
         <v>419</v>
       </c>
@@ -7092,8 +7186,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="35" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="48" t="s">
         <v>428</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -7110,8 +7204,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="4" t="s">
         <v>433</v>
       </c>
@@ -7126,8 +7220,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
-      <c r="B75" s="35" t="s">
+      <c r="A75" s="52"/>
+      <c r="B75" s="48" t="s">
         <v>443</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -7144,8 +7238,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="4" t="s">
         <v>447</v>
       </c>
@@ -7160,7 +7254,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="20" t="s">
         <v>438</v>
       </c>
@@ -7178,7 +7272,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="47" t="s">
         <v>99</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -7196,7 +7290,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
         <v>537</v>
@@ -7212,8 +7306,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="38" t="s">
+      <c r="A80" s="47"/>
+      <c r="B80" s="51" t="s">
         <v>540</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -7230,8 +7324,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="40"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="4" t="s">
         <v>539</v>
       </c>
@@ -7246,7 +7340,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
         <v>541</v>
@@ -7262,7 +7356,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
         <v>542</v>
@@ -7278,7 +7372,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
         <v>543</v>
@@ -7294,7 +7388,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
         <v>544</v>
@@ -7360,7 +7454,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="47" t="s">
         <v>141</v>
       </c>
       <c r="B89" s="45" t="s">
@@ -7380,7 +7474,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="45"/>
       <c r="C90" s="21" t="s">
         <v>213</v>
@@ -7396,7 +7490,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
+      <c r="A91" s="47"/>
       <c r="B91" s="45"/>
       <c r="C91" s="21" t="s">
         <v>174</v>
@@ -7412,7 +7506,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="45"/>
       <c r="C92" s="21" t="s">
         <v>175</v>
@@ -7428,7 +7522,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="45"/>
       <c r="C93" s="26"/>
       <c r="D93" s="8" t="s">
@@ -7442,7 +7536,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="45"/>
       <c r="C94" s="21" t="s">
         <v>212</v>
@@ -7458,7 +7552,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="45"/>
       <c r="C95" s="21" t="s">
         <v>176</v>
@@ -7474,7 +7568,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="45"/>
       <c r="C96" s="21" t="s">
         <v>177</v>
@@ -7490,7 +7584,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="45" t="s">
         <v>178</v>
       </c>
@@ -7508,7 +7602,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="45"/>
       <c r="C98" s="21" t="s">
         <v>180</v>
@@ -7524,7 +7618,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="45"/>
       <c r="C99" s="21" t="s">
         <v>181</v>
@@ -7540,7 +7634,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
+      <c r="A100" s="47"/>
       <c r="B100" s="45"/>
       <c r="C100" s="21" t="s">
         <v>182</v>
@@ -7556,7 +7650,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="45"/>
       <c r="C101" s="21" t="s">
         <v>183</v>
@@ -7572,7 +7666,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
+      <c r="A102" s="47"/>
       <c r="B102" s="45"/>
       <c r="C102" s="21" t="s">
         <v>184</v>
@@ -7588,7 +7682,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="225" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="46" t="s">
         <v>185</v>
       </c>
@@ -7606,7 +7700,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
+      <c r="A104" s="47"/>
       <c r="B104" s="46"/>
       <c r="C104" s="21" t="s">
         <v>187</v>
@@ -7622,7 +7716,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="46"/>
       <c r="C105" s="21" t="s">
         <v>188</v>
@@ -7638,7 +7732,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="46" t="s">
         <v>189</v>
       </c>
@@ -7656,7 +7750,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="46"/>
       <c r="C107" s="21" t="s">
         <v>191</v>
@@ -7672,7 +7766,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="46"/>
       <c r="C108" s="21" t="s">
         <v>192</v>
@@ -7688,7 +7782,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="46"/>
       <c r="C109" s="3" t="s">
         <v>193</v>
@@ -7704,7 +7798,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="46"/>
       <c r="C110" s="21" t="s">
         <v>194</v>
@@ -7720,7 +7814,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
+      <c r="A111" s="47"/>
       <c r="B111" s="45" t="s">
         <v>195</v>
       </c>
@@ -7738,7 +7832,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
+      <c r="A112" s="47"/>
       <c r="B112" s="45"/>
       <c r="C112" s="21" t="s">
         <v>197</v>
@@ -7754,7 +7848,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
+      <c r="A113" s="47"/>
       <c r="B113" s="17" t="s">
         <v>198</v>
       </c>
@@ -7772,10 +7866,10 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="43" t="s">
+      <c r="A114" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="35" t="s">
         <v>308</v>
       </c>
       <c r="C114" s="18" t="s">
@@ -7792,8 +7886,8 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
-      <c r="B115" s="41"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="35"/>
       <c r="C115" s="18" t="s">
         <v>293</v>
       </c>
@@ -7808,8 +7902,8 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="41"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="35"/>
       <c r="C116" s="21" t="s">
         <v>294</v>
       </c>
@@ -7824,8 +7918,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="195" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="43"/>
-      <c r="B117" s="41"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="35"/>
       <c r="C117" s="21" t="s">
         <v>295</v>
       </c>
@@ -7840,8 +7934,8 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="43"/>
-      <c r="B118" s="41"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="35"/>
       <c r="C118" s="21" t="s">
         <v>296</v>
       </c>
@@ -7856,8 +7950,8 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
-      <c r="B119" s="41"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="35"/>
       <c r="C119" s="21" t="s">
         <v>297</v>
       </c>
@@ -7872,8 +7966,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="43"/>
-      <c r="B120" s="41"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="35"/>
       <c r="C120" s="21" t="s">
         <v>298</v>
       </c>
@@ -7888,11 +7982,11 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="43"/>
-      <c r="B121" s="42" t="s">
+      <c r="A121" s="36"/>
+      <c r="B121" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="C121" s="42" t="s">
+      <c r="C121" s="39" t="s">
         <v>300</v>
       </c>
       <c r="D121" s="8" t="s">
@@ -7906,9 +8000,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
-      <c r="B122" s="42"/>
-      <c r="C122" s="42"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
       <c r="D122" s="9" t="s">
         <v>314</v>
       </c>
@@ -7916,9 +8010,9 @@
       <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="43"/>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
       <c r="D123" s="9" t="s">
         <v>315</v>
       </c>
@@ -7926,9 +8020,9 @@
       <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="43"/>
-      <c r="B124" s="42"/>
-      <c r="C124" s="42"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
       <c r="D124" s="9" t="s">
         <v>316</v>
       </c>
@@ -7936,9 +8030,9 @@
       <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
-      <c r="B125" s="42"/>
-      <c r="C125" s="42"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
       <c r="D125" s="9" t="s">
         <v>317</v>
       </c>
@@ -7946,11 +8040,11 @@
       <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="43"/>
-      <c r="B126" s="42" t="s">
+      <c r="A126" s="36"/>
+      <c r="B126" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="C126" s="42" t="s">
+      <c r="C126" s="39" t="s">
         <v>272</v>
       </c>
       <c r="D126" s="9" t="s">
@@ -7962,9 +8056,9 @@
       <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="43"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
       <c r="D127" s="9" t="s">
         <v>319</v>
       </c>
@@ -7972,9 +8066,9 @@
       <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="43"/>
-      <c r="B128" s="42"/>
-      <c r="C128" s="42" t="s">
+      <c r="A128" s="36"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39" t="s">
         <v>302</v>
       </c>
       <c r="D128" s="9" t="s">
@@ -7986,9 +8080,9 @@
       <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="43"/>
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
       <c r="D129" s="9" t="s">
         <v>321</v>
       </c>
@@ -7996,9 +8090,9 @@
       <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="42" t="s">
+      <c r="A130" s="36"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="39" t="s">
         <v>303</v>
       </c>
       <c r="D130" s="9" t="s">
@@ -8008,9 +8102,9 @@
       <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
-      <c r="B131" s="42"/>
-      <c r="C131" s="42"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
       <c r="D131" s="9" t="s">
         <v>319</v>
       </c>
@@ -8018,8 +8112,8 @@
       <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="43"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="21" t="s">
         <v>304</v>
       </c>
@@ -8030,8 +8124,8 @@
       <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="43"/>
-      <c r="B133" s="42" t="s">
+      <c r="A133" s="36"/>
+      <c r="B133" s="39" t="s">
         <v>305</v>
       </c>
       <c r="C133" s="21" t="s">
@@ -8044,8 +8138,8 @@
       <c r="F133" s="9"/>
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="43"/>
-      <c r="B134" s="42"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="21" t="s">
         <v>307</v>
       </c>
@@ -8056,10 +8150,10 @@
       <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="B135" s="42" t="s">
+      <c r="B135" s="39" t="s">
         <v>493</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -8076,8 +8170,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
-      <c r="B136" s="42"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="4" t="s">
         <v>489</v>
       </c>
@@ -8092,8 +8186,8 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="43"/>
-      <c r="B137" s="42"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="4" t="s">
         <v>490</v>
       </c>
@@ -8108,8 +8202,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="43"/>
-      <c r="B138" s="42" t="s">
+      <c r="A138" s="36"/>
+      <c r="B138" s="39" t="s">
         <v>494</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -8126,8 +8220,8 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="43"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="4" t="s">
         <v>496</v>
       </c>
@@ -8142,8 +8236,8 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="43"/>
-      <c r="B140" s="42" t="s">
+      <c r="A140" s="36"/>
+      <c r="B140" s="39" t="s">
         <v>501</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -8158,8 +8252,8 @@
       <c r="F140" s="9"/>
     </row>
     <row r="141" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="43"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="4" t="s">
         <v>500</v>
       </c>
@@ -8174,7 +8268,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="43"/>
+      <c r="A142" s="36"/>
       <c r="B142" s="21" t="s">
         <v>505</v>
       </c>
@@ -8192,7 +8286,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="43"/>
+      <c r="A143" s="36"/>
       <c r="B143" s="21" t="s">
         <v>508</v>
       </c>
@@ -8210,7 +8304,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="49" t="s">
+      <c r="A144" s="32" t="s">
         <v>640</v>
       </c>
       <c r="B144" s="31" t="s">
@@ -8230,7 +8324,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="50"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="31" t="s">
         <v>646</v>
       </c>
@@ -8248,7 +8342,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="31"/>
       <c r="C146" s="30"/>
       <c r="D146" s="8"/>
@@ -8282,28 +8376,18 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="A135:A143"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A89:A113"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="C130:C131"/>
     <mergeCell ref="B126:B132"/>
@@ -8320,18 +8404,28 @@
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="B106:B110"/>
     <mergeCell ref="B89:B96"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A89:A113"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A48:A64"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A135:A143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F9E8731C-48A2-479D-AC46-EC4E9BD8864F}"/>
@@ -8472,7 +8566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97729C-E967-43E1-9691-56F7901D7EB8}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:A43"/>
     </sheetView>
   </sheetViews>
@@ -8830,7 +8924,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8889,4 +8983,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76927E6F-E385-462D-9E87-D8E2407C27FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RecursosInglesEspañol.xlsx
+++ b/RecursosInglesEspañol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\CloudAws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5F9BD-FBEF-4B55-B83D-2794BD6C8372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-00